--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -2720,7 +2720,7 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2025-11-16</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -3911,7 +3911,7 @@
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -7414,7 +7414,7 @@
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-11-23</t>
         </is>
       </c>
       <c r="K133" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -2455,7 +2455,7 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -16924,7 +16924,7 @@
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="K315" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -16924,7 +16924,7 @@
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="K315" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -7458,7 +7458,11 @@
           <t>2025-12-07</t>
         </is>
       </c>
-      <c r="K134" s="2" t="inlineStr"/>
+      <c r="K134" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17018,7 +17018,7 @@
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="K317" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17018,7 +17018,7 @@
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="K317" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NornsScripts" displayName="NornsScripts" ref="A1:K332" headerRowCount="1">
-  <autoFilter ref="A1:K332"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NornsScripts" displayName="NornsScripts" ref="A1:K333" headerRowCount="1">
+  <autoFilter ref="A1:K333"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Author"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K332"/>
+  <dimension ref="A1:K333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14514,48 +14514,40 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>semiconductor</t>
+          <t>seeker_ii</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>jaseknighter</t>
+          <t>awakeningsystems</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>mod, utility</t>
+          <t>grid, arc, midi, osc, crow</t>
         </is>
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>norns ensemble mod</t>
+          <t>compositional interface for music, voltage, and video</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
-      <c r="F270" s="3" t="inlineStr">
-        <is>
-          <t>https://llllllll.co/t/62651</t>
-        </is>
-      </c>
+      <c r="F270" s="2" t="inlineStr"/>
       <c r="G270" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/jaseknighter/semiconductor</t>
+          <t>https://github.com/brokyo/seeker_ii</t>
         </is>
       </c>
       <c r="H270" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/semiconductor</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="inlineStr">
-        <is>
-          <t>Missing Demo</t>
-        </is>
-      </c>
+          <t>https://norns.community/seeker_ii</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="inlineStr"/>
       <c r="J270" s="2" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="K270" s="2" t="inlineStr"/>
@@ -14563,52 +14555,48 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>sempra</t>
+          <t>semiconductor</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>zbs</t>
+          <t>jaseknighter</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, crow</t>
+          <t>mod, utility</t>
         </is>
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>continuous dynamic melody sequencer for 16n+grid</t>
-        </is>
-      </c>
-      <c r="E271" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ylj5nLv6IEg</t>
-        </is>
-      </c>
+          <t>norns ensemble mod</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="inlineStr"/>
       <c r="F271" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/54492</t>
+          <t>https://llllllll.co/t/62651</t>
         </is>
       </c>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/zjb-s/sempra</t>
+          <t>https://github.com/jaseknighter/semiconductor</t>
         </is>
       </c>
       <c r="H271" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sempra</t>
+          <t>https://norns.community/semiconductor</t>
         </is>
       </c>
       <c r="I271" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2023-06-18</t>
         </is>
       </c>
       <c r="K271" s="2" t="inlineStr"/>
@@ -14616,42 +14604,42 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>serialism</t>
+          <t>sempra</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>xmacex</t>
+          <t>zbs</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>midi</t>
+          <t>sequencer, grid, crow</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>Explore serialism in the spirit of Arnold Schönberg and others</t>
+          <t>continuous dynamic melody sequencer for 16n+grid</t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>https://youtu.be/8sm3o-2cfIQ</t>
+          <t>https://www.youtube.com/watch?v=ylj5nLv6IEg</t>
         </is>
       </c>
       <c r="F272" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/serialism/68332</t>
+          <t>https://llllllll.co/t/54492</t>
         </is>
       </c>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/xmacex/serialism</t>
+          <t>https://github.com/zjb-s/sempra</t>
         </is>
       </c>
       <c r="H272" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/serialism</t>
+          <t>https://norns.community/sempra</t>
         </is>
       </c>
       <c r="I272" s="2" t="inlineStr">
@@ -14661,7 +14649,7 @@
       </c>
       <c r="J272" s="2" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="K272" s="2" t="inlineStr"/>
@@ -14669,52 +14657,52 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>shapes</t>
+          <t>serialism</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>tyler</t>
+          <t>xmacex</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>midi</t>
         </is>
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>visuals-based modulation source for crow and midi</t>
+          <t>Explore serialism in the spirit of Arnold Schönberg and others</t>
         </is>
       </c>
       <c r="E273" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8TD0vDnNUYc</t>
+          <t>https://youtu.be/8sm3o-2cfIQ</t>
         </is>
       </c>
       <c r="F273" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/36759</t>
+          <t>https://llllllll.co/t/serialism/68332</t>
         </is>
       </c>
       <c r="G273" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tlubke/shapes</t>
+          <t>https://github.com/xmacex/serialism</t>
         </is>
       </c>
       <c r="H273" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shapes</t>
+          <t>https://norns.community/serialism</t>
         </is>
       </c>
       <c r="I273" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J273" s="2" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="K273" s="2" t="inlineStr"/>
@@ -14722,42 +14710,42 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>shfts</t>
+          <t>shapes</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>germinal</t>
+          <t>tyler</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>sequencer, crow, grid</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>random sequencer for norns, crow, and grid</t>
+          <t>visuals-based modulation source for crow and midi</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B3kCWYtBl_8/</t>
+          <t>https://www.youtube.com/watch?v=8TD0vDnNUYc</t>
         </is>
       </c>
       <c r="F274" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/26221</t>
+          <t>https://llllllll.co/t/36759</t>
         </is>
       </c>
       <c r="G274" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/rwhaling/shfts</t>
+          <t>https://github.com/tlubke/shapes</t>
         </is>
       </c>
       <c r="H274" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shfts</t>
+          <t>https://norns.community/shapes</t>
         </is>
       </c>
       <c r="I274" s="2" t="inlineStr">
@@ -14767,7 +14755,7 @@
       </c>
       <c r="J274" s="2" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="K274" s="2" t="inlineStr"/>
@@ -14775,48 +14763,52 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>shnthsalslied</t>
+          <t>shfts</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>germinal</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
+          <t>sequencer, crow, grid</t>
         </is>
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>fork of schicksalslied for use with shbobo shnth</t>
-        </is>
-      </c>
-      <c r="E275" s="2" t="inlineStr"/>
+          <t>random sequencer for norns, crow, and grid</t>
+        </is>
+      </c>
+      <c r="E275" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/B3kCWYtBl_8/</t>
+        </is>
+      </c>
       <c r="F275" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/shnthsalslied/59232</t>
+          <t>https://llllllll.co/t/26221</t>
         </is>
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/shnthsalslied</t>
+          <t>https://github.com/rwhaling/shfts</t>
         </is>
       </c>
       <c r="H275" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shnthsalslied</t>
+          <t>https://norns.community/shfts</t>
         </is>
       </c>
       <c r="I275" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J275" s="2" t="inlineStr">
         <is>
-          <t>2022-10-29</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="K275" s="2" t="inlineStr"/>
@@ -14824,52 +14816,48 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>shnthsalslied</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
         </is>
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>a thunderstorm for norns</t>
-        </is>
-      </c>
-      <c r="E276" s="3" t="inlineStr">
-        <is>
-          <t>https://soundcloud.com/track/885593155</t>
-        </is>
-      </c>
+          <t>fork of schicksalslied for use with shbobo shnth</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="inlineStr"/>
       <c r="F276" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/31622</t>
+          <t>https://llllllll.co/t/shnthsalslied/59232</t>
         </is>
       </c>
       <c r="G276" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/showers</t>
+          <t>https://github.com/williamthazard/shnthsalslied</t>
         </is>
       </c>
       <c r="H276" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/showers</t>
+          <t>https://norns.community/shnthsalslied</t>
         </is>
       </c>
       <c r="I276" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="K276" s="2" t="inlineStr"/>
@@ -14877,7 +14865,7 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>silos</t>
+          <t>showers</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -14887,42 +14875,42 @@
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>granulator, audio_fx, keyboard, grid, arc</t>
+          <t>art</t>
         </is>
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>live grains</t>
+          <t>a thunderstorm for norns</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/user-136434953/silos-2</t>
+          <t>https://soundcloud.com/track/885593155</t>
         </is>
       </c>
       <c r="F277" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/43804</t>
+          <t>https://llllllll.co/t/31622</t>
         </is>
       </c>
       <c r="G277" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/silos</t>
+          <t>https://github.com/justmat/showers</t>
         </is>
       </c>
       <c r="H277" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/silos</t>
+          <t>https://norns.community/showers</t>
         </is>
       </c>
       <c r="I277" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J277" s="2" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="K277" s="2" t="inlineStr"/>
@@ -14930,52 +14918,52 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>sines</t>
+          <t>silos</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>oootini</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>synth, drone, 16n, midi</t>
+          <t>granulator, audio_fx, keyboard, grid, arc</t>
         </is>
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>16 sine waves</t>
+          <t>live grains</t>
         </is>
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=b8WXjrjjRe8</t>
+          <t>https://soundcloud.com/user-136434953/silos-2</t>
         </is>
       </c>
       <c r="F278" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/39292</t>
+          <t>https://llllllll.co/t/43804</t>
         </is>
       </c>
       <c r="G278" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/aidanreilly/sines</t>
+          <t>https://github.com/justmat/silos</t>
         </is>
       </c>
       <c r="H278" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sines</t>
+          <t>https://norns.community/silos</t>
         </is>
       </c>
       <c r="I278" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J278" s="2" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="K278" s="2" t="inlineStr"/>
@@ -14983,52 +14971,52 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>skylines</t>
+          <t>sines</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>markel_m</t>
+          <t>oootini</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>synth, drone, 16n, midi</t>
         </is>
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t>a sequencer inspired on the M185/Intellijel Metropolis</t>
+          <t>16 sine waves</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CH8dDmShk9Z/</t>
+          <t>https://www.youtube.com/watch?v=b8WXjrjjRe8</t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/skylines/38856</t>
+          <t>https://llllllll.co/t/39292</t>
         </is>
       </c>
       <c r="G279" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/unit-cell/skylines</t>
+          <t>https://github.com/aidanreilly/sines</t>
         </is>
       </c>
       <c r="H279" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/skylines</t>
+          <t>https://norns.community/sines</t>
         </is>
       </c>
       <c r="I279" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J279" s="2" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="K279" s="2" t="inlineStr"/>
@@ -15036,52 +15024,52 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>smash</t>
+          <t>skylines</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>markel_m</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>sequencer, drum</t>
+          <t>sequencer</t>
         </is>
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>sequencer for apes</t>
+          <t>a sequencer inspired on the M185/Intellijel Metropolis</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=G8dZLtmcJ60</t>
+          <t>https://www.instagram.com/p/CH8dDmShk9Z/</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/smash/48782</t>
+          <t>https://llllllll.co/t/skylines/38856</t>
         </is>
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryanlaws/SMASH</t>
+          <t>https://github.com/unit-cell/skylines</t>
         </is>
       </c>
       <c r="H280" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/smash</t>
+          <t>https://norns.community/skylines</t>
         </is>
       </c>
       <c r="I280" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J280" s="2" t="inlineStr">
         <is>
-          <t>2021-09-19</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="K280" s="2" t="inlineStr"/>
@@ -15089,42 +15077,42 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>spirals</t>
+          <t>smash</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>tomw</t>
+          <t>license</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>generative, sequencer, grid, midi</t>
+          <t>sequencer, drum</t>
         </is>
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>sequencer for apes</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5-2XTOoBuU0</t>
+          <t>https://www.youtube.com/watch?v=G8dZLtmcJ60</t>
         </is>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/spirals/40678</t>
+          <t>https://llllllll.co/t/smash/48782</t>
         </is>
       </c>
       <c r="G281" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tomwaters/spirals</t>
+          <t>https://github.com/ryanlaws/SMASH</t>
         </is>
       </c>
       <c r="H281" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/spirals</t>
+          <t>https://norns.community/smash</t>
         </is>
       </c>
       <c r="I281" s="2" t="inlineStr">
@@ -15134,7 +15122,7 @@
       </c>
       <c r="J281" s="2" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2021-09-19</t>
         </is>
       </c>
       <c r="K281" s="2" t="inlineStr"/>
@@ -15142,48 +15130,52 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>splicer</t>
+          <t>spirals</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>tomw</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>eduscript</t>
+          <t>generative, sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D282" s="2" t="inlineStr">
         <is>
-          <t>an eduscript for sequins and lattice</t>
-        </is>
-      </c>
-      <c r="E282" s="2" t="inlineStr"/>
+          <t>sequencer</t>
+        </is>
+      </c>
+      <c r="E282" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5-2XTOoBuU0</t>
+        </is>
+      </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/splicer</t>
+          <t>https://llllllll.co/t/spirals/40678</t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/splicer</t>
+          <t>https://github.com/tomwaters/spirals</t>
         </is>
       </c>
       <c r="H282" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/splicer</t>
+          <t>https://norns.community/spirals</t>
         </is>
       </c>
       <c r="I282" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J282" s="2" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="K282" s="2" t="inlineStr"/>
@@ -15191,52 +15183,48 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>splnkr</t>
+          <t>splicer</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>jaseknighter</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>sequencer, audio_fx, sampler, jf, crow, grid</t>
+          <t>eduscript</t>
         </is>
       </c>
       <c r="D283" s="2" t="inlineStr">
         <is>
-          <t>an amplitude and frequency tracking effects processor/sampler/sequencer</t>
-        </is>
-      </c>
-      <c r="E283" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/660537339</t>
-        </is>
-      </c>
+          <t>an eduscript for sequins and lattice</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="inlineStr"/>
       <c r="F283" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/51191</t>
+          <t>https://l.llllllll.co/splicer</t>
         </is>
       </c>
       <c r="G283" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/jaseknighter/splnkr</t>
+          <t>https://github.com/northern-information/splicer</t>
         </is>
       </c>
       <c r="H283" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/splnkr</t>
+          <t>https://norns.community/splicer</t>
         </is>
       </c>
       <c r="I283" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J283" s="2" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="K283" s="2" t="inlineStr"/>
@@ -15244,52 +15232,52 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>stack</t>
+          <t>splnkr</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>jaseknighter</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>audio_fx</t>
+          <t>sequencer, audio_fx, sampler, jf, crow, grid</t>
         </is>
       </c>
       <c r="D284" s="2" t="inlineStr">
         <is>
-          <t>a stack of 8 fixed-frequency resonant bandpass filters</t>
+          <t>an amplitude and frequency tracking effects processor/sampler/sequencer</t>
         </is>
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Zp7DKJaQs9o</t>
+          <t>https://vimeo.com/660537339</t>
         </is>
       </c>
       <c r="F284" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/35218</t>
+          <t>https://llllllll.co/t/51191</t>
         </is>
       </c>
       <c r="G284" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/stack</t>
+          <t>https://github.com/jaseknighter/splnkr</t>
         </is>
       </c>
       <c r="H284" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stack</t>
+          <t>https://norns.community/splnkr</t>
         </is>
       </c>
       <c r="I284" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J284" s="2" t="inlineStr">
         <is>
-          <t>2021-02-19</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="K284" s="2" t="inlineStr"/>
@@ -15297,48 +15285,52 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>stack</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>jah</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>sampler, sequencer</t>
+          <t>audio_fx</t>
         </is>
       </c>
       <c r="D285" s="2" t="inlineStr">
         <is>
-          <t>a simple step sequencer</t>
-        </is>
-      </c>
-      <c r="E285" s="2" t="inlineStr"/>
+          <t>a stack of 8 fixed-frequency resonant bandpass filters</t>
+        </is>
+      </c>
+      <c r="E285" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Zp7DKJaQs9o</t>
+        </is>
+      </c>
       <c r="F285" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/step/21093</t>
+          <t>https://llllllll.co/t/35218</t>
         </is>
       </c>
       <c r="G285" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/antonhornquist/step</t>
+          <t>https://github.com/cfdrake/stack</t>
         </is>
       </c>
       <c r="H285" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/step</t>
+          <t>https://norns.community/stack</t>
         </is>
       </c>
       <c r="I285" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J285" s="2" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2021-02-19</t>
         </is>
       </c>
       <c r="K285" s="2" t="inlineStr"/>
@@ -15346,52 +15338,48 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>stjörnuíþrótt</t>
+          <t>step</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>frederickk</t>
+          <t>jah</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>synth, drone, midi</t>
+          <t>sampler, sequencer</t>
         </is>
       </c>
       <c r="D286" s="2" t="inlineStr">
         <is>
-          <t>drone inspired by Moffenzeef Stargazer</t>
-        </is>
-      </c>
-      <c r="E286" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=iaO3x2EGuU0</t>
-        </is>
-      </c>
+          <t>a simple step sequencer</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="inlineStr"/>
       <c r="F286" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/33889</t>
+          <t>https://llllllll.co/t/step/21093</t>
         </is>
       </c>
       <c r="G286" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/frederickk/stjoernuithrott</t>
+          <t>https://github.com/antonhornquist/step</t>
         </is>
       </c>
       <c r="H286" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stjrnurtt</t>
+          <t>https://norns.community/step</t>
         </is>
       </c>
       <c r="I286" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J286" s="2" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="K286" s="2" t="inlineStr"/>
@@ -15399,42 +15387,42 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>streams</t>
+          <t>stjörnuíþrótt</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>sonocircuit</t>
+          <t>frederickk</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, crow, midi</t>
+          <t>synth, drone, midi</t>
         </is>
       </c>
       <c r="D287" s="2" t="inlineStr">
         <is>
-          <t>a multi play head sequencer</t>
+          <t>drone inspired by Moffenzeef Stargazer</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pTOR4oDJ6hE</t>
+          <t>https://www.youtube.com/watch?v=iaO3x2EGuU0</t>
         </is>
       </c>
       <c r="F287" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/streams/61436</t>
+          <t>https://llllllll.co/t/33889</t>
         </is>
       </c>
       <c r="G287" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/sonocircuit/streams</t>
+          <t>https://github.com/frederickk/stjoernuithrott</t>
         </is>
       </c>
       <c r="H287" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/streams</t>
+          <t>https://norns.community/stjrnurtt</t>
         </is>
       </c>
       <c r="I287" s="2" t="inlineStr">
@@ -15444,7 +15432,7 @@
       </c>
       <c r="J287" s="2" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="K287" s="2" t="inlineStr"/>
@@ -15452,42 +15440,42 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>strides</t>
+          <t>streams</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>sonocircuit</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>sampler, sequencer, grid, midi</t>
+          <t>sequencer, grid, crow, midi</t>
         </is>
       </c>
       <c r="D288" s="2" t="inlineStr">
         <is>
-          <t>a collection of pattern recorders</t>
+          <t>a multi play head sequencer</t>
         </is>
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/328470668</t>
+          <t>https://www.youtube.com/watch?v=pTOR4oDJ6hE</t>
         </is>
       </c>
       <c r="F288" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21101</t>
+          <t>https://llllllll.co/t/streams/61436</t>
         </is>
       </c>
       <c r="G288" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/notjustmat/strides</t>
+          <t>https://github.com/sonocircuit/streams</t>
         </is>
       </c>
       <c r="H288" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/strides</t>
+          <t>https://norns.community/streams</t>
         </is>
       </c>
       <c r="I288" s="2" t="inlineStr">
@@ -15497,7 +15485,7 @@
       </c>
       <c r="J288" s="2" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="K288" s="2" t="inlineStr"/>
@@ -15505,52 +15493,52 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>strum</t>
+          <t>strides</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>carvingcode</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>sampler, sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D289" s="2" t="inlineStr">
         <is>
-          <t>a plucky little pattern sequencer</t>
+          <t>a collection of pattern recorders</t>
         </is>
       </c>
       <c r="E289" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/328638255</t>
+          <t>https://vimeo.com/328470668</t>
         </is>
       </c>
       <c r="F289" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21025</t>
+          <t>https://llllllll.co/t/21101</t>
         </is>
       </c>
       <c r="G289" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/carvingCode/strum</t>
+          <t>https://github.com/notjustmat/strides</t>
         </is>
       </c>
       <c r="H289" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/strum</t>
+          <t>https://norns.community/strides</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J289" s="2" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="K289" s="2" t="inlineStr"/>
@@ -15558,48 +15546,52 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>støv</t>
+          <t>strum</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>imminent_gloom</t>
+          <t>carvingcode</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>synth, arc</t>
+          <t>sequencer, grid</t>
         </is>
       </c>
       <c r="D290" s="2" t="inlineStr">
         <is>
-          <t>another noise synth for norns</t>
-        </is>
-      </c>
-      <c r="E290" s="2" t="inlineStr"/>
+          <t>a plucky little pattern sequencer</t>
+        </is>
+      </c>
+      <c r="E290" s="3" t="inlineStr">
+        <is>
+          <t>https://vimeo.com/328638255</t>
+        </is>
+      </c>
       <c r="F290" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/stov/70821</t>
+          <t>https://llllllll.co/t/21025</t>
         </is>
       </c>
       <c r="G290" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/imminentgloom/st-v</t>
+          <t>https://github.com/carvingCode/strum</t>
         </is>
       </c>
       <c r="H290" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stv</t>
+          <t>https://norns.community/strum</t>
         </is>
       </c>
       <c r="I290" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J290" s="2" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2019-04-06</t>
         </is>
       </c>
       <c r="K290" s="2" t="inlineStr"/>
@@ -15607,7 +15599,7 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>støy</t>
+          <t>støv</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
@@ -15617,42 +15609,38 @@
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>synth, delay, grid</t>
+          <t>synth, arc</t>
         </is>
       </c>
       <c r="D291" s="2" t="inlineStr">
         <is>
-          <t>a noise synth for norns</t>
-        </is>
-      </c>
-      <c r="E291" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ZayWqvTqd_o</t>
-        </is>
-      </c>
+          <t>another noise synth for norns</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="inlineStr"/>
       <c r="F291" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/stoy/67054</t>
+          <t>https://llllllll.co/t/stov/70821</t>
         </is>
       </c>
       <c r="G291" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/imminentgloom/st-y</t>
+          <t>https://github.com/imminentgloom/st-v</t>
         </is>
       </c>
       <c r="H291" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sty</t>
+          <t>https://norns.community/stv</t>
         </is>
       </c>
       <c r="I291" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="K291" s="2" t="inlineStr"/>
@@ -15660,52 +15648,52 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>supertonic</t>
+          <t>støy</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>imminent_gloom</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>generative, drum</t>
+          <t>synth, delay, grid</t>
         </is>
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>an introspective drum machine</t>
+          <t>a noise synth for norns</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/557258118</t>
+          <t>https://www.youtube.com/watch?v=ZayWqvTqd_o</t>
         </is>
       </c>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/supertonic/45551</t>
+          <t>https://llllllll.co/t/stoy/67054</t>
         </is>
       </c>
       <c r="G292" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/supertonic</t>
+          <t>https://github.com/imminentgloom/st-y</t>
         </is>
       </c>
       <c r="H292" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/supertonic</t>
+          <t>https://norns.community/sty</t>
         </is>
       </c>
       <c r="I292" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>2021-07-03</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="K292" s="2" t="inlineStr"/>
@@ -15713,52 +15701,52 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>sway</t>
+          <t>supertonic</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>carltesta</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>generative, audio_fx</t>
+          <t>generative, drum</t>
         </is>
       </c>
       <c r="D293" s="2" t="inlineStr">
         <is>
-          <t>analysis-driven live audio processing</t>
+          <t>an introspective drum machine</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5IPCUoO0vYg</t>
+          <t>https://vimeo.com/557258118</t>
         </is>
       </c>
       <c r="F293" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/sway/21117</t>
+          <t>https://llllllll.co/t/supertonic/45551</t>
         </is>
       </c>
       <c r="G293" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/carltesta/sway</t>
+          <t>https://github.com/schollz/supertonic</t>
         </is>
       </c>
       <c r="H293" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sway</t>
+          <t>https://norns.community/supertonic</t>
         </is>
       </c>
       <c r="I293" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2021-07-03</t>
         </is>
       </c>
       <c r="K293" s="2" t="inlineStr"/>
@@ -15766,48 +15754,52 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>sweet bees</t>
+          <t>sway</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>Midworld</t>
+          <t>carltesta</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>looper</t>
+          <t>generative, audio_fx</t>
         </is>
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>asynchronous tape looper and reverb</t>
-        </is>
-      </c>
-      <c r="E294" s="2" t="inlineStr"/>
+          <t>analysis-driven live audio processing</t>
+        </is>
+      </c>
+      <c r="E294" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5IPCUoO0vYg</t>
+        </is>
+      </c>
       <c r="F294" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/sweet-bees/49272</t>
+          <t>https://llllllll.co/t/sway/21117</t>
         </is>
       </c>
       <c r="G294" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/icerigger/sweet-bees</t>
+          <t>https://github.com/carltesta/sway</t>
         </is>
       </c>
       <c r="H294" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sweetbees</t>
+          <t>https://norns.community/sway</t>
         </is>
       </c>
       <c r="I294" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J294" s="2" t="inlineStr">
         <is>
-          <t>2021-11-08</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="K294" s="2" t="inlineStr"/>
@@ -15815,52 +15807,48 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>synthy</t>
+          <t>sweet bees</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>Midworld</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>synth, sequencer</t>
+          <t>looper</t>
         </is>
       </c>
       <c r="D295" s="2" t="inlineStr">
         <is>
-          <t>a synthesizer critter</t>
-        </is>
-      </c>
-      <c r="E295" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/593857252</t>
-        </is>
-      </c>
+          <t>asynchronous tape looper and reverb</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="inlineStr"/>
       <c r="F295" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/synthy/48062</t>
+          <t>https://llllllll.co/t/sweet-bees/49272</t>
         </is>
       </c>
       <c r="G295" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/synthy</t>
+          <t>https://github.com/icerigger/sweet-bees</t>
         </is>
       </c>
       <c r="H295" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/synthy</t>
+          <t>https://norns.community/sweetbees</t>
         </is>
       </c>
       <c r="I295" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J295" s="2" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2021-11-08</t>
         </is>
       </c>
       <c r="K295" s="2" t="inlineStr"/>
@@ -15868,162 +15856,162 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>takt</t>
+          <t>synthy</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>its_your_bedtime</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>synth, sequencer</t>
         </is>
       </c>
       <c r="D296" s="2" t="inlineStr">
         <is>
-          <t>parameter locking step sequencer</t>
+          <t>a synthesizer critter</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/Brm-za6FWMZ/</t>
+          <t>https://vimeo.com/593857252</t>
         </is>
       </c>
       <c r="F296" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/takt/21032</t>
+          <t>https://llllllll.co/t/synthy/48062</t>
         </is>
       </c>
       <c r="G296" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/itsyourbedtime/takt</t>
+          <t>https://github.com/schollz/synthy</t>
         </is>
       </c>
       <c r="H296" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/takt</t>
+          <t>https://norns.community/synthy</t>
         </is>
       </c>
       <c r="I296" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J296" s="2" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
-        </is>
-      </c>
-      <c r="K296" s="2" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
+          <t>2021-10-20</t>
+        </is>
+      </c>
+      <c r="K296" s="2" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>tambla</t>
+          <t>takt</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>ngwese</t>
+          <t>its_your_bedtime</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>sequencer, midi, arc, grid</t>
+          <t>sequencer</t>
         </is>
       </c>
       <c r="D297" s="2" t="inlineStr">
         <is>
-          <t>bending rhythmic arpeggio</t>
+          <t>parameter locking step sequencer</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T9nk9IomwYM</t>
+          <t>https://www.instagram.com/p/Brm-za6FWMZ/</t>
         </is>
       </c>
       <c r="F297" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/37965</t>
+          <t>https://llllllll.co/t/takt/21032</t>
         </is>
       </c>
       <c r="G297" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ngwese/tambla.git</t>
+          <t>https://github.com/itsyourbedtime/takt</t>
         </is>
       </c>
       <c r="H297" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tambla</t>
+          <t>https://norns.community/takt</t>
         </is>
       </c>
       <c r="I297" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J297" s="2" t="inlineStr">
         <is>
-          <t>2021-09-08</t>
-        </is>
-      </c>
-      <c r="K297" s="2" t="inlineStr"/>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="K297" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>tapedeck</t>
+          <t>tambla</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>ngwese</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>audio_fx</t>
+          <t>sequencer, midi, arc, grid</t>
         </is>
       </c>
       <c r="D298" s="2" t="inlineStr">
         <is>
-          <t>live tape deck emulation (saturation, distortion, wow/flutter)</t>
+          <t>bending rhythmic arpeggio</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/666500841</t>
+          <t>https://www.youtube.com/watch?v=T9nk9IomwYM</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tapedeck/51919</t>
+          <t>https://llllllll.co/t/37965</t>
         </is>
       </c>
       <c r="G298" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/tapedeck</t>
+          <t>https://github.com/ngwese/tambla.git</t>
         </is>
       </c>
       <c r="H298" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tapedeck</t>
+          <t>https://norns.community/tambla</t>
         </is>
       </c>
       <c r="I298" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J298" s="2" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2021-09-08</t>
         </is>
       </c>
       <c r="K298" s="2" t="inlineStr"/>
@@ -16031,52 +16019,52 @@
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>taweeet</t>
+          <t>tapedeck</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>skibu</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>art, birds</t>
+          <t>audio_fx</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t>Bird song, and lots of it. And pics, too.</t>
+          <t>live tape deck emulation (saturation, distortion, wow/flutter)</t>
         </is>
       </c>
       <c r="E299" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=yvc-pNiVl_c</t>
+          <t>https://vimeo.com/666500841</t>
         </is>
       </c>
       <c r="F299" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/69028</t>
+          <t>https://llllllll.co/t/tapedeck/51919</t>
         </is>
       </c>
       <c r="G299" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/skibu/taweeet</t>
+          <t>https://github.com/schollz/tapedeck</t>
         </is>
       </c>
       <c r="H299" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/taweeet</t>
+          <t>https://norns.community/tapedeck</t>
         </is>
       </c>
       <c r="I299" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J299" s="2" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="K299" s="2" t="inlineStr"/>
@@ -16084,42 +16072,42 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>tetra</t>
+          <t>taweeet</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>nvillar</t>
+          <t>skibu</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>synth, sequencer, grid</t>
+          <t>art, birds</t>
         </is>
       </c>
       <c r="D300" s="2" t="inlineStr">
         <is>
-          <t>use the grid to create, perform and sequence sound objects</t>
+          <t>Bird song, and lots of it. And pics, too.</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M0aHRQAvBRA</t>
+          <t>https://www.youtube.com/watch?v=yvc-pNiVl_c</t>
         </is>
       </c>
       <c r="F300" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetra/68343</t>
+          <t>https://llllllll.co/t/69028</t>
         </is>
       </c>
       <c r="G300" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/nvillar/tetra</t>
+          <t>https://github.com/skibu/taweeet</t>
         </is>
       </c>
       <c r="H300" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetra</t>
+          <t>https://norns.community/taweeet</t>
         </is>
       </c>
       <c r="I300" s="2" t="inlineStr">
@@ -16129,7 +16117,7 @@
       </c>
       <c r="J300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="K300" s="2" t="inlineStr"/>
@@ -16137,42 +16125,42 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>tetrabobo</t>
+          <t>tetra</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>nvillar</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>synth</t>
+          <t>synth, sequencer, grid</t>
         </is>
       </c>
       <c r="D301" s="2" t="inlineStr">
         <is>
-          <t>triangle wave organ with variable slope for norns &amp; shbobo shnth</t>
+          <t>use the grid to create, perform and sequence sound objects</t>
         </is>
       </c>
       <c r="E301" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/track/1391254177</t>
+          <t>https://www.youtube.com/watch?v=M0aHRQAvBRA</t>
         </is>
       </c>
       <c r="F301" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetrabobo/60112</t>
+          <t>https://llllllll.co/t/tetra/68343</t>
         </is>
       </c>
       <c r="G301" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/TetraBobo</t>
+          <t>https://github.com/nvillar/tetra</t>
         </is>
       </c>
       <c r="H301" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetrabobo</t>
+          <t>https://norns.community/tetra</t>
         </is>
       </c>
       <c r="I301" s="2" t="inlineStr">
@@ -16182,7 +16170,7 @@
       </c>
       <c r="J301" s="2" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="K301" s="2" t="inlineStr"/>
@@ -16190,7 +16178,7 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>tetrabotis</t>
+          <t>tetrabobo</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
@@ -16205,32 +16193,32 @@
       </c>
       <c r="D302" s="2" t="inlineStr">
         <is>
-          <t>tetrabobo + otis = tetrabotis</t>
+          <t>triangle wave organ with variable slope for norns &amp; shbobo shnth</t>
         </is>
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wqTQ7xwg5CI</t>
+          <t>https://soundcloud.com/track/1391254177</t>
         </is>
       </c>
       <c r="F302" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetrabotis/60216</t>
+          <t>https://llllllll.co/t/tetrabobo/60112</t>
         </is>
       </c>
       <c r="G302" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/Tetrabotis</t>
+          <t>https://github.com/williamthazard/TetraBobo</t>
         </is>
       </c>
       <c r="H302" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetrabotis</t>
+          <t>https://norns.community/tetrabobo</t>
         </is>
       </c>
       <c r="I302" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J302" s="2" t="inlineStr">
@@ -16243,48 +16231,52 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>thebangs</t>
+          <t>tetrabotis</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>zebra</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>engine</t>
+          <t>synth</t>
         </is>
       </c>
       <c r="D303" s="2" t="inlineStr">
         <is>
-          <t>one-shot synthesis engine</t>
-        </is>
-      </c>
-      <c r="E303" s="2" t="inlineStr"/>
+          <t>tetrabobo + otis = tetrabotis</t>
+        </is>
+      </c>
+      <c r="E303" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wqTQ7xwg5CI</t>
+        </is>
+      </c>
       <c r="F303" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/engine-thebangs</t>
+          <t>https://llllllll.co/t/tetrabotis/60216</t>
         </is>
       </c>
       <c r="G303" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/catfact/thebangs.git</t>
+          <t>https://github.com/williamthazard/Tetrabotis</t>
         </is>
       </c>
       <c r="H303" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/thebangs</t>
+          <t>https://norns.community/tetrabotis</t>
         </is>
       </c>
       <c r="I303" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J303" s="2" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="K303" s="2" t="inlineStr"/>
@@ -16292,52 +16284,48 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>thirtythree</t>
+          <t>thebangs</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>zebra</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>engine</t>
         </is>
       </c>
       <c r="D304" s="2" t="inlineStr">
         <is>
-          <t>sample + sequencer + splicer in the style of po-33</t>
-        </is>
-      </c>
-      <c r="E304" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/545281946</t>
-        </is>
-      </c>
+          <t>one-shot synthesis engine</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="inlineStr"/>
       <c r="F304" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/thirtythree/44702</t>
+          <t>https://llllllll.co/t/engine-thebangs</t>
         </is>
       </c>
       <c r="G304" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/thirtythree</t>
+          <t>https://github.com/catfact/thebangs.git</t>
         </is>
       </c>
       <c r="H304" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/thirtythree</t>
+          <t>https://norns.community/thebangs</t>
         </is>
       </c>
       <c r="I304" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J304" s="2" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="K304" s="2" t="inlineStr"/>
@@ -16345,52 +16333,52 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>timber</t>
+          <t>thirtythree</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>markeats</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>sampler, midi</t>
+          <t>sequencer, grid</t>
         </is>
       </c>
       <c r="D305" s="2" t="inlineStr">
         <is>
-          <t>sample player engine and scripts</t>
+          <t>sample + sequencer + splicer in the style of po-33</t>
         </is>
       </c>
       <c r="E305" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/Bs4PuShBTbZ</t>
+          <t>https://vimeo.com/545281946</t>
         </is>
       </c>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21407</t>
+          <t>https://llllllll.co/t/thirtythree/44702</t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/markwheeler/timber</t>
+          <t>https://github.com/schollz/thirtythree</t>
         </is>
       </c>
       <c r="H305" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/timber</t>
+          <t>https://norns.community/thirtythree</t>
         </is>
       </c>
       <c r="I305" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J305" s="2" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="K305" s="2" t="inlineStr"/>
@@ -16398,48 +16386,52 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>time-rhythm</t>
+          <t>timber</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>emanuelep</t>
+          <t>markeats</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>drum, synth</t>
+          <t>sampler, midi</t>
         </is>
       </c>
       <c r="D306" s="2" t="inlineStr">
         <is>
-          <t>duophonic synthesizer for norns</t>
-        </is>
-      </c>
-      <c r="E306" s="2" t="inlineStr"/>
+          <t>sample player engine and scripts</t>
+        </is>
+      </c>
+      <c r="E306" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Bs4PuShBTbZ</t>
+        </is>
+      </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/time-rhythm/</t>
+          <t>https://llllllll.co/t/21407</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/emanuelep/time-rhythm</t>
+          <t>https://github.com/markwheeler/timber</t>
         </is>
       </c>
       <c r="H306" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/time-rhythm</t>
+          <t>https://norns.community/timber</t>
         </is>
       </c>
       <c r="I306" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J306" s="2" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="K306" s="2" t="inlineStr"/>
@@ -16447,52 +16439,48 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>timeparty</t>
+          <t>time-rhythm</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>crim</t>
+          <t>emanuelep</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>audio_fx, delay, grid, crow</t>
+          <t>drum, synth</t>
         </is>
       </c>
       <c r="D307" s="2" t="inlineStr">
         <is>
-          <t>grid based delay sequencer</t>
-        </is>
-      </c>
-      <c r="E307" s="3" t="inlineStr">
-        <is>
-          <t>https://soundcloud.com/track/628734114</t>
-        </is>
-      </c>
+          <t>duophonic synthesizer for norns</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="inlineStr"/>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/timeparty/22837</t>
+          <t>https://llllllll.co/t/time-rhythm/</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/crimclark/timeparty</t>
+          <t>https://github.com/emanuelep/time-rhythm</t>
         </is>
       </c>
       <c r="H307" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/timeparty</t>
+          <t>https://norns.community/time-rhythm</t>
         </is>
       </c>
       <c r="I307" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>
@@ -16500,52 +16488,52 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>tmi</t>
+          <t>timeparty</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>crim</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>utility, midi</t>
+          <t>audio_fx, delay, grid, crow</t>
         </is>
       </c>
       <c r="D308" s="2" t="inlineStr">
         <is>
-          <t>library for sequencing midi with text</t>
+          <t>grid based delay sequencer</t>
         </is>
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/503866942</t>
+          <t>https://soundcloud.com/track/628734114</t>
         </is>
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tmi/40818</t>
+          <t>https://llllllll.co/t/timeparty/22837</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/tmi</t>
+          <t>https://github.com/crimclark/timeparty</t>
         </is>
       </c>
       <c r="H308" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tmi</t>
+          <t>https://norns.community/timeparty</t>
         </is>
       </c>
       <c r="I308" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J308" s="2" t="inlineStr">
         <is>
-          <t>2021-01-29</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="K308" s="2" t="inlineStr"/>
@@ -16553,52 +16541,52 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>torii</t>
+          <t>tmi</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>okyeron</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, midi</t>
+          <t>utility, midi</t>
         </is>
       </c>
       <c r="D309" s="2" t="inlineStr">
         <is>
-          <t>gated audio sequencer</t>
+          <t>library for sequencing midi with text</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B9V3djWhUwn</t>
+          <t>https://vimeo.com/503866942</t>
         </is>
       </c>
       <c r="F309" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/torii/30476</t>
+          <t>https://llllllll.co/t/tmi/40818</t>
         </is>
       </c>
       <c r="G309" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/okyeron/torii</t>
+          <t>https://github.com/schollz/tmi</t>
         </is>
       </c>
       <c r="H309" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/torii</t>
+          <t>https://norns.community/tmi</t>
         </is>
       </c>
       <c r="I309" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J309" s="2" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="K309" s="2" t="inlineStr"/>
@@ -16606,12 +16594,12 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>torii</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>ypxkap</t>
+          <t>okyeron</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
@@ -16621,27 +16609,27 @@
       </c>
       <c r="D310" s="2" t="inlineStr">
         <is>
-          <t>edit of @markeats loom for quickly decoupling motifs from their harmonic framework</t>
+          <t>gated audio sequencer</t>
         </is>
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/ByY7ppPgag_/</t>
+          <t>https://www.instagram.com/p/B9V3djWhUwn</t>
         </is>
       </c>
       <c r="F310" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/traffic/21262</t>
+          <t>https://llllllll.co/t/torii/30476</t>
         </is>
       </c>
       <c r="G310" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ypxk/traffic</t>
+          <t>https://github.com/okyeron/torii</t>
         </is>
       </c>
       <c r="H310" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/traffic</t>
+          <t>https://norns.community/torii</t>
         </is>
       </c>
       <c r="I310" s="2" t="inlineStr">
@@ -16651,7 +16639,7 @@
       </c>
       <c r="J310" s="2" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="K310" s="2" t="inlineStr"/>
@@ -16659,42 +16647,42 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>triangles</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>ChrisLowis</t>
+          <t>ypxkap</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>synth</t>
+          <t>sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D311" s="2" t="inlineStr">
         <is>
-          <t>4-voice triangle wave drone synth</t>
+          <t>edit of @markeats loom for quickly decoupling motifs from their harmonic framework</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qjHoedoSUXY</t>
+          <t>https://www.instagram.com/p/ByY7ppPgag_/</t>
         </is>
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/triangles/52662</t>
+          <t>https://llllllll.co/t/traffic/21262</t>
         </is>
       </c>
       <c r="G311" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/chrislo/triangles</t>
+          <t>https://github.com/ypxk/traffic</t>
         </is>
       </c>
       <c r="H311" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/triangles</t>
+          <t>https://norns.community/traffic</t>
         </is>
       </c>
       <c r="I311" s="2" t="inlineStr">
@@ -16704,7 +16692,7 @@
       </c>
       <c r="J311" s="2" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="K311" s="2" t="inlineStr"/>
@@ -16712,42 +16700,42 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>tulpamancer</t>
+          <t>triangles</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>ChrisLowis</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>generative, sequencer, midi</t>
+          <t>synth</t>
         </is>
       </c>
       <c r="D312" s="2" t="inlineStr">
         <is>
-          <t>Every night, the kingdom crumbles. And our MIDI pattern, is conjured anew.</t>
+          <t>4-voice triangle wave drone synth</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=sSMW3ABDiJ4</t>
+          <t>https://www.youtube.com/watch?v=qjHoedoSUXY</t>
         </is>
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/tulpamancer</t>
+          <t>https://llllllll.co/t/triangles/52662</t>
         </is>
       </c>
       <c r="G312" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/tulpamancer</t>
+          <t>https://github.com/chrislo/triangles</t>
         </is>
       </c>
       <c r="H312" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tulpamancer</t>
+          <t>https://norns.community/triangles</t>
         </is>
       </c>
       <c r="I312" s="2" t="inlineStr">
@@ -16757,7 +16745,7 @@
       </c>
       <c r="J312" s="2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="K312" s="2" t="inlineStr"/>
@@ -16765,48 +16753,52 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>tuner</t>
+          <t>tulpamancer</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>markeats</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>generative, sequencer, midi</t>
         </is>
       </c>
       <c r="D313" s="2" t="inlineStr">
         <is>
-          <t>tune stuff</t>
-        </is>
-      </c>
-      <c r="E313" s="2" t="inlineStr"/>
+          <t>Every night, the kingdom crumbles. And our MIDI pattern, is conjured anew.</t>
+        </is>
+      </c>
+      <c r="E313" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sSMW3ABDiJ4</t>
+        </is>
+      </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tuner/21088</t>
+          <t>https://l.llllllll.co/tulpamancer</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/markwheeler/tuner</t>
+          <t>https://github.com/northern-information/tulpamancer</t>
         </is>
       </c>
       <c r="H313" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tuner</t>
+          <t>https://norns.community/tulpamancer</t>
         </is>
       </c>
       <c r="I313" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J313" s="2" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="K313" s="2" t="inlineStr"/>
@@ -16814,52 +16806,48 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>tunnels</t>
+          <t>tuner</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>speakerdamage</t>
+          <t>markeats</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>delay, audio_fx</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D314" s="2" t="inlineStr">
         <is>
-          <t>a collection of uncertain delays using norns softcut</t>
-        </is>
-      </c>
-      <c r="E314" s="3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/BwwdlZcls4V/</t>
-        </is>
-      </c>
+          <t>tune stuff</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="inlineStr"/>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tunnels/21973</t>
+          <t>https://llllllll.co/t/tuner/21088</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/speakerdamage/tunnels</t>
+          <t>https://github.com/markwheeler/tuner</t>
         </is>
       </c>
       <c r="H314" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tunnels</t>
+          <t>https://norns.community/tuner</t>
         </is>
       </c>
       <c r="I314" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J314" s="2" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="K314" s="2" t="inlineStr"/>
@@ -16867,42 +16855,42 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>turntable</t>
+          <t>tunnels</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>adamstaff</t>
+          <t>speakerdamage</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>norns, crow, sampler</t>
+          <t>delay, audio_fx</t>
         </is>
       </c>
       <c r="D315" s="2" t="inlineStr">
         <is>
-          <t>a turntable for norns</t>
+          <t>a collection of uncertain delays using norns softcut</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=kpuc4MYNU9A</t>
+          <t>https://www.instagram.com/p/BwwdlZcls4V/</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/a-turntable-for-norns-v3-0-1-brings-supercollider-and-crow-to-the-party/67716</t>
+          <t>https://llllllll.co/t/tunnels/21973</t>
         </is>
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/adamstaff/turntable</t>
+          <t>https://github.com/speakerdamage/tunnels</t>
         </is>
       </c>
       <c r="H315" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/turntable</t>
+          <t>https://norns.community/tunnels</t>
         </is>
       </c>
       <c r="I315" s="2" t="inlineStr">
@@ -16912,7 +16900,7 @@
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="K315" s="2" t="inlineStr"/>
@@ -16920,42 +16908,42 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>tviburar</t>
+          <t>turntable</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>ljudvagg, vicimity</t>
+          <t>adamstaff</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>sequencer, crow</t>
+          <t>norns, crow, sampler</t>
         </is>
       </c>
       <c r="D316" s="2" t="inlineStr">
         <is>
-          <t>2x4 complex step sequencer w. free running lfo's</t>
+          <t>a turntable for norns</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pI81ISvjST4</t>
+          <t>https://www.youtube.com/watch?v=kpuc4MYNU9A</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tviburar/</t>
+          <t>https://llllllll.co/t/a-turntable-for-norns-v3-0-1-brings-supercollider-and-crow-to-the-party/67716</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/linusschrab/tviburar</t>
+          <t>https://github.com/adamstaff/turntable</t>
         </is>
       </c>
       <c r="H316" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tviburar</t>
+          <t>https://norns.community/turntable</t>
         </is>
       </c>
       <c r="I316" s="2" t="inlineStr">
@@ -16965,7 +16953,7 @@
       </c>
       <c r="J316" s="2" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="K316" s="2" t="inlineStr"/>
@@ -16973,42 +16961,42 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>twine</t>
+          <t>tviburar</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>ljudvagg, vicimity</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>granulator</t>
+          <t>sequencer, crow</t>
         </is>
       </c>
       <c r="D317" s="2" t="inlineStr">
         <is>
-          <t>random granulator for two samples</t>
+          <t>2x4 complex step sequencer w. free running lfo's</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RoFk1_z1m18</t>
+          <t>https://www.youtube.com/watch?v=pI81ISvjST4</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/41703</t>
+          <t>https://llllllll.co/t/tviburar/</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/twine</t>
+          <t>https://github.com/linusschrab/tviburar</t>
         </is>
       </c>
       <c r="H317" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/twine</t>
+          <t>https://norns.community/tviburar</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
@@ -17018,7 +17006,7 @@
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="K317" s="2" t="inlineStr"/>
@@ -17026,52 +17014,52 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>twins</t>
+          <t>twine</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>dddstudio</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>granulator, audio_fx</t>
+          <t>granulator</t>
         </is>
       </c>
       <c r="D318" s="2" t="inlineStr">
         <is>
-          <t>randomized dual granular playground, inspired by twine</t>
+          <t>random granulator for two samples</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/halfpower/squall</t>
+          <t>https://www.youtube.com/watch?v=RoFk1_z1m18</t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/twins/71052</t>
+          <t>https://llllllll.co/t/41703</t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/danielrigler/twins</t>
+          <t>https://github.com/cfdrake/twine</t>
         </is>
       </c>
       <c r="H318" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/twins</t>
+          <t>https://norns.community/twine</t>
         </is>
       </c>
       <c r="I318" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J318" s="2" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="K318" s="2" t="inlineStr"/>
@@ -17079,48 +17067,52 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>twins</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>dddstudio</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>granulator, audio_fx</t>
         </is>
       </c>
       <c r="D319" s="2" t="inlineStr">
         <is>
-          <t>norns utility scripts</t>
-        </is>
-      </c>
-      <c r="E319" s="2" t="inlineStr"/>
+          <t>randomized dual granular playground, inspired by twine</t>
+        </is>
+      </c>
+      <c r="E319" s="3" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/halfpower/squall</t>
+        </is>
+      </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/u</t>
+          <t>https://llllllll.co/t/twins/71052</t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/u</t>
+          <t>https://github.com/danielrigler/twins</t>
         </is>
       </c>
       <c r="H319" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/u</t>
+          <t>https://norns.community/twins</t>
         </is>
       </c>
       <c r="I319" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J319" s="2" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="K319" s="2" t="inlineStr"/>
@@ -17128,152 +17120,148 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>ufo</t>
+          <t>u</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>duncangeere</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>art, crow, midi, drone, generative</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D320" s="2" t="inlineStr">
         <is>
-          <t>ultra-low frequency oscillator powered by the international space station</t>
-        </is>
-      </c>
-      <c r="E320" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=oiesvr00nFQ</t>
-        </is>
-      </c>
+          <t>norns utility scripts</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="inlineStr"/>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/ufo/62539</t>
+          <t>https://l.llllllll.co/u</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/loudnumbers/ufo</t>
+          <t>https://github.com/northern-information/u</t>
         </is>
       </c>
       <c r="H320" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/ufo</t>
+          <t>https://norns.community/u</t>
         </is>
       </c>
       <c r="I320" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
-        </is>
-      </c>
-      <c r="K320" s="2" t="inlineStr">
-        <is>
-          <t>Discussion URL</t>
-        </is>
-      </c>
+          <t>2022-02-05</t>
+        </is>
+      </c>
+      <c r="K320" s="2" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>uhf</t>
+          <t>ufo</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>speakerdamage</t>
+          <t>duncangeere</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>granulator</t>
+          <t>art, crow, midi, drone, generative</t>
         </is>
       </c>
       <c r="D321" s="2" t="inlineStr">
         <is>
-          <t>your tapes transmitted thru late-night static and broken antenna frequencies</t>
+          <t>ultra-low frequency oscillator powered by the international space station</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XMHBb7v7qSg</t>
+          <t>https://www.youtube.com/watch?v=oiesvr00nFQ</t>
         </is>
       </c>
       <c r="F321" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/uhf-norns/21154</t>
+          <t>https://llllllll.co/t/ufo/62539</t>
         </is>
       </c>
       <c r="G321" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/speakerdamage/uhf</t>
+          <t>https://github.com/loudnumbers/ufo</t>
         </is>
       </c>
       <c r="H321" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/uhf</t>
+          <t>https://norns.community/ufo</t>
         </is>
       </c>
       <c r="I321" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="inlineStr"/>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="inlineStr">
+        <is>
+          <t>Discussion URL</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>vcr</t>
+          <t>uhf</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>speakerdamage</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>crow, grid</t>
+          <t>granulator</t>
         </is>
       </c>
       <c r="D322" s="2" t="inlineStr">
         <is>
-          <t>collect and recall voltages</t>
+          <t>your tapes transmitted thru late-night static and broken antenna frequencies</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/849959050</t>
+          <t>https://www.youtube.com/watch?v=XMHBb7v7qSg</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/vcr/63457</t>
+          <t>https://llllllll.co/t/uhf-norns/21154</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/vcr</t>
+          <t>https://github.com/speakerdamage/uhf</t>
         </is>
       </c>
       <c r="H322" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/vcr</t>
+          <t>https://norns.community/uhf</t>
         </is>
       </c>
       <c r="I322" s="2" t="inlineStr">
@@ -17283,7 +17271,7 @@
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="K322" s="2" t="inlineStr"/>
@@ -17291,42 +17279,42 @@
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>vials</t>
+          <t>vcr</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>nattog</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>sequencer, sampler, grid</t>
+          <t>crow, grid</t>
         </is>
       </c>
       <c r="D323" s="2" t="inlineStr">
         <is>
-          <t>4 track performance-oriented sample sequencer</t>
+          <t>collect and recall voltages</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/BydFuPwAhma/</t>
+          <t>https://vimeo.com/849959050</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/vials/23109</t>
+          <t>https://llllllll.co/t/vcr/63457</t>
         </is>
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/nattog/vials</t>
+          <t>https://github.com/justmat/vcr</t>
         </is>
       </c>
       <c r="H323" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/vials</t>
+          <t>https://norns.community/vcr</t>
         </is>
       </c>
       <c r="I323" s="2" t="inlineStr">
@@ -17336,7 +17324,7 @@
       </c>
       <c r="J323" s="2" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="K323" s="2" t="inlineStr"/>
@@ -17344,48 +17332,52 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>warmreload</t>
+          <t>vials</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>nattog</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>mod</t>
+          <t>sequencer, sampler, grid</t>
         </is>
       </c>
       <c r="D324" s="2" t="inlineStr">
         <is>
-          <t>a norns mod to automatically reload a script after saving</t>
-        </is>
-      </c>
-      <c r="E324" s="2" t="inlineStr"/>
+          <t>4 track performance-oriented sample sequencer</t>
+        </is>
+      </c>
+      <c r="E324" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/BydFuPwAhma/</t>
+        </is>
+      </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/warmreload/63623</t>
+          <t>https://llllllll.co/t/vials/23109</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/warmreload</t>
+          <t>https://github.com/nattog/vials</t>
         </is>
       </c>
       <c r="H324" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/warmreload</t>
+          <t>https://norns.community/vials</t>
         </is>
       </c>
       <c r="I324" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J324" s="2" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="K324" s="2" t="inlineStr"/>
@@ -17393,52 +17385,48 @@
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>waver</t>
+          <t>warmreload</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>alanza</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>mod</t>
         </is>
       </c>
       <c r="D325" s="2" t="inlineStr">
         <is>
-          <t>assemble a song from TAPE</t>
-        </is>
-      </c>
-      <c r="E325" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/623981771</t>
-        </is>
-      </c>
+          <t>a norns mod to automatically reload a script after saving</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="inlineStr"/>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/waver/49271</t>
+          <t>https://llllllll.co/t/warmreload/63623</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryleelyman/waver</t>
+          <t>https://github.com/schollz/warmreload</t>
         </is>
       </c>
       <c r="H325" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/waver</t>
+          <t>https://norns.community/warmreload</t>
         </is>
       </c>
       <c r="I325" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J325" s="2" t="inlineStr">
         <is>
-          <t>2021-10-10</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="K325" s="2" t="inlineStr"/>
@@ -17446,52 +17434,52 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>window-crowparator</t>
+          <t>waver</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>xmacex</t>
+          <t>alanza</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>crow</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t>Window comparator for crow</t>
+          <t>assemble a song from TAPE</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/uploads/default/original/3X/6/a/6acc86862992482e2ea4c3b28feeae1a635e6663.mp3</t>
+          <t>https://vimeo.com/623981771</t>
         </is>
       </c>
       <c r="F326" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/window-crowparator/71520</t>
+          <t>https://llllllll.co/t/waver/49271</t>
         </is>
       </c>
       <c r="G326" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/xmacex/window-crowparator</t>
+          <t>https://github.com/ryleelyman/waver</t>
         </is>
       </c>
       <c r="H326" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/window-crowparator</t>
+          <t>https://norns.community/waver</t>
         </is>
       </c>
       <c r="I326" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J326" s="2" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2021-10-10</t>
         </is>
       </c>
       <c r="K326" s="2" t="inlineStr"/>
@@ -17499,52 +17487,52 @@
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>wobblewobble</t>
+          <t>window-crowparator</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>xmacex</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>utility, crow, midi</t>
+          <t>crow</t>
         </is>
       </c>
       <c r="D327" s="2" t="inlineStr">
         <is>
-          <t>slow oscillators for crow</t>
+          <t>Window comparator for crow</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/553165797</t>
+          <t>https://llllllll.co/uploads/default/original/3X/6/a/6acc86862992482e2ea4c3b28feeae1a635e6663.mp3</t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/wobblewobble/45215</t>
+          <t>https://llllllll.co/t/window-crowparator/71520</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/wobblewobble</t>
+          <t>https://github.com/xmacex/window-crowparator</t>
         </is>
       </c>
       <c r="H327" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/wobblewobble</t>
+          <t>https://norns.community/window-crowparator</t>
         </is>
       </c>
       <c r="I327" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J327" s="2" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="K327" s="2" t="inlineStr"/>
@@ -17552,52 +17540,52 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>wrms</t>
+          <t>wobblewobble</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>andrew</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>delay, looper</t>
+          <t>utility, crow, midi</t>
         </is>
       </c>
       <c r="D328" s="2" t="inlineStr">
         <is>
-          <t>dual asyncronous time-wigglers / echo loopers</t>
+          <t>slow oscillators for crow</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UTj8voI0-98</t>
+          <t>https://vimeo.com/553165797</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/wrms/28954</t>
+          <t>https://llllllll.co/t/wobblewobble/45215</t>
         </is>
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/AndrewShike/wrms</t>
+          <t>https://github.com/schollz/wobblewobble</t>
         </is>
       </c>
       <c r="H328" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/wrms</t>
+          <t>https://norns.community/wobblewobble</t>
         </is>
       </c>
       <c r="I328" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J328" s="2" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="K328" s="2" t="inlineStr"/>
@@ -17605,52 +17593,52 @@
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>xD1</t>
+          <t>wrms</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>alanza</t>
+          <t>andrew</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>synth, midi</t>
+          <t>delay, looper</t>
         </is>
       </c>
       <c r="D329" s="2" t="inlineStr">
         <is>
-          <t>xD1 is an FM synth</t>
+          <t>dual asyncronous time-wigglers / echo loopers</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/763197892</t>
+          <t>https://www.youtube.com/watch?v=UTj8voI0-98</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/xd1-is-an-fm-synth/59150</t>
+          <t>https://llllllll.co/t/wrms/28954</t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryleelyman/xD1</t>
+          <t>https://github.com/AndrewShike/wrms</t>
         </is>
       </c>
       <c r="H329" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/xD1</t>
+          <t>https://norns.community/wrms</t>
         </is>
       </c>
       <c r="I329" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J329" s="2" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="K329" s="2" t="inlineStr"/>
@@ -17658,99 +17646,95 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>yggdrasil</t>
+          <t>xD1</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>argotechnica, infinitedigits, license, tyleretters</t>
+          <t>alanza</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>sequencer, tracker, midi, keyboard</t>
+          <t>synth, midi</t>
         </is>
       </c>
       <c r="D330" s="2" t="inlineStr">
         <is>
-          <t>a norns cyberdeck tracker</t>
+          <t>xD1 is an FM synth</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8ac2qw9gmaw</t>
+          <t>https://vimeo.com/763197892</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/yggdrasil/38040</t>
+          <t>https://llllllll.co/t/xd1-is-an-fm-synth/59150</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/yggdrasil</t>
+          <t>https://github.com/ryleelyman/xD1</t>
         </is>
       </c>
       <c r="H330" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/yggdrasil</t>
+          <t>https://norns.community/xD1</t>
         </is>
       </c>
       <c r="I330" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="inlineStr">
-        <is>
-          <t>Discussion URL</t>
-        </is>
-      </c>
+          <t>2022-12-17</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>zellen</t>
+          <t>yggdrasil</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>sbaio</t>
+          <t>argotechnica, infinitedigits, license, tyleretters</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>sequencer, tracker, midi, keyboard</t>
         </is>
       </c>
       <c r="D331" s="2" t="inlineStr">
         <is>
-          <t>game of life based sequencer</t>
+          <t>a norns cyberdeck tracker</t>
         </is>
       </c>
       <c r="E331" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B0t-nJsBTV2/</t>
+          <t>https://www.youtube.com/watch?v=8ac2qw9gmaw</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/zellen/21107</t>
+          <t>https://llllllll.co/t/yggdrasil/38040</t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/sarweiler/zellen</t>
+          <t>https://github.com/northern-information/yggdrasil</t>
         </is>
       </c>
       <c r="H331" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/zellen</t>
+          <t>https://norns.community/yggdrasil</t>
         </is>
       </c>
       <c r="I331" s="2" t="inlineStr">
@@ -17760,63 +17744,120 @@
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="inlineStr"/>
+          <t>2022-06-26</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="inlineStr">
+        <is>
+          <t>Discussion URL</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
+          <t>zellen</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>sbaio</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>sequencer, grid</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="inlineStr">
+        <is>
+          <t>game of life based sequencer</t>
+        </is>
+      </c>
+      <c r="E332" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/B0t-nJsBTV2/</t>
+        </is>
+      </c>
+      <c r="F332" s="3" t="inlineStr">
+        <is>
+          <t>https://llllllll.co/t/zellen/21107</t>
+        </is>
+      </c>
+      <c r="G332" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/sarweiler/zellen</t>
+        </is>
+      </c>
+      <c r="H332" s="3" t="inlineStr">
+        <is>
+          <t>https://norns.community/zellen</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="inlineStr">
+        <is>
+          <t>No Conflict</t>
+        </is>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="inlineStr">
+        <is>
           <t>zxcvbn</t>
         </is>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>infinitedigits</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>sequencer, tracker, keyboard, midi, crow</t>
         </is>
       </c>
-      <c r="D332" s="2" t="inlineStr">
+      <c r="D333" s="2" t="inlineStr">
         <is>
           <t>a tracker</t>
         </is>
       </c>
-      <c r="E332" s="3" t="inlineStr">
+      <c r="E333" s="3" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=6W9oiyR2XD8</t>
         </is>
       </c>
-      <c r="F332" s="3" t="inlineStr">
+      <c r="F333" s="3" t="inlineStr">
         <is>
           <t>https://llllllll.co/t/zxcvbn/59289</t>
         </is>
       </c>
-      <c r="G332" s="3" t="inlineStr">
+      <c r="G333" s="3" t="inlineStr">
         <is>
           <t>https://github.com/schollz/zxcvbn</t>
         </is>
       </c>
-      <c r="H332" s="3" t="inlineStr">
+      <c r="H333" s="3" t="inlineStr">
         <is>
           <t>https://norns.community/zxcvbn</t>
         </is>
       </c>
-      <c r="I332" s="2" t="inlineStr">
+      <c r="I333" s="2" t="inlineStr">
         <is>
           <t>No Conflict</t>
         </is>
       </c>
-      <c r="J332" s="2" t="inlineStr">
+      <c r="J333" s="2" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
-      <c r="K332" s="2" t="inlineStr"/>
+      <c r="K333" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18826,251 +18867,253 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F269" r:id="rId1004"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G269" r:id="rId1005"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H269" r:id="rId1006"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F270" r:id="rId1007"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G270" r:id="rId1008"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H270" r:id="rId1009"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E271" r:id="rId1010"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F271" r:id="rId1011"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G271" r:id="rId1012"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H271" r:id="rId1013"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E272" r:id="rId1014"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F272" r:id="rId1015"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G272" r:id="rId1016"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H272" r:id="rId1017"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId1018"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F273" r:id="rId1019"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G273" r:id="rId1020"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H273" r:id="rId1021"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E274" r:id="rId1022"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F274" r:id="rId1023"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G274" r:id="rId1024"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H274" r:id="rId1025"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F275" r:id="rId1026"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G275" r:id="rId1027"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H275" r:id="rId1028"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E276" r:id="rId1029"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F276" r:id="rId1030"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G276" r:id="rId1031"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H276" r:id="rId1032"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E277" r:id="rId1033"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F277" r:id="rId1034"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G277" r:id="rId1035"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H277" r:id="rId1036"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E278" r:id="rId1037"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F278" r:id="rId1038"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G278" r:id="rId1039"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H278" r:id="rId1040"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E279" r:id="rId1041"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F279" r:id="rId1042"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G279" r:id="rId1043"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H279" r:id="rId1044"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E280" r:id="rId1045"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F280" r:id="rId1046"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G280" r:id="rId1047"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H280" r:id="rId1048"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E281" r:id="rId1049"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F281" r:id="rId1050"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G281" r:id="rId1051"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H281" r:id="rId1052"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F282" r:id="rId1053"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G282" r:id="rId1054"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H282" r:id="rId1055"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E283" r:id="rId1056"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F283" r:id="rId1057"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G283" r:id="rId1058"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H283" r:id="rId1059"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E284" r:id="rId1060"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F284" r:id="rId1061"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G284" r:id="rId1062"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H284" r:id="rId1063"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F285" r:id="rId1064"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G285" r:id="rId1065"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H285" r:id="rId1066"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E286" r:id="rId1067"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F286" r:id="rId1068"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G286" r:id="rId1069"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H286" r:id="rId1070"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E287" r:id="rId1071"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F287" r:id="rId1072"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G287" r:id="rId1073"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H287" r:id="rId1074"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E288" r:id="rId1075"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F288" r:id="rId1076"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G288" r:id="rId1077"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H288" r:id="rId1078"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E289" r:id="rId1079"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F289" r:id="rId1080"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G289" r:id="rId1081"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H289" r:id="rId1082"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F290" r:id="rId1083"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G290" r:id="rId1084"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H290" r:id="rId1085"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E291" r:id="rId1086"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F291" r:id="rId1087"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G291" r:id="rId1088"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H291" r:id="rId1089"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E292" r:id="rId1090"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F292" r:id="rId1091"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G292" r:id="rId1092"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H292" r:id="rId1093"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E293" r:id="rId1094"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F293" r:id="rId1095"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G293" r:id="rId1096"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H293" r:id="rId1097"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F294" r:id="rId1098"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G294" r:id="rId1099"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H294" r:id="rId1100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E295" r:id="rId1101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F295" r:id="rId1102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G295" r:id="rId1103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H295" r:id="rId1104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E296" r:id="rId1105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F296" r:id="rId1106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G296" r:id="rId1107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H296" r:id="rId1108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E297" r:id="rId1109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F297" r:id="rId1110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G297" r:id="rId1111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H297" r:id="rId1112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E298" r:id="rId1113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F298" r:id="rId1114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G298" r:id="rId1115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H298" r:id="rId1116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E299" r:id="rId1117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F299" r:id="rId1118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G299" r:id="rId1119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H299" r:id="rId1120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E300" r:id="rId1121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F300" r:id="rId1122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G300" r:id="rId1123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H300" r:id="rId1124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E301" r:id="rId1125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F301" r:id="rId1126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G301" r:id="rId1127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H301" r:id="rId1128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E302" r:id="rId1129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F302" r:id="rId1130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G302" r:id="rId1131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H302" r:id="rId1132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F303" r:id="rId1133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G303" r:id="rId1134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H303" r:id="rId1135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E304" r:id="rId1136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F304" r:id="rId1137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G304" r:id="rId1138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H304" r:id="rId1139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E305" r:id="rId1140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F305" r:id="rId1141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G305" r:id="rId1142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H305" r:id="rId1143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F306" r:id="rId1144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G306" r:id="rId1145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H306" r:id="rId1146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E307" r:id="rId1147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F307" r:id="rId1148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G307" r:id="rId1149"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H307" r:id="rId1150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId1151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F308" r:id="rId1152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G308" r:id="rId1153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H308" r:id="rId1154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId1155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F309" r:id="rId1156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G309" r:id="rId1157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H309" r:id="rId1158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId1159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F310" r:id="rId1160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G310" r:id="rId1161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H310" r:id="rId1162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId1163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F311" r:id="rId1164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G311" r:id="rId1165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H311" r:id="rId1166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId1167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F312" r:id="rId1168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G312" r:id="rId1169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H312" r:id="rId1170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F313" r:id="rId1171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G313" r:id="rId1172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H313" r:id="rId1173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E314" r:id="rId1174"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F314" r:id="rId1175"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G314" r:id="rId1176"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H314" r:id="rId1177"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E315" r:id="rId1178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F315" r:id="rId1179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G315" r:id="rId1180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H315" r:id="rId1181"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId1182"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F316" r:id="rId1183"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G316" r:id="rId1184"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H316" r:id="rId1185"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId1186"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F317" r:id="rId1187"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G317" r:id="rId1188"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H317" r:id="rId1189"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId1190"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F318" r:id="rId1191"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G318" r:id="rId1192"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H318" r:id="rId1193"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F319" r:id="rId1194"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G319" r:id="rId1195"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H319" r:id="rId1196"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E320" r:id="rId1197"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F320" r:id="rId1198"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G320" r:id="rId1199"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H320" r:id="rId1200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E321" r:id="rId1201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F321" r:id="rId1202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G321" r:id="rId1203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H321" r:id="rId1204"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId1205"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F322" r:id="rId1206"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G322" r:id="rId1207"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H322" r:id="rId1208"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E323" r:id="rId1209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F323" r:id="rId1210"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G323" r:id="rId1211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H323" r:id="rId1212"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F324" r:id="rId1213"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G324" r:id="rId1214"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H324" r:id="rId1215"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E325" r:id="rId1216"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F325" r:id="rId1217"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G325" r:id="rId1218"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H325" r:id="rId1219"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E326" r:id="rId1220"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F326" r:id="rId1221"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G326" r:id="rId1222"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H326" r:id="rId1223"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E327" r:id="rId1224"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F327" r:id="rId1225"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G327" r:id="rId1226"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H327" r:id="rId1227"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E328" r:id="rId1228"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F328" r:id="rId1229"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G328" r:id="rId1230"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H328" r:id="rId1231"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E329" r:id="rId1232"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F329" r:id="rId1233"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G329" r:id="rId1234"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H329" r:id="rId1235"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E330" r:id="rId1236"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F330" r:id="rId1237"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G330" r:id="rId1238"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H330" r:id="rId1239"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E331" r:id="rId1240"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F331" r:id="rId1241"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G331" r:id="rId1242"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H331" r:id="rId1243"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E332" r:id="rId1244"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F332" r:id="rId1245"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G332" r:id="rId1246"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H332" r:id="rId1247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G270" r:id="rId1007"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H270" r:id="rId1008"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F271" r:id="rId1009"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G271" r:id="rId1010"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H271" r:id="rId1011"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E272" r:id="rId1012"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F272" r:id="rId1013"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G272" r:id="rId1014"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H272" r:id="rId1015"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId1016"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F273" r:id="rId1017"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G273" r:id="rId1018"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H273" r:id="rId1019"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E274" r:id="rId1020"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F274" r:id="rId1021"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G274" r:id="rId1022"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H274" r:id="rId1023"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E275" r:id="rId1024"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F275" r:id="rId1025"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G275" r:id="rId1026"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H275" r:id="rId1027"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F276" r:id="rId1028"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G276" r:id="rId1029"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H276" r:id="rId1030"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E277" r:id="rId1031"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F277" r:id="rId1032"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G277" r:id="rId1033"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H277" r:id="rId1034"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E278" r:id="rId1035"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F278" r:id="rId1036"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G278" r:id="rId1037"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H278" r:id="rId1038"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E279" r:id="rId1039"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F279" r:id="rId1040"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G279" r:id="rId1041"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H279" r:id="rId1042"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E280" r:id="rId1043"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F280" r:id="rId1044"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G280" r:id="rId1045"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H280" r:id="rId1046"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E281" r:id="rId1047"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F281" r:id="rId1048"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G281" r:id="rId1049"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H281" r:id="rId1050"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E282" r:id="rId1051"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F282" r:id="rId1052"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G282" r:id="rId1053"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H282" r:id="rId1054"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F283" r:id="rId1055"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G283" r:id="rId1056"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H283" r:id="rId1057"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E284" r:id="rId1058"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F284" r:id="rId1059"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G284" r:id="rId1060"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H284" r:id="rId1061"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E285" r:id="rId1062"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F285" r:id="rId1063"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G285" r:id="rId1064"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H285" r:id="rId1065"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F286" r:id="rId1066"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G286" r:id="rId1067"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H286" r:id="rId1068"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E287" r:id="rId1069"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F287" r:id="rId1070"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G287" r:id="rId1071"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H287" r:id="rId1072"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E288" r:id="rId1073"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F288" r:id="rId1074"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G288" r:id="rId1075"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H288" r:id="rId1076"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E289" r:id="rId1077"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F289" r:id="rId1078"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G289" r:id="rId1079"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H289" r:id="rId1080"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E290" r:id="rId1081"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F290" r:id="rId1082"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G290" r:id="rId1083"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H290" r:id="rId1084"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F291" r:id="rId1085"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G291" r:id="rId1086"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H291" r:id="rId1087"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E292" r:id="rId1088"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F292" r:id="rId1089"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G292" r:id="rId1090"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H292" r:id="rId1091"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E293" r:id="rId1092"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F293" r:id="rId1093"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G293" r:id="rId1094"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H293" r:id="rId1095"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E294" r:id="rId1096"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F294" r:id="rId1097"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G294" r:id="rId1098"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H294" r:id="rId1099"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F295" r:id="rId1100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G295" r:id="rId1101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H295" r:id="rId1102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E296" r:id="rId1103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F296" r:id="rId1104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G296" r:id="rId1105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H296" r:id="rId1106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E297" r:id="rId1107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F297" r:id="rId1108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G297" r:id="rId1109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H297" r:id="rId1110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E298" r:id="rId1111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F298" r:id="rId1112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G298" r:id="rId1113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H298" r:id="rId1114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E299" r:id="rId1115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F299" r:id="rId1116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G299" r:id="rId1117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H299" r:id="rId1118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E300" r:id="rId1119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F300" r:id="rId1120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G300" r:id="rId1121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H300" r:id="rId1122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E301" r:id="rId1123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F301" r:id="rId1124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G301" r:id="rId1125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H301" r:id="rId1126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E302" r:id="rId1127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F302" r:id="rId1128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G302" r:id="rId1129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H302" r:id="rId1130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E303" r:id="rId1131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F303" r:id="rId1132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G303" r:id="rId1133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H303" r:id="rId1134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F304" r:id="rId1135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G304" r:id="rId1136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H304" r:id="rId1137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E305" r:id="rId1138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F305" r:id="rId1139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G305" r:id="rId1140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H305" r:id="rId1141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E306" r:id="rId1142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F306" r:id="rId1143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G306" r:id="rId1144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H306" r:id="rId1145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F307" r:id="rId1146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G307" r:id="rId1147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H307" r:id="rId1148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId1149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F308" r:id="rId1150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G308" r:id="rId1151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H308" r:id="rId1152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId1153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F309" r:id="rId1154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G309" r:id="rId1155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H309" r:id="rId1156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId1157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F310" r:id="rId1158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G310" r:id="rId1159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H310" r:id="rId1160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId1161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F311" r:id="rId1162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G311" r:id="rId1163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H311" r:id="rId1164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId1165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F312" r:id="rId1166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G312" r:id="rId1167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H312" r:id="rId1168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId1169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F313" r:id="rId1170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G313" r:id="rId1171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H313" r:id="rId1172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F314" r:id="rId1173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G314" r:id="rId1174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H314" r:id="rId1175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E315" r:id="rId1176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F315" r:id="rId1177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G315" r:id="rId1178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H315" r:id="rId1179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId1180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F316" r:id="rId1181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G316" r:id="rId1182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H316" r:id="rId1183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId1184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F317" r:id="rId1185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G317" r:id="rId1186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H317" r:id="rId1187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId1188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F318" r:id="rId1189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G318" r:id="rId1190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H318" r:id="rId1191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId1192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F319" r:id="rId1193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G319" r:id="rId1194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H319" r:id="rId1195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F320" r:id="rId1196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G320" r:id="rId1197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H320" r:id="rId1198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E321" r:id="rId1199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F321" r:id="rId1200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G321" r:id="rId1201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H321" r:id="rId1202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId1203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F322" r:id="rId1204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G322" r:id="rId1205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H322" r:id="rId1206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E323" r:id="rId1207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F323" r:id="rId1208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G323" r:id="rId1209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H323" r:id="rId1210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId1211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F324" r:id="rId1212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G324" r:id="rId1213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H324" r:id="rId1214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F325" r:id="rId1215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G325" r:id="rId1216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H325" r:id="rId1217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E326" r:id="rId1218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F326" r:id="rId1219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G326" r:id="rId1220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H326" r:id="rId1221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E327" r:id="rId1222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F327" r:id="rId1223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G327" r:id="rId1224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H327" r:id="rId1225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E328" r:id="rId1226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F328" r:id="rId1227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G328" r:id="rId1228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H328" r:id="rId1229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E329" r:id="rId1230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F329" r:id="rId1231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G329" r:id="rId1232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H329" r:id="rId1233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E330" r:id="rId1234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F330" r:id="rId1235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G330" r:id="rId1236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H330" r:id="rId1237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E331" r:id="rId1238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F331" r:id="rId1239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G331" r:id="rId1240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H331" r:id="rId1241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E332" r:id="rId1242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F332" r:id="rId1243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G332" r:id="rId1244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H332" r:id="rId1245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E333" r:id="rId1246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F333" r:id="rId1247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G333" r:id="rId1248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H333" r:id="rId1249"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1248"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1250"/>
   </tableParts>
 </worksheet>
 </file>
--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NornsScripts" displayName="NornsScripts" ref="A1:K333" headerRowCount="1">
-  <autoFilter ref="A1:K333"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NornsScripts" displayName="NornsScripts" ref="A1:K334" headerRowCount="1">
+  <autoFilter ref="A1:K334"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Author"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K333"/>
+  <dimension ref="A1:K334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="J104" s="2" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="K104" s="2" t="inlineStr"/>
@@ -7508,7 +7508,7 @@
       <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
@@ -13833,52 +13833,40 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>repl-looper</t>
+          <t>repeater</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>awwaiid</t>
+          <t>spoitras</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>sequencer, looper, grid, keyboard</t>
+          <t>delay, looper, texture, engine</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>mash of REPL and looper; a live performance code sequencer</t>
-        </is>
-      </c>
-      <c r="E257" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=FPE5DOlScIY</t>
-        </is>
-      </c>
-      <c r="F257" s="3" t="inlineStr">
-        <is>
-          <t>https://llllllll.co/t/51485</t>
-        </is>
-      </c>
+          <t>textural delay orchestra with multiple tempo-synced lines. port of the original by Bryant Smith.</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="inlineStr"/>
+      <c r="F257" s="2" t="inlineStr"/>
       <c r="G257" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/awwaiid/repl-looper</t>
+          <t>https://github.com/spoitras/repeater</t>
         </is>
       </c>
       <c r="H257" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/repl-looper</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="inlineStr">
-        <is>
-          <t>No Conflict</t>
-        </is>
-      </c>
+          <t>https://norns.community/repeater</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="inlineStr"/>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="K257" s="2" t="inlineStr"/>
@@ -13886,52 +13874,52 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>ribbons</t>
+          <t>repl-looper</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>tehn</t>
+          <t>awwaiid</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>sequencer, arc</t>
+          <t>sequencer, looper, grid, keyboard</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>folded euclidean arpeggiator</t>
+          <t>mash of REPL and looper; a live performance code sequencer</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/1099770303</t>
+          <t>https://www.youtube.com/watch?v=FPE5DOlScIY</t>
         </is>
       </c>
       <c r="F258" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/ribbons/72521</t>
+          <t>https://llllllll.co/t/51485</t>
         </is>
       </c>
       <c r="G258" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tehn/ribbons</t>
+          <t>https://github.com/awwaiid/repl-looper</t>
         </is>
       </c>
       <c r="H258" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/ribbons</t>
+          <t>https://norns.community/repl-looper</t>
         </is>
       </c>
       <c r="I258" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J258" s="2" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="K258" s="2" t="inlineStr"/>
@@ -13939,52 +13927,52 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>rpls</t>
+          <t>ribbons</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>andrew</t>
+          <t>tehn</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>delay, looper</t>
+          <t>sequencer, arc</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>varispeed multitap echo</t>
+          <t>folded euclidean arpeggiator</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=AUcsdTWoAys</t>
+          <t>https://vimeo.com/1099770303</t>
         </is>
       </c>
       <c r="F259" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/rpls/</t>
+          <t>https://llllllll.co/t/ribbons/72521</t>
         </is>
       </c>
       <c r="G259" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/andr-ew/rpls/releases/download/latest/complete-source-code.zip</t>
+          <t>https://github.com/tehn/ribbons</t>
         </is>
       </c>
       <c r="H259" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rpls</t>
+          <t>https://norns.community/ribbons</t>
         </is>
       </c>
       <c r="I259" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="K259" s="2" t="inlineStr"/>
@@ -13992,42 +13980,42 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>rpmate</t>
+          <t>rpls</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>eigen</t>
+          <t>andrew</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>utility, sampler</t>
+          <t>delay, looper</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>record a sound an play it back at various RPM ratios</t>
+          <t>varispeed multitap echo</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=K7_9-ymumd4</t>
+          <t>https://www.youtube.com/watch?v=AUcsdTWoAys</t>
         </is>
       </c>
       <c r="F260" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/38542</t>
+          <t>https://llllllll.co/t/rpls/</t>
         </is>
       </c>
       <c r="G260" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/p3r7/rpmate</t>
+          <t>https://github.com/andr-ew/rpls/releases/download/latest/complete-source-code.zip</t>
         </is>
       </c>
       <c r="H260" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rpmate</t>
+          <t>https://norns.community/rpls</t>
         </is>
       </c>
       <c r="I260" s="2" t="inlineStr">
@@ -14037,7 +14025,7 @@
       </c>
       <c r="J260" s="2" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="K260" s="2" t="inlineStr"/>
@@ -14045,42 +14033,42 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>rudiments</t>
+          <t>rpmate</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>eigen</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>sequencer, drum</t>
+          <t>utility, sampler</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>an 8 voice lofi percussion synthesizer and sequencer</t>
+          <t>record a sound an play it back at various RPM ratios</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hvPSVOyGsYg</t>
+          <t>https://www.youtube.com/watch?v=K7_9-ymumd4</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/31828</t>
+          <t>https://llllllll.co/t/38542</t>
         </is>
       </c>
       <c r="G261" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/rudiments</t>
+          <t>https://github.com/p3r7/rpmate</t>
         </is>
       </c>
       <c r="H261" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rudiments</t>
+          <t>https://norns.community/rpmate</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr">
@@ -14090,7 +14078,7 @@
       </c>
       <c r="J261" s="2" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="K261" s="2" t="inlineStr"/>
@@ -14098,48 +14086,52 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>sam</t>
+          <t>rudiments</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>sampler, utility</t>
+          <t>sequencer, drum</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>a simple sample recorder/slicer</t>
-        </is>
-      </c>
-      <c r="E262" s="2" t="inlineStr"/>
+          <t>an 8 voice lofi percussion synthesizer and sequencer</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=hvPSVOyGsYg</t>
+        </is>
+      </c>
       <c r="F262" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/23943</t>
+          <t>https://llllllll.co/t/31828</t>
         </is>
       </c>
       <c r="G262" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/sam</t>
+          <t>https://github.com/cfdrake/rudiments</t>
         </is>
       </c>
       <c r="H262" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sam</t>
+          <t>https://norns.community/rudiments</t>
         </is>
       </c>
       <c r="I262" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J262" s="2" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="K262" s="2" t="inlineStr"/>
@@ -14147,52 +14139,48 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>sampswap</t>
+          <t>sam</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>sampler</t>
+          <t>sampler, utility</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>swap samples within loops</t>
-        </is>
-      </c>
-      <c r="E263" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/688648344</t>
-        </is>
-      </c>
+          <t>a simple sample recorder/slicer</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="inlineStr"/>
       <c r="F263" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/sampswap/53719</t>
+          <t>https://llllllll.co/t/23943</t>
         </is>
       </c>
       <c r="G263" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/sampswap</t>
+          <t>https://github.com/justmat/sam</t>
         </is>
       </c>
       <c r="H263" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sampswap</t>
+          <t>https://norns.community/sam</t>
         </is>
       </c>
       <c r="I263" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J263" s="2" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="K263" s="2" t="inlineStr"/>
@@ -14200,52 +14188,52 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>samsara</t>
+          <t>sampswap</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>21echoes</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>looper, delay</t>
+          <t>sampler</t>
         </is>
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>a minimalist clock-synced looper</t>
+          <t>swap samples within loops</t>
         </is>
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Vkt7b72l1Cg</t>
+          <t>https://vimeo.com/688648344</t>
         </is>
       </c>
       <c r="F264" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/34095</t>
+          <t>https://llllllll.co/t/sampswap/53719</t>
         </is>
       </c>
       <c r="G264" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/21echoes/samsara</t>
+          <t>https://github.com/schollz/sampswap</t>
         </is>
       </c>
       <c r="H264" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/samsara</t>
+          <t>https://norns.community/sampswap</t>
         </is>
       </c>
       <c r="I264" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J264" s="2" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="K264" s="2" t="inlineStr"/>
@@ -14253,52 +14241,52 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>samthree</t>
+          <t>samsara</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>ooray</t>
+          <t>21echoes</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>looper, sampler, happyaccident</t>
+          <t>looper, delay</t>
         </is>
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>3 voice looper based on samsara</t>
+          <t>a minimalist clock-synced looper</t>
         </is>
       </c>
       <c r="E265" s="3" t="inlineStr">
         <is>
-          <t>https://youtu.be/c6nqTYF_J-k</t>
+          <t>https://www.youtube.com/watch?v=Vkt7b72l1Cg</t>
         </is>
       </c>
       <c r="F265" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/samthree-three-voice-pitched-looper/60482</t>
+          <t>https://llllllll.co/t/34095</t>
         </is>
       </c>
       <c r="G265" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/laderast/samthree</t>
+          <t>https://github.com/21echoes/samsara</t>
         </is>
       </c>
       <c r="H265" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/samthree</t>
+          <t>https://norns.community/samsara</t>
         </is>
       </c>
       <c r="I265" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J265" s="2" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="K265" s="2" t="inlineStr"/>
@@ -14306,52 +14294,52 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>schicksalslied</t>
+          <t>samthree</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>ooray</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
+          <t>looper, sampler, happyaccident</t>
         </is>
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>a poetry sequencer</t>
+          <t>3 voice looper based on samsara</t>
         </is>
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ngVAAIWE_Io</t>
+          <t>https://youtu.be/c6nqTYF_J-k</t>
         </is>
       </c>
       <c r="F266" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/schicksalslied/59227</t>
+          <t>https://llllllll.co/t/samthree-three-voice-pitched-looper/60482</t>
         </is>
       </c>
       <c r="G266" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/schicksalslied</t>
+          <t>https://github.com/laderast/samthree</t>
         </is>
       </c>
       <c r="H266" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/schicksalslied</t>
+          <t>https://norns.community/samthree</t>
         </is>
       </c>
       <c r="I266" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J266" s="2" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="K266" s="2" t="inlineStr"/>
@@ -14359,52 +14347,52 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>scholastic</t>
+          <t>schicksalslied</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>adamstaff</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>norns, sequencer, nb, midi</t>
+          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
         </is>
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>multitrack polyrhythmic sequencer</t>
+          <t>a poetry sequencer</t>
         </is>
       </c>
       <c r="E267" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vvl44pg3hMM</t>
+          <t>https://www.youtube.com/watch?v=ngVAAIWE_Io</t>
         </is>
       </c>
       <c r="F267" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/scholastic-multitrack-polyrhythmic-sequencer/64232</t>
+          <t>https://llllllll.co/t/schicksalslied/59227</t>
         </is>
       </c>
       <c r="G267" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/adamstaff/scholastic</t>
+          <t>https://github.com/williamthazard/schicksalslied</t>
         </is>
       </c>
       <c r="H267" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/scholastic</t>
+          <t>https://norns.community/schicksalslied</t>
         </is>
       </c>
       <c r="I267" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J267" s="2" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="K267" s="2" t="inlineStr"/>
@@ -14412,42 +14400,42 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>scryingstone</t>
+          <t>scholastic</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>adamstaff</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>norns, noise, art, drone</t>
+          <t>norns, sequencer, nb, midi</t>
         </is>
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>scrying stone for monome norns</t>
+          <t>multitrack polyrhythmic sequencer</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_go_5QtmvL8</t>
+          <t>https://www.youtube.com/watch?v=vvl44pg3hMM</t>
         </is>
       </c>
       <c r="F268" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/scryingstone-norns/70778</t>
+          <t>https://llllllll.co/t/scholastic-multitrack-polyrhythmic-sequencer/64232</t>
         </is>
       </c>
       <c r="G268" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/scryingstone</t>
+          <t>https://github.com/adamstaff/scholastic</t>
         </is>
       </c>
       <c r="H268" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/scryingstone</t>
+          <t>https://norns.community/scholastic</t>
         </is>
       </c>
       <c r="I268" s="2" t="inlineStr">
@@ -14457,7 +14445,7 @@
       </c>
       <c r="J268" s="2" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="K268" s="2" t="inlineStr"/>
@@ -14465,48 +14453,52 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>seaflex</t>
+          <t>scryingstone</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>lylem</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>utility, grid</t>
+          <t>norns, noise, art, drone</t>
         </is>
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>companion app for earthsea</t>
-        </is>
-      </c>
-      <c r="E269" s="2" t="inlineStr"/>
+          <t>scrying stone for monome norns</t>
+        </is>
+      </c>
+      <c r="E269" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=_go_5QtmvL8</t>
+        </is>
+      </c>
       <c r="F269" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/23209</t>
+          <t>https://llllllll.co/t/scryingstone-norns/70778</t>
         </is>
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/lylepmills/seaflex</t>
+          <t>https://github.com/williamthazard/scryingstone</t>
         </is>
       </c>
       <c r="H269" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/seaflex</t>
+          <t>https://norns.community/scryingstone</t>
         </is>
       </c>
       <c r="I269" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J269" s="2" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="K269" s="2" t="inlineStr"/>
@@ -14514,40 +14506,48 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>seeker_ii</t>
+          <t>seaflex</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>awakeningsystems</t>
+          <t>lylem</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>grid, arc, midi, osc, crow</t>
+          <t>utility, grid</t>
         </is>
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>compositional interface for music, voltage, and video</t>
+          <t>companion app for earthsea</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
-      <c r="F270" s="2" t="inlineStr"/>
+      <c r="F270" s="3" t="inlineStr">
+        <is>
+          <t>https://llllllll.co/t/23209</t>
+        </is>
+      </c>
       <c r="G270" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/brokyo/seeker_ii</t>
+          <t>https://github.com/lylepmills/seaflex</t>
         </is>
       </c>
       <c r="H270" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/seeker_ii</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="inlineStr"/>
+          <t>https://norns.community/seaflex</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="inlineStr">
+        <is>
+          <t>Missing Demo</t>
+        </is>
+      </c>
       <c r="J270" s="2" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="K270" s="2" t="inlineStr"/>
@@ -14555,101 +14555,93 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>semiconductor</t>
+          <t>seeker_ii</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>jaseknighter</t>
+          <t>awakeningsystems</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>mod, utility</t>
+          <t>grid, arc, midi, osc, crow</t>
         </is>
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>norns ensemble mod</t>
+          <t>compositional interface for music, voltage, and video</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
-      <c r="F271" s="3" t="inlineStr">
-        <is>
-          <t>https://llllllll.co/t/62651</t>
-        </is>
-      </c>
+      <c r="F271" s="2" t="inlineStr"/>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/jaseknighter/semiconductor</t>
+          <t>https://github.com/brokyo/seeker_ii</t>
         </is>
       </c>
       <c r="H271" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/semiconductor</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="inlineStr">
-        <is>
-          <t>Missing Demo</t>
-        </is>
-      </c>
+          <t>https://norns.community/seeker_ii</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="inlineStr"/>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="inlineStr"/>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>sempra</t>
+          <t>semiconductor</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>zbs</t>
+          <t>jaseknighter</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, crow</t>
+          <t>mod, utility</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>continuous dynamic melody sequencer for 16n+grid</t>
-        </is>
-      </c>
-      <c r="E272" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ylj5nLv6IEg</t>
-        </is>
-      </c>
+          <t>norns ensemble mod</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="inlineStr"/>
       <c r="F272" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/54492</t>
+          <t>https://llllllll.co/t/62651</t>
         </is>
       </c>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/zjb-s/sempra</t>
+          <t>https://github.com/jaseknighter/semiconductor</t>
         </is>
       </c>
       <c r="H272" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sempra</t>
+          <t>https://norns.community/semiconductor</t>
         </is>
       </c>
       <c r="I272" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J272" s="2" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2023-06-18</t>
         </is>
       </c>
       <c r="K272" s="2" t="inlineStr"/>
@@ -14657,42 +14649,42 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>serialism</t>
+          <t>sempra</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>xmacex</t>
+          <t>zbs</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>midi</t>
+          <t>sequencer, grid, crow</t>
         </is>
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>Explore serialism in the spirit of Arnold Schönberg and others</t>
+          <t>continuous dynamic melody sequencer for 16n+grid</t>
         </is>
       </c>
       <c r="E273" s="3" t="inlineStr">
         <is>
-          <t>https://youtu.be/8sm3o-2cfIQ</t>
+          <t>https://www.youtube.com/watch?v=ylj5nLv6IEg</t>
         </is>
       </c>
       <c r="F273" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/serialism/68332</t>
+          <t>https://llllllll.co/t/54492</t>
         </is>
       </c>
       <c r="G273" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/xmacex/serialism</t>
+          <t>https://github.com/zjb-s/sempra</t>
         </is>
       </c>
       <c r="H273" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/serialism</t>
+          <t>https://norns.community/sempra</t>
         </is>
       </c>
       <c r="I273" s="2" t="inlineStr">
@@ -14702,7 +14694,7 @@
       </c>
       <c r="J273" s="2" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="K273" s="2" t="inlineStr"/>
@@ -14710,52 +14702,52 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>shapes</t>
+          <t>serialism</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>tyler</t>
+          <t>xmacex</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>midi</t>
         </is>
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>visuals-based modulation source for crow and midi</t>
+          <t>Explore serialism in the spirit of Arnold Schönberg and others</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8TD0vDnNUYc</t>
+          <t>https://youtu.be/8sm3o-2cfIQ</t>
         </is>
       </c>
       <c r="F274" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/36759</t>
+          <t>https://llllllll.co/t/serialism/68332</t>
         </is>
       </c>
       <c r="G274" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tlubke/shapes</t>
+          <t>https://github.com/xmacex/serialism</t>
         </is>
       </c>
       <c r="H274" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shapes</t>
+          <t>https://norns.community/serialism</t>
         </is>
       </c>
       <c r="I274" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J274" s="2" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="K274" s="2" t="inlineStr"/>
@@ -14763,42 +14755,42 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>shfts</t>
+          <t>shapes</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>germinal</t>
+          <t>tyler</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>sequencer, crow, grid</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>random sequencer for norns, crow, and grid</t>
+          <t>visuals-based modulation source for crow and midi</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B3kCWYtBl_8/</t>
+          <t>https://www.youtube.com/watch?v=8TD0vDnNUYc</t>
         </is>
       </c>
       <c r="F275" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/26221</t>
+          <t>https://llllllll.co/t/36759</t>
         </is>
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/rwhaling/shfts</t>
+          <t>https://github.com/tlubke/shapes</t>
         </is>
       </c>
       <c r="H275" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shfts</t>
+          <t>https://norns.community/shapes</t>
         </is>
       </c>
       <c r="I275" s="2" t="inlineStr">
@@ -14808,7 +14800,7 @@
       </c>
       <c r="J275" s="2" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="K275" s="2" t="inlineStr"/>
@@ -14816,48 +14808,52 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>shnthsalslied</t>
+          <t>shfts</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>germinal</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
+          <t>sequencer, crow, grid</t>
         </is>
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>fork of schicksalslied for use with shbobo shnth</t>
-        </is>
-      </c>
-      <c r="E276" s="2" t="inlineStr"/>
+          <t>random sequencer for norns, crow, and grid</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/B3kCWYtBl_8/</t>
+        </is>
+      </c>
       <c r="F276" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/shnthsalslied/59232</t>
+          <t>https://llllllll.co/t/26221</t>
         </is>
       </c>
       <c r="G276" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/shnthsalslied</t>
+          <t>https://github.com/rwhaling/shfts</t>
         </is>
       </c>
       <c r="H276" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shnthsalslied</t>
+          <t>https://norns.community/shfts</t>
         </is>
       </c>
       <c r="I276" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>2022-10-29</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="K276" s="2" t="inlineStr"/>
@@ -14865,52 +14861,48 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>shnthsalslied</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
         </is>
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>a thunderstorm for norns</t>
-        </is>
-      </c>
-      <c r="E277" s="3" t="inlineStr">
-        <is>
-          <t>https://soundcloud.com/track/885593155</t>
-        </is>
-      </c>
+          <t>fork of schicksalslied for use with shbobo shnth</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="inlineStr"/>
       <c r="F277" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/31622</t>
+          <t>https://llllllll.co/t/shnthsalslied/59232</t>
         </is>
       </c>
       <c r="G277" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/showers</t>
+          <t>https://github.com/williamthazard/shnthsalslied</t>
         </is>
       </c>
       <c r="H277" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/showers</t>
+          <t>https://norns.community/shnthsalslied</t>
         </is>
       </c>
       <c r="I277" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J277" s="2" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="K277" s="2" t="inlineStr"/>
@@ -14918,7 +14910,7 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>silos</t>
+          <t>showers</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -14928,42 +14920,42 @@
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>granulator, audio_fx, keyboard, grid, arc</t>
+          <t>art</t>
         </is>
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>live grains</t>
+          <t>a thunderstorm for norns</t>
         </is>
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/user-136434953/silos-2</t>
+          <t>https://soundcloud.com/track/885593155</t>
         </is>
       </c>
       <c r="F278" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/43804</t>
+          <t>https://llllllll.co/t/31622</t>
         </is>
       </c>
       <c r="G278" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/silos</t>
+          <t>https://github.com/justmat/showers</t>
         </is>
       </c>
       <c r="H278" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/silos</t>
+          <t>https://norns.community/showers</t>
         </is>
       </c>
       <c r="I278" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J278" s="2" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="K278" s="2" t="inlineStr"/>
@@ -14971,52 +14963,52 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>sines</t>
+          <t>silos</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>oootini</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>synth, drone, 16n, midi</t>
+          <t>granulator, audio_fx, keyboard, grid, arc</t>
         </is>
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t>16 sine waves</t>
+          <t>live grains</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=b8WXjrjjRe8</t>
+          <t>https://soundcloud.com/user-136434953/silos-2</t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/39292</t>
+          <t>https://llllllll.co/t/43804</t>
         </is>
       </c>
       <c r="G279" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/aidanreilly/sines</t>
+          <t>https://github.com/justmat/silos</t>
         </is>
       </c>
       <c r="H279" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sines</t>
+          <t>https://norns.community/silos</t>
         </is>
       </c>
       <c r="I279" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J279" s="2" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="K279" s="2" t="inlineStr"/>
@@ -15024,52 +15016,52 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>skylines</t>
+          <t>sines</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>markel_m</t>
+          <t>oootini</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>synth, drone, 16n, midi</t>
         </is>
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>a sequencer inspired on the M185/Intellijel Metropolis</t>
+          <t>16 sine waves</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CH8dDmShk9Z/</t>
+          <t>https://www.youtube.com/watch?v=b8WXjrjjRe8</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/skylines/38856</t>
+          <t>https://llllllll.co/t/39292</t>
         </is>
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/unit-cell/skylines</t>
+          <t>https://github.com/aidanreilly/sines</t>
         </is>
       </c>
       <c r="H280" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/skylines</t>
+          <t>https://norns.community/sines</t>
         </is>
       </c>
       <c r="I280" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J280" s="2" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="K280" s="2" t="inlineStr"/>
@@ -15077,52 +15069,52 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>smash</t>
+          <t>skylines</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>markel_m</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>sequencer, drum</t>
+          <t>sequencer</t>
         </is>
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>sequencer for apes</t>
+          <t>a sequencer inspired on the M185/Intellijel Metropolis</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=G8dZLtmcJ60</t>
+          <t>https://www.instagram.com/p/CH8dDmShk9Z/</t>
         </is>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/smash/48782</t>
+          <t>https://llllllll.co/t/skylines/38856</t>
         </is>
       </c>
       <c r="G281" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryanlaws/SMASH</t>
+          <t>https://github.com/unit-cell/skylines</t>
         </is>
       </c>
       <c r="H281" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/smash</t>
+          <t>https://norns.community/skylines</t>
         </is>
       </c>
       <c r="I281" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J281" s="2" t="inlineStr">
         <is>
-          <t>2021-09-19</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="K281" s="2" t="inlineStr"/>
@@ -15130,42 +15122,42 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>spirals</t>
+          <t>smash</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>tomw</t>
+          <t>license</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>generative, sequencer, grid, midi</t>
+          <t>sequencer, drum</t>
         </is>
       </c>
       <c r="D282" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>sequencer for apes</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5-2XTOoBuU0</t>
+          <t>https://www.youtube.com/watch?v=G8dZLtmcJ60</t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/spirals/40678</t>
+          <t>https://llllllll.co/t/smash/48782</t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tomwaters/spirals</t>
+          <t>https://github.com/ryanlaws/SMASH</t>
         </is>
       </c>
       <c r="H282" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/spirals</t>
+          <t>https://norns.community/smash</t>
         </is>
       </c>
       <c r="I282" s="2" t="inlineStr">
@@ -15175,7 +15167,7 @@
       </c>
       <c r="J282" s="2" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2021-09-19</t>
         </is>
       </c>
       <c r="K282" s="2" t="inlineStr"/>
@@ -15183,48 +15175,52 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>splicer</t>
+          <t>spirals</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>tomw</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>eduscript</t>
+          <t>generative, sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D283" s="2" t="inlineStr">
         <is>
-          <t>an eduscript for sequins and lattice</t>
-        </is>
-      </c>
-      <c r="E283" s="2" t="inlineStr"/>
+          <t>sequencer</t>
+        </is>
+      </c>
+      <c r="E283" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5-2XTOoBuU0</t>
+        </is>
+      </c>
       <c r="F283" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/splicer</t>
+          <t>https://llllllll.co/t/spirals/40678</t>
         </is>
       </c>
       <c r="G283" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/splicer</t>
+          <t>https://github.com/tomwaters/spirals</t>
         </is>
       </c>
       <c r="H283" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/splicer</t>
+          <t>https://norns.community/spirals</t>
         </is>
       </c>
       <c r="I283" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J283" s="2" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="K283" s="2" t="inlineStr"/>
@@ -15232,52 +15228,48 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>splnkr</t>
+          <t>splicer</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>jaseknighter</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>sequencer, audio_fx, sampler, jf, crow, grid</t>
+          <t>eduscript</t>
         </is>
       </c>
       <c r="D284" s="2" t="inlineStr">
         <is>
-          <t>an amplitude and frequency tracking effects processor/sampler/sequencer</t>
-        </is>
-      </c>
-      <c r="E284" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/660537339</t>
-        </is>
-      </c>
+          <t>an eduscript for sequins and lattice</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="inlineStr"/>
       <c r="F284" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/51191</t>
+          <t>https://l.llllllll.co/splicer</t>
         </is>
       </c>
       <c r="G284" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/jaseknighter/splnkr</t>
+          <t>https://github.com/northern-information/splicer</t>
         </is>
       </c>
       <c r="H284" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/splnkr</t>
+          <t>https://norns.community/splicer</t>
         </is>
       </c>
       <c r="I284" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J284" s="2" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="K284" s="2" t="inlineStr"/>
@@ -15285,52 +15277,52 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>stack</t>
+          <t>splnkr</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>jaseknighter</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>audio_fx</t>
+          <t>sequencer, audio_fx, sampler, jf, crow, grid</t>
         </is>
       </c>
       <c r="D285" s="2" t="inlineStr">
         <is>
-          <t>a stack of 8 fixed-frequency resonant bandpass filters</t>
+          <t>an amplitude and frequency tracking effects processor/sampler/sequencer</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Zp7DKJaQs9o</t>
+          <t>https://vimeo.com/660537339</t>
         </is>
       </c>
       <c r="F285" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/35218</t>
+          <t>https://llllllll.co/t/51191</t>
         </is>
       </c>
       <c r="G285" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/stack</t>
+          <t>https://github.com/jaseknighter/splnkr</t>
         </is>
       </c>
       <c r="H285" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stack</t>
+          <t>https://norns.community/splnkr</t>
         </is>
       </c>
       <c r="I285" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J285" s="2" t="inlineStr">
         <is>
-          <t>2021-02-19</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="K285" s="2" t="inlineStr"/>
@@ -15338,48 +15330,52 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>stack</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>jah</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>sampler, sequencer</t>
+          <t>audio_fx</t>
         </is>
       </c>
       <c r="D286" s="2" t="inlineStr">
         <is>
-          <t>a simple step sequencer</t>
-        </is>
-      </c>
-      <c r="E286" s="2" t="inlineStr"/>
+          <t>a stack of 8 fixed-frequency resonant bandpass filters</t>
+        </is>
+      </c>
+      <c r="E286" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Zp7DKJaQs9o</t>
+        </is>
+      </c>
       <c r="F286" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/step/21093</t>
+          <t>https://llllllll.co/t/35218</t>
         </is>
       </c>
       <c r="G286" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/antonhornquist/step</t>
+          <t>https://github.com/cfdrake/stack</t>
         </is>
       </c>
       <c r="H286" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/step</t>
+          <t>https://norns.community/stack</t>
         </is>
       </c>
       <c r="I286" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J286" s="2" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2021-02-19</t>
         </is>
       </c>
       <c r="K286" s="2" t="inlineStr"/>
@@ -15387,52 +15383,48 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>stjörnuíþrótt</t>
+          <t>step</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>frederickk</t>
+          <t>jah</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>synth, drone, midi</t>
+          <t>sampler, sequencer</t>
         </is>
       </c>
       <c r="D287" s="2" t="inlineStr">
         <is>
-          <t>drone inspired by Moffenzeef Stargazer</t>
-        </is>
-      </c>
-      <c r="E287" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=iaO3x2EGuU0</t>
-        </is>
-      </c>
+          <t>a simple step sequencer</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="inlineStr"/>
       <c r="F287" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/33889</t>
+          <t>https://llllllll.co/t/step/21093</t>
         </is>
       </c>
       <c r="G287" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/frederickk/stjoernuithrott</t>
+          <t>https://github.com/antonhornquist/step</t>
         </is>
       </c>
       <c r="H287" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stjrnurtt</t>
+          <t>https://norns.community/step</t>
         </is>
       </c>
       <c r="I287" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J287" s="2" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="K287" s="2" t="inlineStr"/>
@@ -15440,42 +15432,42 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>streams</t>
+          <t>stjörnuíþrótt</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>sonocircuit</t>
+          <t>frederickk</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, crow, midi</t>
+          <t>synth, drone, midi</t>
         </is>
       </c>
       <c r="D288" s="2" t="inlineStr">
         <is>
-          <t>a multi play head sequencer</t>
+          <t>drone inspired by Moffenzeef Stargazer</t>
         </is>
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pTOR4oDJ6hE</t>
+          <t>https://www.youtube.com/watch?v=iaO3x2EGuU0</t>
         </is>
       </c>
       <c r="F288" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/streams/61436</t>
+          <t>https://llllllll.co/t/33889</t>
         </is>
       </c>
       <c r="G288" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/sonocircuit/streams</t>
+          <t>https://github.com/frederickk/stjoernuithrott</t>
         </is>
       </c>
       <c r="H288" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/streams</t>
+          <t>https://norns.community/stjrnurtt</t>
         </is>
       </c>
       <c r="I288" s="2" t="inlineStr">
@@ -15485,7 +15477,7 @@
       </c>
       <c r="J288" s="2" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="K288" s="2" t="inlineStr"/>
@@ -15493,42 +15485,42 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>strides</t>
+          <t>streams</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>sonocircuit</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>sampler, sequencer, grid, midi</t>
+          <t>sequencer, grid, crow, midi</t>
         </is>
       </c>
       <c r="D289" s="2" t="inlineStr">
         <is>
-          <t>a collection of pattern recorders</t>
+          <t>a multi play head sequencer</t>
         </is>
       </c>
       <c r="E289" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/328470668</t>
+          <t>https://www.youtube.com/watch?v=pTOR4oDJ6hE</t>
         </is>
       </c>
       <c r="F289" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21101</t>
+          <t>https://llllllll.co/t/streams/61436</t>
         </is>
       </c>
       <c r="G289" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/notjustmat/strides</t>
+          <t>https://github.com/sonocircuit/streams</t>
         </is>
       </c>
       <c r="H289" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/strides</t>
+          <t>https://norns.community/streams</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
@@ -15538,7 +15530,7 @@
       </c>
       <c r="J289" s="2" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="K289" s="2" t="inlineStr"/>
@@ -15546,52 +15538,52 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>strum</t>
+          <t>strides</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>carvingcode</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>sampler, sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D290" s="2" t="inlineStr">
         <is>
-          <t>a plucky little pattern sequencer</t>
+          <t>a collection of pattern recorders</t>
         </is>
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/328638255</t>
+          <t>https://vimeo.com/328470668</t>
         </is>
       </c>
       <c r="F290" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21025</t>
+          <t>https://llllllll.co/t/21101</t>
         </is>
       </c>
       <c r="G290" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/carvingCode/strum</t>
+          <t>https://github.com/notjustmat/strides</t>
         </is>
       </c>
       <c r="H290" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/strum</t>
+          <t>https://norns.community/strides</t>
         </is>
       </c>
       <c r="I290" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J290" s="2" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="K290" s="2" t="inlineStr"/>
@@ -15599,48 +15591,52 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>støv</t>
+          <t>strum</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>imminent_gloom</t>
+          <t>carvingcode</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>synth, arc</t>
+          <t>sequencer, grid</t>
         </is>
       </c>
       <c r="D291" s="2" t="inlineStr">
         <is>
-          <t>another noise synth for norns</t>
-        </is>
-      </c>
-      <c r="E291" s="2" t="inlineStr"/>
+          <t>a plucky little pattern sequencer</t>
+        </is>
+      </c>
+      <c r="E291" s="3" t="inlineStr">
+        <is>
+          <t>https://vimeo.com/328638255</t>
+        </is>
+      </c>
       <c r="F291" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/stov/70821</t>
+          <t>https://llllllll.co/t/21025</t>
         </is>
       </c>
       <c r="G291" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/imminentgloom/st-v</t>
+          <t>https://github.com/carvingCode/strum</t>
         </is>
       </c>
       <c r="H291" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stv</t>
+          <t>https://norns.community/strum</t>
         </is>
       </c>
       <c r="I291" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2019-04-06</t>
         </is>
       </c>
       <c r="K291" s="2" t="inlineStr"/>
@@ -15648,7 +15644,7 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>støy</t>
+          <t>støv</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
@@ -15658,42 +15654,38 @@
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>synth, delay, grid</t>
+          <t>synth, arc</t>
         </is>
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>a noise synth for norns</t>
-        </is>
-      </c>
-      <c r="E292" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ZayWqvTqd_o</t>
-        </is>
-      </c>
+          <t>another noise synth for norns</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="inlineStr"/>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/stoy/67054</t>
+          <t>https://llllllll.co/t/stov/70821</t>
         </is>
       </c>
       <c r="G292" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/imminentgloom/st-y</t>
+          <t>https://github.com/imminentgloom/st-v</t>
         </is>
       </c>
       <c r="H292" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sty</t>
+          <t>https://norns.community/stv</t>
         </is>
       </c>
       <c r="I292" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="K292" s="2" t="inlineStr"/>
@@ -15701,52 +15693,52 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>supertonic</t>
+          <t>støy</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>imminent_gloom</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>generative, drum</t>
+          <t>synth, delay, grid</t>
         </is>
       </c>
       <c r="D293" s="2" t="inlineStr">
         <is>
-          <t>an introspective drum machine</t>
+          <t>a noise synth for norns</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/557258118</t>
+          <t>https://www.youtube.com/watch?v=ZayWqvTqd_o</t>
         </is>
       </c>
       <c r="F293" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/supertonic/45551</t>
+          <t>https://llllllll.co/t/stoy/67054</t>
         </is>
       </c>
       <c r="G293" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/supertonic</t>
+          <t>https://github.com/imminentgloom/st-y</t>
         </is>
       </c>
       <c r="H293" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/supertonic</t>
+          <t>https://norns.community/sty</t>
         </is>
       </c>
       <c r="I293" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>2021-07-03</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="K293" s="2" t="inlineStr"/>
@@ -15754,52 +15746,52 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>sway</t>
+          <t>supertonic</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>carltesta</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>generative, audio_fx</t>
+          <t>generative, drum</t>
         </is>
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>analysis-driven live audio processing</t>
+          <t>an introspective drum machine</t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5IPCUoO0vYg</t>
+          <t>https://vimeo.com/557258118</t>
         </is>
       </c>
       <c r="F294" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/sway/21117</t>
+          <t>https://llllllll.co/t/supertonic/45551</t>
         </is>
       </c>
       <c r="G294" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/carltesta/sway</t>
+          <t>https://github.com/schollz/supertonic</t>
         </is>
       </c>
       <c r="H294" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sway</t>
+          <t>https://norns.community/supertonic</t>
         </is>
       </c>
       <c r="I294" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J294" s="2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2021-07-03</t>
         </is>
       </c>
       <c r="K294" s="2" t="inlineStr"/>
@@ -15807,48 +15799,52 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>sweet bees</t>
+          <t>sway</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>Midworld</t>
+          <t>carltesta</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>looper</t>
+          <t>generative, audio_fx</t>
         </is>
       </c>
       <c r="D295" s="2" t="inlineStr">
         <is>
-          <t>asynchronous tape looper and reverb</t>
-        </is>
-      </c>
-      <c r="E295" s="2" t="inlineStr"/>
+          <t>analysis-driven live audio processing</t>
+        </is>
+      </c>
+      <c r="E295" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5IPCUoO0vYg</t>
+        </is>
+      </c>
       <c r="F295" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/sweet-bees/49272</t>
+          <t>https://llllllll.co/t/sway/21117</t>
         </is>
       </c>
       <c r="G295" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/icerigger/sweet-bees</t>
+          <t>https://github.com/carltesta/sway</t>
         </is>
       </c>
       <c r="H295" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sweetbees</t>
+          <t>https://norns.community/sway</t>
         </is>
       </c>
       <c r="I295" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J295" s="2" t="inlineStr">
         <is>
-          <t>2021-11-08</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="K295" s="2" t="inlineStr"/>
@@ -15856,52 +15852,48 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>synthy</t>
+          <t>sweet bees</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>Midworld</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>synth, sequencer</t>
+          <t>looper</t>
         </is>
       </c>
       <c r="D296" s="2" t="inlineStr">
         <is>
-          <t>a synthesizer critter</t>
-        </is>
-      </c>
-      <c r="E296" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/593857252</t>
-        </is>
-      </c>
+          <t>asynchronous tape looper and reverb</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="inlineStr"/>
       <c r="F296" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/synthy/48062</t>
+          <t>https://llllllll.co/t/sweet-bees/49272</t>
         </is>
       </c>
       <c r="G296" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/synthy</t>
+          <t>https://github.com/icerigger/sweet-bees</t>
         </is>
       </c>
       <c r="H296" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/synthy</t>
+          <t>https://norns.community/sweetbees</t>
         </is>
       </c>
       <c r="I296" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J296" s="2" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2021-11-08</t>
         </is>
       </c>
       <c r="K296" s="2" t="inlineStr"/>
@@ -15909,162 +15901,162 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>takt</t>
+          <t>synthy</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>its_your_bedtime</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>synth, sequencer</t>
         </is>
       </c>
       <c r="D297" s="2" t="inlineStr">
         <is>
-          <t>parameter locking step sequencer</t>
+          <t>a synthesizer critter</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/Brm-za6FWMZ/</t>
+          <t>https://vimeo.com/593857252</t>
         </is>
       </c>
       <c r="F297" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/takt/21032</t>
+          <t>https://llllllll.co/t/synthy/48062</t>
         </is>
       </c>
       <c r="G297" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/itsyourbedtime/takt</t>
+          <t>https://github.com/schollz/synthy</t>
         </is>
       </c>
       <c r="H297" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/takt</t>
+          <t>https://norns.community/synthy</t>
         </is>
       </c>
       <c r="I297" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J297" s="2" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
-        </is>
-      </c>
-      <c r="K297" s="2" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
+          <t>2021-10-20</t>
+        </is>
+      </c>
+      <c r="K297" s="2" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>tambla</t>
+          <t>takt</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>ngwese</t>
+          <t>its_your_bedtime</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>sequencer, midi, arc, grid</t>
+          <t>sequencer</t>
         </is>
       </c>
       <c r="D298" s="2" t="inlineStr">
         <is>
-          <t>bending rhythmic arpeggio</t>
+          <t>parameter locking step sequencer</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T9nk9IomwYM</t>
+          <t>https://www.instagram.com/p/Brm-za6FWMZ/</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/37965</t>
+          <t>https://llllllll.co/t/takt/21032</t>
         </is>
       </c>
       <c r="G298" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ngwese/tambla.git</t>
+          <t>https://github.com/itsyourbedtime/takt</t>
         </is>
       </c>
       <c r="H298" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tambla</t>
+          <t>https://norns.community/takt</t>
         </is>
       </c>
       <c r="I298" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J298" s="2" t="inlineStr">
         <is>
-          <t>2021-09-08</t>
-        </is>
-      </c>
-      <c r="K298" s="2" t="inlineStr"/>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="K298" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>tapedeck</t>
+          <t>tambla</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>ngwese</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>audio_fx</t>
+          <t>sequencer, midi, arc, grid</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t>live tape deck emulation (saturation, distortion, wow/flutter)</t>
+          <t>bending rhythmic arpeggio</t>
         </is>
       </c>
       <c r="E299" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/666500841</t>
+          <t>https://www.youtube.com/watch?v=T9nk9IomwYM</t>
         </is>
       </c>
       <c r="F299" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tapedeck/51919</t>
+          <t>https://llllllll.co/t/37965</t>
         </is>
       </c>
       <c r="G299" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/tapedeck</t>
+          <t>https://github.com/ngwese/tambla.git</t>
         </is>
       </c>
       <c r="H299" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tapedeck</t>
+          <t>https://norns.community/tambla</t>
         </is>
       </c>
       <c r="I299" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J299" s="2" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2021-09-08</t>
         </is>
       </c>
       <c r="K299" s="2" t="inlineStr"/>
@@ -16072,52 +16064,52 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>taweeet</t>
+          <t>tapedeck</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>skibu</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>art, birds</t>
+          <t>audio_fx</t>
         </is>
       </c>
       <c r="D300" s="2" t="inlineStr">
         <is>
-          <t>Bird song, and lots of it. And pics, too.</t>
+          <t>live tape deck emulation (saturation, distortion, wow/flutter)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=yvc-pNiVl_c</t>
+          <t>https://vimeo.com/666500841</t>
         </is>
       </c>
       <c r="F300" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/69028</t>
+          <t>https://llllllll.co/t/tapedeck/51919</t>
         </is>
       </c>
       <c r="G300" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/skibu/taweeet</t>
+          <t>https://github.com/schollz/tapedeck</t>
         </is>
       </c>
       <c r="H300" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/taweeet</t>
+          <t>https://norns.community/tapedeck</t>
         </is>
       </c>
       <c r="I300" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J300" s="2" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="K300" s="2" t="inlineStr"/>
@@ -16125,42 +16117,42 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>tetra</t>
+          <t>taweeet</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>nvillar</t>
+          <t>skibu</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>synth, sequencer, grid</t>
+          <t>art, birds</t>
         </is>
       </c>
       <c r="D301" s="2" t="inlineStr">
         <is>
-          <t>use the grid to create, perform and sequence sound objects</t>
+          <t>Bird song, and lots of it. And pics, too.</t>
         </is>
       </c>
       <c r="E301" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M0aHRQAvBRA</t>
+          <t>https://www.youtube.com/watch?v=yvc-pNiVl_c</t>
         </is>
       </c>
       <c r="F301" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetra/68343</t>
+          <t>https://llllllll.co/t/69028</t>
         </is>
       </c>
       <c r="G301" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/nvillar/tetra</t>
+          <t>https://github.com/skibu/taweeet</t>
         </is>
       </c>
       <c r="H301" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetra</t>
+          <t>https://norns.community/taweeet</t>
         </is>
       </c>
       <c r="I301" s="2" t="inlineStr">
@@ -16170,7 +16162,7 @@
       </c>
       <c r="J301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="K301" s="2" t="inlineStr"/>
@@ -16178,42 +16170,42 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>tetrabobo</t>
+          <t>tetra</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>nvillar</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>synth</t>
+          <t>synth, sequencer, grid</t>
         </is>
       </c>
       <c r="D302" s="2" t="inlineStr">
         <is>
-          <t>triangle wave organ with variable slope for norns &amp; shbobo shnth</t>
+          <t>use the grid to create, perform and sequence sound objects</t>
         </is>
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/track/1391254177</t>
+          <t>https://www.youtube.com/watch?v=M0aHRQAvBRA</t>
         </is>
       </c>
       <c r="F302" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetrabobo/60112</t>
+          <t>https://llllllll.co/t/tetra/68343</t>
         </is>
       </c>
       <c r="G302" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/TetraBobo</t>
+          <t>https://github.com/nvillar/tetra</t>
         </is>
       </c>
       <c r="H302" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetrabobo</t>
+          <t>https://norns.community/tetra</t>
         </is>
       </c>
       <c r="I302" s="2" t="inlineStr">
@@ -16223,7 +16215,7 @@
       </c>
       <c r="J302" s="2" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="K302" s="2" t="inlineStr"/>
@@ -16231,7 +16223,7 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>tetrabotis</t>
+          <t>tetrabobo</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
@@ -16246,32 +16238,32 @@
       </c>
       <c r="D303" s="2" t="inlineStr">
         <is>
-          <t>tetrabobo + otis = tetrabotis</t>
+          <t>triangle wave organ with variable slope for norns &amp; shbobo shnth</t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wqTQ7xwg5CI</t>
+          <t>https://soundcloud.com/track/1391254177</t>
         </is>
       </c>
       <c r="F303" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetrabotis/60216</t>
+          <t>https://llllllll.co/t/tetrabobo/60112</t>
         </is>
       </c>
       <c r="G303" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/Tetrabotis</t>
+          <t>https://github.com/williamthazard/TetraBobo</t>
         </is>
       </c>
       <c r="H303" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetrabotis</t>
+          <t>https://norns.community/tetrabobo</t>
         </is>
       </c>
       <c r="I303" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J303" s="2" t="inlineStr">
@@ -16284,48 +16276,52 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>thebangs</t>
+          <t>tetrabotis</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>zebra</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>engine</t>
+          <t>synth</t>
         </is>
       </c>
       <c r="D304" s="2" t="inlineStr">
         <is>
-          <t>one-shot synthesis engine</t>
-        </is>
-      </c>
-      <c r="E304" s="2" t="inlineStr"/>
+          <t>tetrabobo + otis = tetrabotis</t>
+        </is>
+      </c>
+      <c r="E304" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wqTQ7xwg5CI</t>
+        </is>
+      </c>
       <c r="F304" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/engine-thebangs</t>
+          <t>https://llllllll.co/t/tetrabotis/60216</t>
         </is>
       </c>
       <c r="G304" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/catfact/thebangs.git</t>
+          <t>https://github.com/williamthazard/Tetrabotis</t>
         </is>
       </c>
       <c r="H304" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/thebangs</t>
+          <t>https://norns.community/tetrabotis</t>
         </is>
       </c>
       <c r="I304" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J304" s="2" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="K304" s="2" t="inlineStr"/>
@@ -16333,52 +16329,48 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>thirtythree</t>
+          <t>thebangs</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>zebra</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>engine</t>
         </is>
       </c>
       <c r="D305" s="2" t="inlineStr">
         <is>
-          <t>sample + sequencer + splicer in the style of po-33</t>
-        </is>
-      </c>
-      <c r="E305" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/545281946</t>
-        </is>
-      </c>
+          <t>one-shot synthesis engine</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="inlineStr"/>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/thirtythree/44702</t>
+          <t>https://llllllll.co/t/engine-thebangs</t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/thirtythree</t>
+          <t>https://github.com/catfact/thebangs.git</t>
         </is>
       </c>
       <c r="H305" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/thirtythree</t>
+          <t>https://norns.community/thebangs</t>
         </is>
       </c>
       <c r="I305" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J305" s="2" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="K305" s="2" t="inlineStr"/>
@@ -16386,52 +16378,52 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>timber</t>
+          <t>thirtythree</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>markeats</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>sampler, midi</t>
+          <t>sequencer, grid</t>
         </is>
       </c>
       <c r="D306" s="2" t="inlineStr">
         <is>
-          <t>sample player engine and scripts</t>
+          <t>sample + sequencer + splicer in the style of po-33</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/Bs4PuShBTbZ</t>
+          <t>https://vimeo.com/545281946</t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21407</t>
+          <t>https://llllllll.co/t/thirtythree/44702</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/markwheeler/timber</t>
+          <t>https://github.com/schollz/thirtythree</t>
         </is>
       </c>
       <c r="H306" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/timber</t>
+          <t>https://norns.community/thirtythree</t>
         </is>
       </c>
       <c r="I306" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J306" s="2" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="K306" s="2" t="inlineStr"/>
@@ -16439,48 +16431,52 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>time-rhythm</t>
+          <t>timber</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>emanuelep</t>
+          <t>markeats</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>drum, synth</t>
+          <t>sampler, midi</t>
         </is>
       </c>
       <c r="D307" s="2" t="inlineStr">
         <is>
-          <t>duophonic synthesizer for norns</t>
-        </is>
-      </c>
-      <c r="E307" s="2" t="inlineStr"/>
+          <t>sample player engine and scripts</t>
+        </is>
+      </c>
+      <c r="E307" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Bs4PuShBTbZ</t>
+        </is>
+      </c>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/time-rhythm/</t>
+          <t>https://llllllll.co/t/21407</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/emanuelep/time-rhythm</t>
+          <t>https://github.com/markwheeler/timber</t>
         </is>
       </c>
       <c r="H307" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/time-rhythm</t>
+          <t>https://norns.community/timber</t>
         </is>
       </c>
       <c r="I307" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>
@@ -16488,52 +16484,48 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>timeparty</t>
+          <t>time-rhythm</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>crim</t>
+          <t>emanuelep</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>audio_fx, delay, grid, crow</t>
+          <t>drum, synth</t>
         </is>
       </c>
       <c r="D308" s="2" t="inlineStr">
         <is>
-          <t>grid based delay sequencer</t>
-        </is>
-      </c>
-      <c r="E308" s="3" t="inlineStr">
-        <is>
-          <t>https://soundcloud.com/track/628734114</t>
-        </is>
-      </c>
+          <t>duophonic synthesizer for norns</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="inlineStr"/>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/timeparty/22837</t>
+          <t>https://llllllll.co/t/time-rhythm/</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/crimclark/timeparty</t>
+          <t>https://github.com/emanuelep/time-rhythm</t>
         </is>
       </c>
       <c r="H308" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/timeparty</t>
+          <t>https://norns.community/time-rhythm</t>
         </is>
       </c>
       <c r="I308" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J308" s="2" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="K308" s="2" t="inlineStr"/>
@@ -16541,52 +16533,52 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>tmi</t>
+          <t>timeparty</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>crim</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>utility, midi</t>
+          <t>audio_fx, delay, grid, crow</t>
         </is>
       </c>
       <c r="D309" s="2" t="inlineStr">
         <is>
-          <t>library for sequencing midi with text</t>
+          <t>grid based delay sequencer</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/503866942</t>
+          <t>https://soundcloud.com/track/628734114</t>
         </is>
       </c>
       <c r="F309" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tmi/40818</t>
+          <t>https://llllllll.co/t/timeparty/22837</t>
         </is>
       </c>
       <c r="G309" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/tmi</t>
+          <t>https://github.com/crimclark/timeparty</t>
         </is>
       </c>
       <c r="H309" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tmi</t>
+          <t>https://norns.community/timeparty</t>
         </is>
       </c>
       <c r="I309" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J309" s="2" t="inlineStr">
         <is>
-          <t>2021-01-29</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="K309" s="2" t="inlineStr"/>
@@ -16594,52 +16586,52 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>torii</t>
+          <t>tmi</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>okyeron</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, midi</t>
+          <t>utility, midi</t>
         </is>
       </c>
       <c r="D310" s="2" t="inlineStr">
         <is>
-          <t>gated audio sequencer</t>
+          <t>library for sequencing midi with text</t>
         </is>
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B9V3djWhUwn</t>
+          <t>https://vimeo.com/503866942</t>
         </is>
       </c>
       <c r="F310" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/torii/30476</t>
+          <t>https://llllllll.co/t/tmi/40818</t>
         </is>
       </c>
       <c r="G310" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/okyeron/torii</t>
+          <t>https://github.com/schollz/tmi</t>
         </is>
       </c>
       <c r="H310" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/torii</t>
+          <t>https://norns.community/tmi</t>
         </is>
       </c>
       <c r="I310" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J310" s="2" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="K310" s="2" t="inlineStr"/>
@@ -16647,12 +16639,12 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>torii</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>ypxkap</t>
+          <t>okyeron</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
@@ -16662,27 +16654,27 @@
       </c>
       <c r="D311" s="2" t="inlineStr">
         <is>
-          <t>edit of @markeats loom for quickly decoupling motifs from their harmonic framework</t>
+          <t>gated audio sequencer</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/ByY7ppPgag_/</t>
+          <t>https://www.instagram.com/p/B9V3djWhUwn</t>
         </is>
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/traffic/21262</t>
+          <t>https://llllllll.co/t/torii/30476</t>
         </is>
       </c>
       <c r="G311" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ypxk/traffic</t>
+          <t>https://github.com/okyeron/torii</t>
         </is>
       </c>
       <c r="H311" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/traffic</t>
+          <t>https://norns.community/torii</t>
         </is>
       </c>
       <c r="I311" s="2" t="inlineStr">
@@ -16692,7 +16684,7 @@
       </c>
       <c r="J311" s="2" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="K311" s="2" t="inlineStr"/>
@@ -16700,42 +16692,42 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>triangles</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>ChrisLowis</t>
+          <t>ypxkap</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>synth</t>
+          <t>sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D312" s="2" t="inlineStr">
         <is>
-          <t>4-voice triangle wave drone synth</t>
+          <t>edit of @markeats loom for quickly decoupling motifs from their harmonic framework</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qjHoedoSUXY</t>
+          <t>https://www.instagram.com/p/ByY7ppPgag_/</t>
         </is>
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/triangles/52662</t>
+          <t>https://llllllll.co/t/traffic/21262</t>
         </is>
       </c>
       <c r="G312" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/chrislo/triangles</t>
+          <t>https://github.com/ypxk/traffic</t>
         </is>
       </c>
       <c r="H312" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/triangles</t>
+          <t>https://norns.community/traffic</t>
         </is>
       </c>
       <c r="I312" s="2" t="inlineStr">
@@ -16745,7 +16737,7 @@
       </c>
       <c r="J312" s="2" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="K312" s="2" t="inlineStr"/>
@@ -16753,42 +16745,42 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>tulpamancer</t>
+          <t>triangles</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>ChrisLowis</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>generative, sequencer, midi</t>
+          <t>synth</t>
         </is>
       </c>
       <c r="D313" s="2" t="inlineStr">
         <is>
-          <t>Every night, the kingdom crumbles. And our MIDI pattern, is conjured anew.</t>
+          <t>4-voice triangle wave drone synth</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=sSMW3ABDiJ4</t>
+          <t>https://www.youtube.com/watch?v=qjHoedoSUXY</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/tulpamancer</t>
+          <t>https://llllllll.co/t/triangles/52662</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/tulpamancer</t>
+          <t>https://github.com/chrislo/triangles</t>
         </is>
       </c>
       <c r="H313" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tulpamancer</t>
+          <t>https://norns.community/triangles</t>
         </is>
       </c>
       <c r="I313" s="2" t="inlineStr">
@@ -16798,7 +16790,7 @@
       </c>
       <c r="J313" s="2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="K313" s="2" t="inlineStr"/>
@@ -16806,48 +16798,52 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>tuner</t>
+          <t>tulpamancer</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>markeats</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>generative, sequencer, midi</t>
         </is>
       </c>
       <c r="D314" s="2" t="inlineStr">
         <is>
-          <t>tune stuff</t>
-        </is>
-      </c>
-      <c r="E314" s="2" t="inlineStr"/>
+          <t>Every night, the kingdom crumbles. And our MIDI pattern, is conjured anew.</t>
+        </is>
+      </c>
+      <c r="E314" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sSMW3ABDiJ4</t>
+        </is>
+      </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tuner/21088</t>
+          <t>https://l.llllllll.co/tulpamancer</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/markwheeler/tuner</t>
+          <t>https://github.com/northern-information/tulpamancer</t>
         </is>
       </c>
       <c r="H314" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tuner</t>
+          <t>https://norns.community/tulpamancer</t>
         </is>
       </c>
       <c r="I314" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J314" s="2" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="K314" s="2" t="inlineStr"/>
@@ -16855,52 +16851,48 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>tunnels</t>
+          <t>tuner</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>speakerdamage</t>
+          <t>markeats</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>delay, audio_fx</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D315" s="2" t="inlineStr">
         <is>
-          <t>a collection of uncertain delays using norns softcut</t>
-        </is>
-      </c>
-      <c r="E315" s="3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/BwwdlZcls4V/</t>
-        </is>
-      </c>
+          <t>tune stuff</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="inlineStr"/>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tunnels/21973</t>
+          <t>https://llllllll.co/t/tuner/21088</t>
         </is>
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/speakerdamage/tunnels</t>
+          <t>https://github.com/markwheeler/tuner</t>
         </is>
       </c>
       <c r="H315" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tunnels</t>
+          <t>https://norns.community/tuner</t>
         </is>
       </c>
       <c r="I315" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="K315" s="2" t="inlineStr"/>
@@ -16908,42 +16900,42 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>turntable</t>
+          <t>tunnels</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>adamstaff</t>
+          <t>speakerdamage</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>norns, crow, sampler</t>
+          <t>delay, audio_fx</t>
         </is>
       </c>
       <c r="D316" s="2" t="inlineStr">
         <is>
-          <t>a turntable for norns</t>
+          <t>a collection of uncertain delays using norns softcut</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=kpuc4MYNU9A</t>
+          <t>https://www.instagram.com/p/BwwdlZcls4V/</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/a-turntable-for-norns-v3-0-1-brings-supercollider-and-crow-to-the-party/67716</t>
+          <t>https://llllllll.co/t/tunnels/21973</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/adamstaff/turntable</t>
+          <t>https://github.com/speakerdamage/tunnels</t>
         </is>
       </c>
       <c r="H316" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/turntable</t>
+          <t>https://norns.community/tunnels</t>
         </is>
       </c>
       <c r="I316" s="2" t="inlineStr">
@@ -16953,7 +16945,7 @@
       </c>
       <c r="J316" s="2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="K316" s="2" t="inlineStr"/>
@@ -16961,42 +16953,42 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>tviburar</t>
+          <t>turntable</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>ljudvagg, vicimity</t>
+          <t>adamstaff</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>sequencer, crow</t>
+          <t>norns, crow, sampler</t>
         </is>
       </c>
       <c r="D317" s="2" t="inlineStr">
         <is>
-          <t>2x4 complex step sequencer w. free running lfo's</t>
+          <t>a turntable for norns</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pI81ISvjST4</t>
+          <t>https://www.youtube.com/watch?v=kpuc4MYNU9A</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tviburar/</t>
+          <t>https://llllllll.co/t/a-turntable-for-norns-v3-0-1-brings-supercollider-and-crow-to-the-party/67716</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/linusschrab/tviburar</t>
+          <t>https://github.com/adamstaff/turntable</t>
         </is>
       </c>
       <c r="H317" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tviburar</t>
+          <t>https://norns.community/turntable</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
@@ -17006,7 +16998,7 @@
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="K317" s="2" t="inlineStr"/>
@@ -17014,42 +17006,42 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>twine</t>
+          <t>tviburar</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>ljudvagg, vicimity</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>granulator</t>
+          <t>sequencer, crow</t>
         </is>
       </c>
       <c r="D318" s="2" t="inlineStr">
         <is>
-          <t>random granulator for two samples</t>
+          <t>2x4 complex step sequencer w. free running lfo's</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RoFk1_z1m18</t>
+          <t>https://www.youtube.com/watch?v=pI81ISvjST4</t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/41703</t>
+          <t>https://llllllll.co/t/tviburar/</t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/twine</t>
+          <t>https://github.com/linusschrab/tviburar</t>
         </is>
       </c>
       <c r="H318" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/twine</t>
+          <t>https://norns.community/tviburar</t>
         </is>
       </c>
       <c r="I318" s="2" t="inlineStr">
@@ -17059,7 +17051,7 @@
       </c>
       <c r="J318" s="2" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="K318" s="2" t="inlineStr"/>
@@ -17067,52 +17059,52 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>twins</t>
+          <t>twine</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>dddstudio</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>granulator, audio_fx</t>
+          <t>granulator</t>
         </is>
       </c>
       <c r="D319" s="2" t="inlineStr">
         <is>
-          <t>randomized dual granular playground, inspired by twine</t>
+          <t>random granulator for two samples</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/halfpower/squall</t>
+          <t>https://www.youtube.com/watch?v=RoFk1_z1m18</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/twins/71052</t>
+          <t>https://llllllll.co/t/41703</t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/danielrigler/twins</t>
+          <t>https://github.com/cfdrake/twine</t>
         </is>
       </c>
       <c r="H319" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/twins</t>
+          <t>https://norns.community/twine</t>
         </is>
       </c>
       <c r="I319" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J319" s="2" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="K319" s="2" t="inlineStr"/>
@@ -17120,48 +17112,52 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>twins</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>dddstudio</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>granulator, audio_fx</t>
         </is>
       </c>
       <c r="D320" s="2" t="inlineStr">
         <is>
-          <t>norns utility scripts</t>
-        </is>
-      </c>
-      <c r="E320" s="2" t="inlineStr"/>
+          <t>randomized dual granular playground, inspired by twine</t>
+        </is>
+      </c>
+      <c r="E320" s="3" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/halfpower/squall</t>
+        </is>
+      </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/u</t>
+          <t>https://llllllll.co/t/twins/71052</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/u</t>
+          <t>https://github.com/danielrigler/twins</t>
         </is>
       </c>
       <c r="H320" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/u</t>
+          <t>https://norns.community/twins</t>
         </is>
       </c>
       <c r="I320" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="K320" s="2" t="inlineStr"/>
@@ -17169,152 +17165,148 @@
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>ufo</t>
+          <t>u</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>duncangeere</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>art, crow, midi, drone, generative</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D321" s="2" t="inlineStr">
         <is>
-          <t>ultra-low frequency oscillator powered by the international space station</t>
-        </is>
-      </c>
-      <c r="E321" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=oiesvr00nFQ</t>
-        </is>
-      </c>
+          <t>norns utility scripts</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="inlineStr"/>
       <c r="F321" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/ufo/62539</t>
+          <t>https://l.llllllll.co/u</t>
         </is>
       </c>
       <c r="G321" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/loudnumbers/ufo</t>
+          <t>https://github.com/northern-information/u</t>
         </is>
       </c>
       <c r="H321" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/ufo</t>
+          <t>https://norns.community/u</t>
         </is>
       </c>
       <c r="I321" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="inlineStr">
-        <is>
-          <t>Discussion URL</t>
-        </is>
-      </c>
+          <t>2022-02-05</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>uhf</t>
+          <t>ufo</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>speakerdamage</t>
+          <t>duncangeere</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>granulator</t>
+          <t>art, crow, midi, drone, generative</t>
         </is>
       </c>
       <c r="D322" s="2" t="inlineStr">
         <is>
-          <t>your tapes transmitted thru late-night static and broken antenna frequencies</t>
+          <t>ultra-low frequency oscillator powered by the international space station</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XMHBb7v7qSg</t>
+          <t>https://www.youtube.com/watch?v=oiesvr00nFQ</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/uhf-norns/21154</t>
+          <t>https://llllllll.co/t/ufo/62539</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/speakerdamage/uhf</t>
+          <t>https://github.com/loudnumbers/ufo</t>
         </is>
       </c>
       <c r="H322" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/uhf</t>
+          <t>https://norns.community/ufo</t>
         </is>
       </c>
       <c r="I322" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="inlineStr"/>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="inlineStr">
+        <is>
+          <t>Discussion URL</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>vcr</t>
+          <t>uhf</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>speakerdamage</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>crow, grid</t>
+          <t>granulator</t>
         </is>
       </c>
       <c r="D323" s="2" t="inlineStr">
         <is>
-          <t>collect and recall voltages</t>
+          <t>your tapes transmitted thru late-night static and broken antenna frequencies</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/849959050</t>
+          <t>https://www.youtube.com/watch?v=XMHBb7v7qSg</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/vcr/63457</t>
+          <t>https://llllllll.co/t/uhf-norns/21154</t>
         </is>
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/vcr</t>
+          <t>https://github.com/speakerdamage/uhf</t>
         </is>
       </c>
       <c r="H323" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/vcr</t>
+          <t>https://norns.community/uhf</t>
         </is>
       </c>
       <c r="I323" s="2" t="inlineStr">
@@ -17324,7 +17316,7 @@
       </c>
       <c r="J323" s="2" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="K323" s="2" t="inlineStr"/>
@@ -17332,42 +17324,42 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>vials</t>
+          <t>vcr</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>nattog</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>sequencer, sampler, grid</t>
+          <t>crow, grid</t>
         </is>
       </c>
       <c r="D324" s="2" t="inlineStr">
         <is>
-          <t>4 track performance-oriented sample sequencer</t>
+          <t>collect and recall voltages</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/BydFuPwAhma/</t>
+          <t>https://vimeo.com/849959050</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/vials/23109</t>
+          <t>https://llllllll.co/t/vcr/63457</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/nattog/vials</t>
+          <t>https://github.com/justmat/vcr</t>
         </is>
       </c>
       <c r="H324" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/vials</t>
+          <t>https://norns.community/vcr</t>
         </is>
       </c>
       <c r="I324" s="2" t="inlineStr">
@@ -17377,7 +17369,7 @@
       </c>
       <c r="J324" s="2" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="K324" s="2" t="inlineStr"/>
@@ -17385,48 +17377,52 @@
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>warmreload</t>
+          <t>vials</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>nattog</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>mod</t>
+          <t>sequencer, sampler, grid</t>
         </is>
       </c>
       <c r="D325" s="2" t="inlineStr">
         <is>
-          <t>a norns mod to automatically reload a script after saving</t>
-        </is>
-      </c>
-      <c r="E325" s="2" t="inlineStr"/>
+          <t>4 track performance-oriented sample sequencer</t>
+        </is>
+      </c>
+      <c r="E325" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/BydFuPwAhma/</t>
+        </is>
+      </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/warmreload/63623</t>
+          <t>https://llllllll.co/t/vials/23109</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/warmreload</t>
+          <t>https://github.com/nattog/vials</t>
         </is>
       </c>
       <c r="H325" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/warmreload</t>
+          <t>https://norns.community/vials</t>
         </is>
       </c>
       <c r="I325" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J325" s="2" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="K325" s="2" t="inlineStr"/>
@@ -17434,52 +17430,48 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>waver</t>
+          <t>warmreload</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>alanza</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>mod</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t>assemble a song from TAPE</t>
-        </is>
-      </c>
-      <c r="E326" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/623981771</t>
-        </is>
-      </c>
+          <t>a norns mod to automatically reload a script after saving</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="inlineStr"/>
       <c r="F326" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/waver/49271</t>
+          <t>https://llllllll.co/t/warmreload/63623</t>
         </is>
       </c>
       <c r="G326" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryleelyman/waver</t>
+          <t>https://github.com/schollz/warmreload</t>
         </is>
       </c>
       <c r="H326" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/waver</t>
+          <t>https://norns.community/warmreload</t>
         </is>
       </c>
       <c r="I326" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J326" s="2" t="inlineStr">
         <is>
-          <t>2021-10-10</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="K326" s="2" t="inlineStr"/>
@@ -17487,52 +17479,52 @@
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>window-crowparator</t>
+          <t>waver</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>xmacex</t>
+          <t>alanza</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>crow</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D327" s="2" t="inlineStr">
         <is>
-          <t>Window comparator for crow</t>
+          <t>assemble a song from TAPE</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/uploads/default/original/3X/6/a/6acc86862992482e2ea4c3b28feeae1a635e6663.mp3</t>
+          <t>https://vimeo.com/623981771</t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/window-crowparator/71520</t>
+          <t>https://llllllll.co/t/waver/49271</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/xmacex/window-crowparator</t>
+          <t>https://github.com/ryleelyman/waver</t>
         </is>
       </c>
       <c r="H327" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/window-crowparator</t>
+          <t>https://norns.community/waver</t>
         </is>
       </c>
       <c r="I327" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J327" s="2" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2021-10-10</t>
         </is>
       </c>
       <c r="K327" s="2" t="inlineStr"/>
@@ -17540,52 +17532,52 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>wobblewobble</t>
+          <t>window-crowparator</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>xmacex</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>utility, crow, midi</t>
+          <t>crow</t>
         </is>
       </c>
       <c r="D328" s="2" t="inlineStr">
         <is>
-          <t>slow oscillators for crow</t>
+          <t>Window comparator for crow</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/553165797</t>
+          <t>https://llllllll.co/uploads/default/original/3X/6/a/6acc86862992482e2ea4c3b28feeae1a635e6663.mp3</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/wobblewobble/45215</t>
+          <t>https://llllllll.co/t/window-crowparator/71520</t>
         </is>
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/wobblewobble</t>
+          <t>https://github.com/xmacex/window-crowparator</t>
         </is>
       </c>
       <c r="H328" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/wobblewobble</t>
+          <t>https://norns.community/window-crowparator</t>
         </is>
       </c>
       <c r="I328" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J328" s="2" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="K328" s="2" t="inlineStr"/>
@@ -17593,52 +17585,52 @@
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>wrms</t>
+          <t>wobblewobble</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>andrew</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>delay, looper</t>
+          <t>utility, crow, midi</t>
         </is>
       </c>
       <c r="D329" s="2" t="inlineStr">
         <is>
-          <t>dual asyncronous time-wigglers / echo loopers</t>
+          <t>slow oscillators for crow</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UTj8voI0-98</t>
+          <t>https://vimeo.com/553165797</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/wrms/28954</t>
+          <t>https://llllllll.co/t/wobblewobble/45215</t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/AndrewShike/wrms</t>
+          <t>https://github.com/schollz/wobblewobble</t>
         </is>
       </c>
       <c r="H329" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/wrms</t>
+          <t>https://norns.community/wobblewobble</t>
         </is>
       </c>
       <c r="I329" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J329" s="2" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="K329" s="2" t="inlineStr"/>
@@ -17646,52 +17638,52 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>xD1</t>
+          <t>wrms</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>alanza</t>
+          <t>andrew</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>synth, midi</t>
+          <t>delay, looper</t>
         </is>
       </c>
       <c r="D330" s="2" t="inlineStr">
         <is>
-          <t>xD1 is an FM synth</t>
+          <t>dual asyncronous time-wigglers / echo loopers</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/763197892</t>
+          <t>https://www.youtube.com/watch?v=UTj8voI0-98</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/xd1-is-an-fm-synth/59150</t>
+          <t>https://llllllll.co/t/wrms/28954</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryleelyman/xD1</t>
+          <t>https://github.com/AndrewShike/wrms</t>
         </is>
       </c>
       <c r="H330" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/xD1</t>
+          <t>https://norns.community/wrms</t>
         </is>
       </c>
       <c r="I330" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="K330" s="2" t="inlineStr"/>
@@ -17699,99 +17691,95 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>yggdrasil</t>
+          <t>xD1</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>argotechnica, infinitedigits, license, tyleretters</t>
+          <t>alanza</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>sequencer, tracker, midi, keyboard</t>
+          <t>synth, midi</t>
         </is>
       </c>
       <c r="D331" s="2" t="inlineStr">
         <is>
-          <t>a norns cyberdeck tracker</t>
+          <t>xD1 is an FM synth</t>
         </is>
       </c>
       <c r="E331" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8ac2qw9gmaw</t>
+          <t>https://vimeo.com/763197892</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/yggdrasil/38040</t>
+          <t>https://llllllll.co/t/xd1-is-an-fm-synth/59150</t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/yggdrasil</t>
+          <t>https://github.com/ryleelyman/xD1</t>
         </is>
       </c>
       <c r="H331" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/yggdrasil</t>
+          <t>https://norns.community/xD1</t>
         </is>
       </c>
       <c r="I331" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="inlineStr">
-        <is>
-          <t>Discussion URL</t>
-        </is>
-      </c>
+          <t>2022-12-17</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>zellen</t>
+          <t>yggdrasil</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>sbaio</t>
+          <t>argotechnica, infinitedigits, license, tyleretters</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>sequencer, tracker, midi, keyboard</t>
         </is>
       </c>
       <c r="D332" s="2" t="inlineStr">
         <is>
-          <t>game of life based sequencer</t>
+          <t>a norns cyberdeck tracker</t>
         </is>
       </c>
       <c r="E332" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B0t-nJsBTV2/</t>
+          <t>https://www.youtube.com/watch?v=8ac2qw9gmaw</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/zellen/21107</t>
+          <t>https://llllllll.co/t/yggdrasil/38040</t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/sarweiler/zellen</t>
+          <t>https://github.com/northern-information/yggdrasil</t>
         </is>
       </c>
       <c r="H332" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/zellen</t>
+          <t>https://norns.community/yggdrasil</t>
         </is>
       </c>
       <c r="I332" s="2" t="inlineStr">
@@ -17801,63 +17789,120 @@
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="inlineStr"/>
+          <t>2022-06-26</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="inlineStr">
+        <is>
+          <t>Discussion URL</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
+          <t>zellen</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="inlineStr">
+        <is>
+          <t>sbaio</t>
+        </is>
+      </c>
+      <c r="C333" s="2" t="inlineStr">
+        <is>
+          <t>sequencer, grid</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="inlineStr">
+        <is>
+          <t>game of life based sequencer</t>
+        </is>
+      </c>
+      <c r="E333" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/B0t-nJsBTV2/</t>
+        </is>
+      </c>
+      <c r="F333" s="3" t="inlineStr">
+        <is>
+          <t>https://llllllll.co/t/zellen/21107</t>
+        </is>
+      </c>
+      <c r="G333" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/sarweiler/zellen</t>
+        </is>
+      </c>
+      <c r="H333" s="3" t="inlineStr">
+        <is>
+          <t>https://norns.community/zellen</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="inlineStr">
+        <is>
+          <t>No Conflict</t>
+        </is>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="inlineStr">
+        <is>
           <t>zxcvbn</t>
         </is>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B334" s="2" t="inlineStr">
         <is>
           <t>infinitedigits</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C334" s="2" t="inlineStr">
         <is>
           <t>sequencer, tracker, keyboard, midi, crow</t>
         </is>
       </c>
-      <c r="D333" s="2" t="inlineStr">
+      <c r="D334" s="2" t="inlineStr">
         <is>
           <t>a tracker</t>
         </is>
       </c>
-      <c r="E333" s="3" t="inlineStr">
+      <c r="E334" s="3" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=6W9oiyR2XD8</t>
         </is>
       </c>
-      <c r="F333" s="3" t="inlineStr">
+      <c r="F334" s="3" t="inlineStr">
         <is>
           <t>https://llllllll.co/t/zxcvbn/59289</t>
         </is>
       </c>
-      <c r="G333" s="3" t="inlineStr">
+      <c r="G334" s="3" t="inlineStr">
         <is>
           <t>https://github.com/schollz/zxcvbn</t>
         </is>
       </c>
-      <c r="H333" s="3" t="inlineStr">
+      <c r="H334" s="3" t="inlineStr">
         <is>
           <t>https://norns.community/zxcvbn</t>
         </is>
       </c>
-      <c r="I333" s="2" t="inlineStr">
+      <c r="I334" s="2" t="inlineStr">
         <is>
           <t>No Conflict</t>
         </is>
       </c>
-      <c r="J333" s="2" t="inlineStr">
+      <c r="J334" s="2" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
-      <c r="K333" s="2" t="inlineStr"/>
+      <c r="K334" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18817,303 +18862,305 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F256" r:id="rId954"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G256" r:id="rId955"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H256" r:id="rId956"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E257" r:id="rId957"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F257" r:id="rId958"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G257" r:id="rId959"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H257" r:id="rId960"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E258" r:id="rId961"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F258" r:id="rId962"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G258" r:id="rId963"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H258" r:id="rId964"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E259" r:id="rId965"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F259" r:id="rId966"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G259" r:id="rId967"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H259" r:id="rId968"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E260" r:id="rId969"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F260" r:id="rId970"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G260" r:id="rId971"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H260" r:id="rId972"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E261" r:id="rId973"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F261" r:id="rId974"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G261" r:id="rId975"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H261" r:id="rId976"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F262" r:id="rId977"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G262" r:id="rId978"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H262" r:id="rId979"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E263" r:id="rId980"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F263" r:id="rId981"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G263" r:id="rId982"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H263" r:id="rId983"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E264" r:id="rId984"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F264" r:id="rId985"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G264" r:id="rId986"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H264" r:id="rId987"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E265" r:id="rId988"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F265" r:id="rId989"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G265" r:id="rId990"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H265" r:id="rId991"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E266" r:id="rId992"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F266" r:id="rId993"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G266" r:id="rId994"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H266" r:id="rId995"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E267" r:id="rId996"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F267" r:id="rId997"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G267" r:id="rId998"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H267" r:id="rId999"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E268" r:id="rId1000"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F268" r:id="rId1001"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G268" r:id="rId1002"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H268" r:id="rId1003"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F269" r:id="rId1004"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G269" r:id="rId1005"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H269" r:id="rId1006"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G257" r:id="rId957"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H257" r:id="rId958"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E258" r:id="rId959"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F258" r:id="rId960"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G258" r:id="rId961"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H258" r:id="rId962"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E259" r:id="rId963"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F259" r:id="rId964"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G259" r:id="rId965"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H259" r:id="rId966"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E260" r:id="rId967"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F260" r:id="rId968"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G260" r:id="rId969"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H260" r:id="rId970"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E261" r:id="rId971"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F261" r:id="rId972"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G261" r:id="rId973"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H261" r:id="rId974"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E262" r:id="rId975"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F262" r:id="rId976"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G262" r:id="rId977"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H262" r:id="rId978"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F263" r:id="rId979"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G263" r:id="rId980"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H263" r:id="rId981"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E264" r:id="rId982"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F264" r:id="rId983"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G264" r:id="rId984"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H264" r:id="rId985"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E265" r:id="rId986"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F265" r:id="rId987"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G265" r:id="rId988"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H265" r:id="rId989"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E266" r:id="rId990"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F266" r:id="rId991"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G266" r:id="rId992"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H266" r:id="rId993"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E267" r:id="rId994"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F267" r:id="rId995"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G267" r:id="rId996"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H267" r:id="rId997"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E268" r:id="rId998"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F268" r:id="rId999"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G268" r:id="rId1000"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H268" r:id="rId1001"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E269" r:id="rId1002"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F269" r:id="rId1003"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G269" r:id="rId1004"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H269" r:id="rId1005"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F270" r:id="rId1006"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G270" r:id="rId1007"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H270" r:id="rId1008"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F271" r:id="rId1009"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G271" r:id="rId1010"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H271" r:id="rId1011"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E272" r:id="rId1012"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F272" r:id="rId1013"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G272" r:id="rId1014"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H272" r:id="rId1015"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId1016"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F273" r:id="rId1017"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G273" r:id="rId1018"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H273" r:id="rId1019"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E274" r:id="rId1020"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F274" r:id="rId1021"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G274" r:id="rId1022"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H274" r:id="rId1023"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E275" r:id="rId1024"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F275" r:id="rId1025"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G275" r:id="rId1026"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H275" r:id="rId1027"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F276" r:id="rId1028"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G276" r:id="rId1029"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H276" r:id="rId1030"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E277" r:id="rId1031"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F277" r:id="rId1032"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G277" r:id="rId1033"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H277" r:id="rId1034"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E278" r:id="rId1035"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F278" r:id="rId1036"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G278" r:id="rId1037"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H278" r:id="rId1038"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E279" r:id="rId1039"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F279" r:id="rId1040"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G279" r:id="rId1041"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H279" r:id="rId1042"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E280" r:id="rId1043"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F280" r:id="rId1044"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G280" r:id="rId1045"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H280" r:id="rId1046"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E281" r:id="rId1047"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F281" r:id="rId1048"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G281" r:id="rId1049"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H281" r:id="rId1050"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E282" r:id="rId1051"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F282" r:id="rId1052"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G282" r:id="rId1053"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H282" r:id="rId1054"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F283" r:id="rId1055"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G283" r:id="rId1056"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H283" r:id="rId1057"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E284" r:id="rId1058"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F284" r:id="rId1059"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G284" r:id="rId1060"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H284" r:id="rId1061"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E285" r:id="rId1062"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F285" r:id="rId1063"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G285" r:id="rId1064"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H285" r:id="rId1065"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F286" r:id="rId1066"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G286" r:id="rId1067"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H286" r:id="rId1068"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E287" r:id="rId1069"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F287" r:id="rId1070"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G287" r:id="rId1071"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H287" r:id="rId1072"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E288" r:id="rId1073"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F288" r:id="rId1074"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G288" r:id="rId1075"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H288" r:id="rId1076"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E289" r:id="rId1077"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F289" r:id="rId1078"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G289" r:id="rId1079"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H289" r:id="rId1080"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E290" r:id="rId1081"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F290" r:id="rId1082"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G290" r:id="rId1083"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H290" r:id="rId1084"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F291" r:id="rId1085"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G291" r:id="rId1086"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H291" r:id="rId1087"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E292" r:id="rId1088"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F292" r:id="rId1089"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G292" r:id="rId1090"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H292" r:id="rId1091"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E293" r:id="rId1092"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F293" r:id="rId1093"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G293" r:id="rId1094"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H293" r:id="rId1095"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E294" r:id="rId1096"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F294" r:id="rId1097"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G294" r:id="rId1098"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H294" r:id="rId1099"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F295" r:id="rId1100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G295" r:id="rId1101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H295" r:id="rId1102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E296" r:id="rId1103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F296" r:id="rId1104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G296" r:id="rId1105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H296" r:id="rId1106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E297" r:id="rId1107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F297" r:id="rId1108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G297" r:id="rId1109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H297" r:id="rId1110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E298" r:id="rId1111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F298" r:id="rId1112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G298" r:id="rId1113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H298" r:id="rId1114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E299" r:id="rId1115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F299" r:id="rId1116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G299" r:id="rId1117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H299" r:id="rId1118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E300" r:id="rId1119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F300" r:id="rId1120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G300" r:id="rId1121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H300" r:id="rId1122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E301" r:id="rId1123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F301" r:id="rId1124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G301" r:id="rId1125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H301" r:id="rId1126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E302" r:id="rId1127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F302" r:id="rId1128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G302" r:id="rId1129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H302" r:id="rId1130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E303" r:id="rId1131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F303" r:id="rId1132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G303" r:id="rId1133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H303" r:id="rId1134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F304" r:id="rId1135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G304" r:id="rId1136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H304" r:id="rId1137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E305" r:id="rId1138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F305" r:id="rId1139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G305" r:id="rId1140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H305" r:id="rId1141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E306" r:id="rId1142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F306" r:id="rId1143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G306" r:id="rId1144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H306" r:id="rId1145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F307" r:id="rId1146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G307" r:id="rId1147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H307" r:id="rId1148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId1149"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F308" r:id="rId1150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G308" r:id="rId1151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H308" r:id="rId1152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId1153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F309" r:id="rId1154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G309" r:id="rId1155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H309" r:id="rId1156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId1157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F310" r:id="rId1158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G310" r:id="rId1159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H310" r:id="rId1160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId1161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F311" r:id="rId1162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G311" r:id="rId1163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H311" r:id="rId1164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId1165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F312" r:id="rId1166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G312" r:id="rId1167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H312" r:id="rId1168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId1169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F313" r:id="rId1170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G313" r:id="rId1171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H313" r:id="rId1172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F314" r:id="rId1173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G314" r:id="rId1174"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H314" r:id="rId1175"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E315" r:id="rId1176"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F315" r:id="rId1177"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G315" r:id="rId1178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H315" r:id="rId1179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId1180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F316" r:id="rId1181"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G316" r:id="rId1182"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H316" r:id="rId1183"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId1184"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F317" r:id="rId1185"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G317" r:id="rId1186"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H317" r:id="rId1187"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId1188"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F318" r:id="rId1189"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G318" r:id="rId1190"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H318" r:id="rId1191"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId1192"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F319" r:id="rId1193"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G319" r:id="rId1194"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H319" r:id="rId1195"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F320" r:id="rId1196"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G320" r:id="rId1197"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H320" r:id="rId1198"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E321" r:id="rId1199"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F321" r:id="rId1200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G321" r:id="rId1201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H321" r:id="rId1202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId1203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F322" r:id="rId1204"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G322" r:id="rId1205"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H322" r:id="rId1206"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E323" r:id="rId1207"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F323" r:id="rId1208"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G323" r:id="rId1209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H323" r:id="rId1210"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId1211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F324" r:id="rId1212"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G324" r:id="rId1213"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H324" r:id="rId1214"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F325" r:id="rId1215"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G325" r:id="rId1216"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H325" r:id="rId1217"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E326" r:id="rId1218"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F326" r:id="rId1219"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G326" r:id="rId1220"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H326" r:id="rId1221"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E327" r:id="rId1222"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F327" r:id="rId1223"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G327" r:id="rId1224"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H327" r:id="rId1225"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E328" r:id="rId1226"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F328" r:id="rId1227"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G328" r:id="rId1228"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H328" r:id="rId1229"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E329" r:id="rId1230"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F329" r:id="rId1231"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G329" r:id="rId1232"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H329" r:id="rId1233"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E330" r:id="rId1234"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F330" r:id="rId1235"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G330" r:id="rId1236"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H330" r:id="rId1237"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E331" r:id="rId1238"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F331" r:id="rId1239"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G331" r:id="rId1240"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H331" r:id="rId1241"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E332" r:id="rId1242"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F332" r:id="rId1243"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G332" r:id="rId1244"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H332" r:id="rId1245"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E333" r:id="rId1246"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F333" r:id="rId1247"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G333" r:id="rId1248"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H333" r:id="rId1249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G271" r:id="rId1009"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H271" r:id="rId1010"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F272" r:id="rId1011"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G272" r:id="rId1012"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H272" r:id="rId1013"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId1014"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F273" r:id="rId1015"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G273" r:id="rId1016"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H273" r:id="rId1017"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E274" r:id="rId1018"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F274" r:id="rId1019"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G274" r:id="rId1020"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H274" r:id="rId1021"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E275" r:id="rId1022"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F275" r:id="rId1023"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G275" r:id="rId1024"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H275" r:id="rId1025"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E276" r:id="rId1026"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F276" r:id="rId1027"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G276" r:id="rId1028"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H276" r:id="rId1029"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F277" r:id="rId1030"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G277" r:id="rId1031"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H277" r:id="rId1032"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E278" r:id="rId1033"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F278" r:id="rId1034"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G278" r:id="rId1035"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H278" r:id="rId1036"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E279" r:id="rId1037"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F279" r:id="rId1038"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G279" r:id="rId1039"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H279" r:id="rId1040"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E280" r:id="rId1041"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F280" r:id="rId1042"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G280" r:id="rId1043"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H280" r:id="rId1044"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E281" r:id="rId1045"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F281" r:id="rId1046"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G281" r:id="rId1047"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H281" r:id="rId1048"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E282" r:id="rId1049"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F282" r:id="rId1050"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G282" r:id="rId1051"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H282" r:id="rId1052"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E283" r:id="rId1053"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F283" r:id="rId1054"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G283" r:id="rId1055"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H283" r:id="rId1056"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F284" r:id="rId1057"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G284" r:id="rId1058"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H284" r:id="rId1059"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E285" r:id="rId1060"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F285" r:id="rId1061"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G285" r:id="rId1062"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H285" r:id="rId1063"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E286" r:id="rId1064"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F286" r:id="rId1065"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G286" r:id="rId1066"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H286" r:id="rId1067"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F287" r:id="rId1068"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G287" r:id="rId1069"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H287" r:id="rId1070"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E288" r:id="rId1071"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F288" r:id="rId1072"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G288" r:id="rId1073"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H288" r:id="rId1074"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E289" r:id="rId1075"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F289" r:id="rId1076"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G289" r:id="rId1077"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H289" r:id="rId1078"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E290" r:id="rId1079"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F290" r:id="rId1080"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G290" r:id="rId1081"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H290" r:id="rId1082"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E291" r:id="rId1083"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F291" r:id="rId1084"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G291" r:id="rId1085"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H291" r:id="rId1086"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F292" r:id="rId1087"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G292" r:id="rId1088"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H292" r:id="rId1089"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E293" r:id="rId1090"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F293" r:id="rId1091"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G293" r:id="rId1092"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H293" r:id="rId1093"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E294" r:id="rId1094"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F294" r:id="rId1095"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G294" r:id="rId1096"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H294" r:id="rId1097"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E295" r:id="rId1098"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F295" r:id="rId1099"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G295" r:id="rId1100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H295" r:id="rId1101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F296" r:id="rId1102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G296" r:id="rId1103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H296" r:id="rId1104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E297" r:id="rId1105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F297" r:id="rId1106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G297" r:id="rId1107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H297" r:id="rId1108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E298" r:id="rId1109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F298" r:id="rId1110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G298" r:id="rId1111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H298" r:id="rId1112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E299" r:id="rId1113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F299" r:id="rId1114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G299" r:id="rId1115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H299" r:id="rId1116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E300" r:id="rId1117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F300" r:id="rId1118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G300" r:id="rId1119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H300" r:id="rId1120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E301" r:id="rId1121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F301" r:id="rId1122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G301" r:id="rId1123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H301" r:id="rId1124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E302" r:id="rId1125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F302" r:id="rId1126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G302" r:id="rId1127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H302" r:id="rId1128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E303" r:id="rId1129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F303" r:id="rId1130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G303" r:id="rId1131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H303" r:id="rId1132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E304" r:id="rId1133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F304" r:id="rId1134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G304" r:id="rId1135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H304" r:id="rId1136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F305" r:id="rId1137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G305" r:id="rId1138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H305" r:id="rId1139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E306" r:id="rId1140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F306" r:id="rId1141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G306" r:id="rId1142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H306" r:id="rId1143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E307" r:id="rId1144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F307" r:id="rId1145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G307" r:id="rId1146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H307" r:id="rId1147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F308" r:id="rId1148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G308" r:id="rId1149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H308" r:id="rId1150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId1151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F309" r:id="rId1152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G309" r:id="rId1153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H309" r:id="rId1154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId1155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F310" r:id="rId1156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G310" r:id="rId1157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H310" r:id="rId1158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId1159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F311" r:id="rId1160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G311" r:id="rId1161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H311" r:id="rId1162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId1163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F312" r:id="rId1164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G312" r:id="rId1165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H312" r:id="rId1166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId1167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F313" r:id="rId1168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G313" r:id="rId1169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H313" r:id="rId1170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E314" r:id="rId1171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F314" r:id="rId1172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G314" r:id="rId1173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H314" r:id="rId1174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F315" r:id="rId1175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G315" r:id="rId1176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H315" r:id="rId1177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId1178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F316" r:id="rId1179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G316" r:id="rId1180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H316" r:id="rId1181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId1182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F317" r:id="rId1183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G317" r:id="rId1184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H317" r:id="rId1185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId1186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F318" r:id="rId1187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G318" r:id="rId1188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H318" r:id="rId1189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId1190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F319" r:id="rId1191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G319" r:id="rId1192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H319" r:id="rId1193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E320" r:id="rId1194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F320" r:id="rId1195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G320" r:id="rId1196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H320" r:id="rId1197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F321" r:id="rId1198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G321" r:id="rId1199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H321" r:id="rId1200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId1201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F322" r:id="rId1202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G322" r:id="rId1203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H322" r:id="rId1204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E323" r:id="rId1205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F323" r:id="rId1206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G323" r:id="rId1207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H323" r:id="rId1208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId1209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F324" r:id="rId1210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G324" r:id="rId1211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H324" r:id="rId1212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E325" r:id="rId1213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F325" r:id="rId1214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G325" r:id="rId1215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H325" r:id="rId1216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F326" r:id="rId1217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G326" r:id="rId1218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H326" r:id="rId1219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E327" r:id="rId1220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F327" r:id="rId1221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G327" r:id="rId1222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H327" r:id="rId1223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E328" r:id="rId1224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F328" r:id="rId1225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G328" r:id="rId1226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H328" r:id="rId1227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E329" r:id="rId1228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F329" r:id="rId1229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G329" r:id="rId1230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H329" r:id="rId1231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E330" r:id="rId1232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F330" r:id="rId1233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G330" r:id="rId1234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H330" r:id="rId1235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E331" r:id="rId1236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F331" r:id="rId1237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G331" r:id="rId1238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H331" r:id="rId1239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E332" r:id="rId1240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F332" r:id="rId1241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G332" r:id="rId1242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H332" r:id="rId1243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E333" r:id="rId1244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F333" r:id="rId1245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G333" r:id="rId1246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H333" r:id="rId1247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E334" r:id="rId1248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F334" r:id="rId1249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G334" r:id="rId1250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H334" r:id="rId1251"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1250"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1252"/>
   </tableParts>
 </worksheet>
 </file>
--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -13869,7 +13869,11 @@
           <t>2025-12-18</t>
         </is>
       </c>
-      <c r="K257" s="2" t="inlineStr"/>
+      <c r="K257" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
@@ -14588,7 +14592,7 @@
       <c r="I271" s="2" t="inlineStr"/>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="K271" s="2" t="inlineStr">

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -14592,7 +14592,7 @@
       <c r="I271" s="2" t="inlineStr"/>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="K271" s="2" t="inlineStr">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="K320" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -5269,7 +5269,7 @@
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NornsScripts" displayName="NornsScripts" ref="A1:K334" headerRowCount="1">
-  <autoFilter ref="A1:K334"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NornsScripts" displayName="NornsScripts" ref="A1:K335" headerRowCount="1">
+  <autoFilter ref="A1:K335"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Author"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="J104" s="2" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="K104" s="2" t="inlineStr"/>
@@ -14592,7 +14592,7 @@
       <c r="I271" s="2" t="inlineStr"/>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="K271" s="2" t="inlineStr">
@@ -16435,52 +16435,48 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>timber</t>
+          <t>thorns</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>markeats</t>
+          <t>mpelath</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>sampler, midi</t>
+          <t>norns, grid, midi, sequencer, generative</t>
         </is>
       </c>
       <c r="D307" s="2" t="inlineStr">
         <is>
-          <t>sample player engine and scripts</t>
-        </is>
-      </c>
-      <c r="E307" s="3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/Bs4PuShBTbZ</t>
-        </is>
-      </c>
+          <t>fractal sequencer for norns + grid</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="inlineStr"/>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21407</t>
+          <t>https://llllllll.co/t/thorns-a-fractal-sequencer/73644</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/markwheeler/timber</t>
+          <t>https://github.com/mpelath/thorns</t>
         </is>
       </c>
       <c r="H307" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/timber</t>
+          <t>https://norns.community/thorns</t>
         </is>
       </c>
       <c r="I307" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>
@@ -16488,48 +16484,52 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>time-rhythm</t>
+          <t>timber</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>emanuelep</t>
+          <t>markeats</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>drum, synth</t>
+          <t>sampler, midi</t>
         </is>
       </c>
       <c r="D308" s="2" t="inlineStr">
         <is>
-          <t>duophonic synthesizer for norns</t>
-        </is>
-      </c>
-      <c r="E308" s="2" t="inlineStr"/>
+          <t>sample player engine and scripts</t>
+        </is>
+      </c>
+      <c r="E308" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Bs4PuShBTbZ</t>
+        </is>
+      </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/time-rhythm/</t>
+          <t>https://llllllll.co/t/21407</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/emanuelep/time-rhythm</t>
+          <t>https://github.com/markwheeler/timber</t>
         </is>
       </c>
       <c r="H308" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/time-rhythm</t>
+          <t>https://norns.community/timber</t>
         </is>
       </c>
       <c r="I308" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J308" s="2" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="K308" s="2" t="inlineStr"/>
@@ -16537,52 +16537,48 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>timeparty</t>
+          <t>time-rhythm</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>crim</t>
+          <t>emanuelep</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>audio_fx, delay, grid, crow</t>
+          <t>drum, synth</t>
         </is>
       </c>
       <c r="D309" s="2" t="inlineStr">
         <is>
-          <t>grid based delay sequencer</t>
-        </is>
-      </c>
-      <c r="E309" s="3" t="inlineStr">
-        <is>
-          <t>https://soundcloud.com/track/628734114</t>
-        </is>
-      </c>
+          <t>duophonic synthesizer for norns</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="inlineStr"/>
       <c r="F309" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/timeparty/22837</t>
+          <t>https://llllllll.co/t/time-rhythm/</t>
         </is>
       </c>
       <c r="G309" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/crimclark/timeparty</t>
+          <t>https://github.com/emanuelep/time-rhythm</t>
         </is>
       </c>
       <c r="H309" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/timeparty</t>
+          <t>https://norns.community/time-rhythm</t>
         </is>
       </c>
       <c r="I309" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J309" s="2" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="K309" s="2" t="inlineStr"/>
@@ -16590,52 +16586,52 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>tmi</t>
+          <t>timeparty</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>crim</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>utility, midi</t>
+          <t>audio_fx, delay, grid, crow</t>
         </is>
       </c>
       <c r="D310" s="2" t="inlineStr">
         <is>
-          <t>library for sequencing midi with text</t>
+          <t>grid based delay sequencer</t>
         </is>
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/503866942</t>
+          <t>https://soundcloud.com/track/628734114</t>
         </is>
       </c>
       <c r="F310" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tmi/40818</t>
+          <t>https://llllllll.co/t/timeparty/22837</t>
         </is>
       </c>
       <c r="G310" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/tmi</t>
+          <t>https://github.com/crimclark/timeparty</t>
         </is>
       </c>
       <c r="H310" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tmi</t>
+          <t>https://norns.community/timeparty</t>
         </is>
       </c>
       <c r="I310" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J310" s="2" t="inlineStr">
         <is>
-          <t>2021-01-29</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="K310" s="2" t="inlineStr"/>
@@ -16643,52 +16639,52 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>torii</t>
+          <t>tmi</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>okyeron</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, midi</t>
+          <t>utility, midi</t>
         </is>
       </c>
       <c r="D311" s="2" t="inlineStr">
         <is>
-          <t>gated audio sequencer</t>
+          <t>library for sequencing midi with text</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B9V3djWhUwn</t>
+          <t>https://vimeo.com/503866942</t>
         </is>
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/torii/30476</t>
+          <t>https://llllllll.co/t/tmi/40818</t>
         </is>
       </c>
       <c r="G311" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/okyeron/torii</t>
+          <t>https://github.com/schollz/tmi</t>
         </is>
       </c>
       <c r="H311" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/torii</t>
+          <t>https://norns.community/tmi</t>
         </is>
       </c>
       <c r="I311" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J311" s="2" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="K311" s="2" t="inlineStr"/>
@@ -16696,12 +16692,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>torii</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>ypxkap</t>
+          <t>okyeron</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -16711,27 +16707,27 @@
       </c>
       <c r="D312" s="2" t="inlineStr">
         <is>
-          <t>edit of @markeats loom for quickly decoupling motifs from their harmonic framework</t>
+          <t>gated audio sequencer</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/ByY7ppPgag_/</t>
+          <t>https://www.instagram.com/p/B9V3djWhUwn</t>
         </is>
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/traffic/21262</t>
+          <t>https://llllllll.co/t/torii/30476</t>
         </is>
       </c>
       <c r="G312" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ypxk/traffic</t>
+          <t>https://github.com/okyeron/torii</t>
         </is>
       </c>
       <c r="H312" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/traffic</t>
+          <t>https://norns.community/torii</t>
         </is>
       </c>
       <c r="I312" s="2" t="inlineStr">
@@ -16741,7 +16737,7 @@
       </c>
       <c r="J312" s="2" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="K312" s="2" t="inlineStr"/>
@@ -16749,42 +16745,42 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>triangles</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>ChrisLowis</t>
+          <t>ypxkap</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>synth</t>
+          <t>sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D313" s="2" t="inlineStr">
         <is>
-          <t>4-voice triangle wave drone synth</t>
+          <t>edit of @markeats loom for quickly decoupling motifs from their harmonic framework</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qjHoedoSUXY</t>
+          <t>https://www.instagram.com/p/ByY7ppPgag_/</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/triangles/52662</t>
+          <t>https://llllllll.co/t/traffic/21262</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/chrislo/triangles</t>
+          <t>https://github.com/ypxk/traffic</t>
         </is>
       </c>
       <c r="H313" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/triangles</t>
+          <t>https://norns.community/traffic</t>
         </is>
       </c>
       <c r="I313" s="2" t="inlineStr">
@@ -16794,7 +16790,7 @@
       </c>
       <c r="J313" s="2" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="K313" s="2" t="inlineStr"/>
@@ -16802,42 +16798,42 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>tulpamancer</t>
+          <t>triangles</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>ChrisLowis</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>generative, sequencer, midi</t>
+          <t>synth</t>
         </is>
       </c>
       <c r="D314" s="2" t="inlineStr">
         <is>
-          <t>Every night, the kingdom crumbles. And our MIDI pattern, is conjured anew.</t>
+          <t>4-voice triangle wave drone synth</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=sSMW3ABDiJ4</t>
+          <t>https://www.youtube.com/watch?v=qjHoedoSUXY</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/tulpamancer</t>
+          <t>https://llllllll.co/t/triangles/52662</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/tulpamancer</t>
+          <t>https://github.com/chrislo/triangles</t>
         </is>
       </c>
       <c r="H314" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tulpamancer</t>
+          <t>https://norns.community/triangles</t>
         </is>
       </c>
       <c r="I314" s="2" t="inlineStr">
@@ -16847,7 +16843,7 @@
       </c>
       <c r="J314" s="2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="K314" s="2" t="inlineStr"/>
@@ -16855,48 +16851,52 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>tuner</t>
+          <t>tulpamancer</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>markeats</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>generative, sequencer, midi</t>
         </is>
       </c>
       <c r="D315" s="2" t="inlineStr">
         <is>
-          <t>tune stuff</t>
-        </is>
-      </c>
-      <c r="E315" s="2" t="inlineStr"/>
+          <t>Every night, the kingdom crumbles. And our MIDI pattern, is conjured anew.</t>
+        </is>
+      </c>
+      <c r="E315" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sSMW3ABDiJ4</t>
+        </is>
+      </c>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tuner/21088</t>
+          <t>https://l.llllllll.co/tulpamancer</t>
         </is>
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/markwheeler/tuner</t>
+          <t>https://github.com/northern-information/tulpamancer</t>
         </is>
       </c>
       <c r="H315" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tuner</t>
+          <t>https://norns.community/tulpamancer</t>
         </is>
       </c>
       <c r="I315" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="K315" s="2" t="inlineStr"/>
@@ -16904,52 +16904,48 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>tunnels</t>
+          <t>tuner</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>speakerdamage</t>
+          <t>markeats</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>delay, audio_fx</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D316" s="2" t="inlineStr">
         <is>
-          <t>a collection of uncertain delays using norns softcut</t>
-        </is>
-      </c>
-      <c r="E316" s="3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/BwwdlZcls4V/</t>
-        </is>
-      </c>
+          <t>tune stuff</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="inlineStr"/>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tunnels/21973</t>
+          <t>https://llllllll.co/t/tuner/21088</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/speakerdamage/tunnels</t>
+          <t>https://github.com/markwheeler/tuner</t>
         </is>
       </c>
       <c r="H316" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tunnels</t>
+          <t>https://norns.community/tuner</t>
         </is>
       </c>
       <c r="I316" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J316" s="2" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="K316" s="2" t="inlineStr"/>
@@ -16957,42 +16953,42 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>turntable</t>
+          <t>tunnels</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>adamstaff</t>
+          <t>speakerdamage</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>norns, crow, sampler</t>
+          <t>delay, audio_fx</t>
         </is>
       </c>
       <c r="D317" s="2" t="inlineStr">
         <is>
-          <t>a turntable for norns</t>
+          <t>a collection of uncertain delays using norns softcut</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=kpuc4MYNU9A</t>
+          <t>https://www.instagram.com/p/BwwdlZcls4V/</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/a-turntable-for-norns-v3-0-1-brings-supercollider-and-crow-to-the-party/67716</t>
+          <t>https://llllllll.co/t/tunnels/21973</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/adamstaff/turntable</t>
+          <t>https://github.com/speakerdamage/tunnels</t>
         </is>
       </c>
       <c r="H317" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/turntable</t>
+          <t>https://norns.community/tunnels</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
@@ -17002,7 +16998,7 @@
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="K317" s="2" t="inlineStr"/>
@@ -17010,42 +17006,42 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>tviburar</t>
+          <t>turntable</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>ljudvagg, vicimity</t>
+          <t>adamstaff</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>sequencer, crow</t>
+          <t>norns, crow, sampler</t>
         </is>
       </c>
       <c r="D318" s="2" t="inlineStr">
         <is>
-          <t>2x4 complex step sequencer w. free running lfo's</t>
+          <t>a turntable for norns</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pI81ISvjST4</t>
+          <t>https://www.youtube.com/watch?v=kpuc4MYNU9A</t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tviburar/</t>
+          <t>https://llllllll.co/t/a-turntable-for-norns-v3-0-1-brings-supercollider-and-crow-to-the-party/67716</t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/linusschrab/tviburar</t>
+          <t>https://github.com/adamstaff/turntable</t>
         </is>
       </c>
       <c r="H318" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tviburar</t>
+          <t>https://norns.community/turntable</t>
         </is>
       </c>
       <c r="I318" s="2" t="inlineStr">
@@ -17055,7 +17051,7 @@
       </c>
       <c r="J318" s="2" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="K318" s="2" t="inlineStr"/>
@@ -17063,42 +17059,42 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>twine</t>
+          <t>tviburar</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>ljudvagg, vicimity</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>granulator</t>
+          <t>sequencer, crow</t>
         </is>
       </c>
       <c r="D319" s="2" t="inlineStr">
         <is>
-          <t>random granulator for two samples</t>
+          <t>2x4 complex step sequencer w. free running lfo's</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RoFk1_z1m18</t>
+          <t>https://www.youtube.com/watch?v=pI81ISvjST4</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/41703</t>
+          <t>https://llllllll.co/t/tviburar/</t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/twine</t>
+          <t>https://github.com/linusschrab/tviburar</t>
         </is>
       </c>
       <c r="H319" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/twine</t>
+          <t>https://norns.community/tviburar</t>
         </is>
       </c>
       <c r="I319" s="2" t="inlineStr">
@@ -17108,7 +17104,7 @@
       </c>
       <c r="J319" s="2" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="K319" s="2" t="inlineStr"/>
@@ -17116,52 +17112,52 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>twins</t>
+          <t>twine</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>dddstudio</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>granulator, audio_fx</t>
+          <t>granulator</t>
         </is>
       </c>
       <c r="D320" s="2" t="inlineStr">
         <is>
-          <t>randomized dual granular playground, inspired by twine</t>
+          <t>random granulator for two samples</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/halfpower/squall</t>
+          <t>https://www.youtube.com/watch?v=RoFk1_z1m18</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/twins/71052</t>
+          <t>https://llllllll.co/t/41703</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/danielrigler/twins</t>
+          <t>https://github.com/cfdrake/twine</t>
         </is>
       </c>
       <c r="H320" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/twins</t>
+          <t>https://norns.community/twine</t>
         </is>
       </c>
       <c r="I320" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="K320" s="2" t="inlineStr"/>
@@ -17169,48 +17165,52 @@
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>twins</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>dddstudio</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>granulator, audio_fx</t>
         </is>
       </c>
       <c r="D321" s="2" t="inlineStr">
         <is>
-          <t>norns utility scripts</t>
-        </is>
-      </c>
-      <c r="E321" s="2" t="inlineStr"/>
+          <t>randomized dual granular playground, inspired by twine</t>
+        </is>
+      </c>
+      <c r="E321" s="3" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/halfpower/squall</t>
+        </is>
+      </c>
       <c r="F321" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/u</t>
+          <t>https://llllllll.co/t/twins/71052</t>
         </is>
       </c>
       <c r="G321" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/u</t>
+          <t>https://github.com/danielrigler/twins</t>
         </is>
       </c>
       <c r="H321" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/u</t>
+          <t>https://norns.community/twins</t>
         </is>
       </c>
       <c r="I321" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>
@@ -17218,152 +17218,148 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>ufo</t>
+          <t>u</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>duncangeere</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>art, crow, midi, drone, generative</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D322" s="2" t="inlineStr">
         <is>
-          <t>ultra-low frequency oscillator powered by the international space station</t>
-        </is>
-      </c>
-      <c r="E322" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=oiesvr00nFQ</t>
-        </is>
-      </c>
+          <t>norns utility scripts</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="inlineStr"/>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/ufo/62539</t>
+          <t>https://l.llllllll.co/u</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/loudnumbers/ufo</t>
+          <t>https://github.com/northern-information/u</t>
         </is>
       </c>
       <c r="H322" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/ufo</t>
+          <t>https://norns.community/u</t>
         </is>
       </c>
       <c r="I322" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="inlineStr">
-        <is>
-          <t>Discussion URL</t>
-        </is>
-      </c>
+          <t>2022-02-05</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>uhf</t>
+          <t>ufo</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>speakerdamage</t>
+          <t>duncangeere</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>granulator</t>
+          <t>art, crow, midi, drone, generative</t>
         </is>
       </c>
       <c r="D323" s="2" t="inlineStr">
         <is>
-          <t>your tapes transmitted thru late-night static and broken antenna frequencies</t>
+          <t>ultra-low frequency oscillator powered by the international space station</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XMHBb7v7qSg</t>
+          <t>https://www.youtube.com/watch?v=oiesvr00nFQ</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/uhf-norns/21154</t>
+          <t>https://llllllll.co/t/ufo/62539</t>
         </is>
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/speakerdamage/uhf</t>
+          <t>https://github.com/loudnumbers/ufo</t>
         </is>
       </c>
       <c r="H323" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/uhf</t>
+          <t>https://norns.community/ufo</t>
         </is>
       </c>
       <c r="I323" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J323" s="2" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="inlineStr"/>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="inlineStr">
+        <is>
+          <t>Discussion URL</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>vcr</t>
+          <t>uhf</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>speakerdamage</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>crow, grid</t>
+          <t>granulator</t>
         </is>
       </c>
       <c r="D324" s="2" t="inlineStr">
         <is>
-          <t>collect and recall voltages</t>
+          <t>your tapes transmitted thru late-night static and broken antenna frequencies</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/849959050</t>
+          <t>https://www.youtube.com/watch?v=XMHBb7v7qSg</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/vcr/63457</t>
+          <t>https://llllllll.co/t/uhf-norns/21154</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/vcr</t>
+          <t>https://github.com/speakerdamage/uhf</t>
         </is>
       </c>
       <c r="H324" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/vcr</t>
+          <t>https://norns.community/uhf</t>
         </is>
       </c>
       <c r="I324" s="2" t="inlineStr">
@@ -17373,7 +17369,7 @@
       </c>
       <c r="J324" s="2" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="K324" s="2" t="inlineStr"/>
@@ -17381,42 +17377,42 @@
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>vials</t>
+          <t>vcr</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>nattog</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>sequencer, sampler, grid</t>
+          <t>crow, grid</t>
         </is>
       </c>
       <c r="D325" s="2" t="inlineStr">
         <is>
-          <t>4 track performance-oriented sample sequencer</t>
+          <t>collect and recall voltages</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/BydFuPwAhma/</t>
+          <t>https://vimeo.com/849959050</t>
         </is>
       </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/vials/23109</t>
+          <t>https://llllllll.co/t/vcr/63457</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/nattog/vials</t>
+          <t>https://github.com/justmat/vcr</t>
         </is>
       </c>
       <c r="H325" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/vials</t>
+          <t>https://norns.community/vcr</t>
         </is>
       </c>
       <c r="I325" s="2" t="inlineStr">
@@ -17426,7 +17422,7 @@
       </c>
       <c r="J325" s="2" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="K325" s="2" t="inlineStr"/>
@@ -17434,48 +17430,52 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>warmreload</t>
+          <t>vials</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>nattog</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>mod</t>
+          <t>sequencer, sampler, grid</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t>a norns mod to automatically reload a script after saving</t>
-        </is>
-      </c>
-      <c r="E326" s="2" t="inlineStr"/>
+          <t>4 track performance-oriented sample sequencer</t>
+        </is>
+      </c>
+      <c r="E326" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/BydFuPwAhma/</t>
+        </is>
+      </c>
       <c r="F326" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/warmreload/63623</t>
+          <t>https://llllllll.co/t/vials/23109</t>
         </is>
       </c>
       <c r="G326" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/warmreload</t>
+          <t>https://github.com/nattog/vials</t>
         </is>
       </c>
       <c r="H326" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/warmreload</t>
+          <t>https://norns.community/vials</t>
         </is>
       </c>
       <c r="I326" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J326" s="2" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="K326" s="2" t="inlineStr"/>
@@ -17483,52 +17483,48 @@
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>waver</t>
+          <t>warmreload</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>alanza</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>mod</t>
         </is>
       </c>
       <c r="D327" s="2" t="inlineStr">
         <is>
-          <t>assemble a song from TAPE</t>
-        </is>
-      </c>
-      <c r="E327" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/623981771</t>
-        </is>
-      </c>
+          <t>a norns mod to automatically reload a script after saving</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="inlineStr"/>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/waver/49271</t>
+          <t>https://llllllll.co/t/warmreload/63623</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryleelyman/waver</t>
+          <t>https://github.com/schollz/warmreload</t>
         </is>
       </c>
       <c r="H327" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/waver</t>
+          <t>https://norns.community/warmreload</t>
         </is>
       </c>
       <c r="I327" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J327" s="2" t="inlineStr">
         <is>
-          <t>2021-10-10</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="K327" s="2" t="inlineStr"/>
@@ -17536,52 +17532,52 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>window-crowparator</t>
+          <t>waver</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>xmacex</t>
+          <t>alanza</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>crow</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D328" s="2" t="inlineStr">
         <is>
-          <t>Window comparator for crow</t>
+          <t>assemble a song from TAPE</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/uploads/default/original/3X/6/a/6acc86862992482e2ea4c3b28feeae1a635e6663.mp3</t>
+          <t>https://vimeo.com/623981771</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/window-crowparator/71520</t>
+          <t>https://llllllll.co/t/waver/49271</t>
         </is>
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/xmacex/window-crowparator</t>
+          <t>https://github.com/ryleelyman/waver</t>
         </is>
       </c>
       <c r="H328" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/window-crowparator</t>
+          <t>https://norns.community/waver</t>
         </is>
       </c>
       <c r="I328" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J328" s="2" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2021-10-10</t>
         </is>
       </c>
       <c r="K328" s="2" t="inlineStr"/>
@@ -17589,52 +17585,52 @@
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>wobblewobble</t>
+          <t>window-crowparator</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>xmacex</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>utility, crow, midi</t>
+          <t>crow</t>
         </is>
       </c>
       <c r="D329" s="2" t="inlineStr">
         <is>
-          <t>slow oscillators for crow</t>
+          <t>Window comparator for crow</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/553165797</t>
+          <t>https://llllllll.co/uploads/default/original/3X/6/a/6acc86862992482e2ea4c3b28feeae1a635e6663.mp3</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/wobblewobble/45215</t>
+          <t>https://llllllll.co/t/window-crowparator/71520</t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/wobblewobble</t>
+          <t>https://github.com/xmacex/window-crowparator</t>
         </is>
       </c>
       <c r="H329" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/wobblewobble</t>
+          <t>https://norns.community/window-crowparator</t>
         </is>
       </c>
       <c r="I329" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J329" s="2" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="K329" s="2" t="inlineStr"/>
@@ -17642,52 +17638,52 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>wrms</t>
+          <t>wobblewobble</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>andrew</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>delay, looper</t>
+          <t>utility, crow, midi</t>
         </is>
       </c>
       <c r="D330" s="2" t="inlineStr">
         <is>
-          <t>dual asyncronous time-wigglers / echo loopers</t>
+          <t>slow oscillators for crow</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UTj8voI0-98</t>
+          <t>https://vimeo.com/553165797</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/wrms/28954</t>
+          <t>https://llllllll.co/t/wobblewobble/45215</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/AndrewShike/wrms</t>
+          <t>https://github.com/schollz/wobblewobble</t>
         </is>
       </c>
       <c r="H330" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/wrms</t>
+          <t>https://norns.community/wobblewobble</t>
         </is>
       </c>
       <c r="I330" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="K330" s="2" t="inlineStr"/>
@@ -17695,52 +17691,52 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>xD1</t>
+          <t>wrms</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>alanza</t>
+          <t>andrew</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>synth, midi</t>
+          <t>delay, looper</t>
         </is>
       </c>
       <c r="D331" s="2" t="inlineStr">
         <is>
-          <t>xD1 is an FM synth</t>
+          <t>dual asyncronous time-wigglers / echo loopers</t>
         </is>
       </c>
       <c r="E331" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/763197892</t>
+          <t>https://www.youtube.com/watch?v=UTj8voI0-98</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/xd1-is-an-fm-synth/59150</t>
+          <t>https://llllllll.co/t/wrms/28954</t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryleelyman/xD1</t>
+          <t>https://github.com/AndrewShike/wrms</t>
         </is>
       </c>
       <c r="H331" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/xD1</t>
+          <t>https://norns.community/wrms</t>
         </is>
       </c>
       <c r="I331" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="K331" s="2" t="inlineStr"/>
@@ -17748,99 +17744,95 @@
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>yggdrasil</t>
+          <t>xD1</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>argotechnica, infinitedigits, license, tyleretters</t>
+          <t>alanza</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>sequencer, tracker, midi, keyboard</t>
+          <t>synth, midi</t>
         </is>
       </c>
       <c r="D332" s="2" t="inlineStr">
         <is>
-          <t>a norns cyberdeck tracker</t>
+          <t>xD1 is an FM synth</t>
         </is>
       </c>
       <c r="E332" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8ac2qw9gmaw</t>
+          <t>https://vimeo.com/763197892</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/yggdrasil/38040</t>
+          <t>https://llllllll.co/t/xd1-is-an-fm-synth/59150</t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/yggdrasil</t>
+          <t>https://github.com/ryleelyman/xD1</t>
         </is>
       </c>
       <c r="H332" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/yggdrasil</t>
+          <t>https://norns.community/xD1</t>
         </is>
       </c>
       <c r="I332" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="inlineStr">
-        <is>
-          <t>Discussion URL</t>
-        </is>
-      </c>
+          <t>2022-12-17</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>zellen</t>
+          <t>yggdrasil</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>sbaio</t>
+          <t>argotechnica, infinitedigits, license, tyleretters</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>sequencer, tracker, midi, keyboard</t>
         </is>
       </c>
       <c r="D333" s="2" t="inlineStr">
         <is>
-          <t>game of life based sequencer</t>
+          <t>a norns cyberdeck tracker</t>
         </is>
       </c>
       <c r="E333" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B0t-nJsBTV2/</t>
+          <t>https://www.youtube.com/watch?v=8ac2qw9gmaw</t>
         </is>
       </c>
       <c r="F333" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/zellen/21107</t>
+          <t>https://llllllll.co/t/yggdrasil/38040</t>
         </is>
       </c>
       <c r="G333" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/sarweiler/zellen</t>
+          <t>https://github.com/northern-information/yggdrasil</t>
         </is>
       </c>
       <c r="H333" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/zellen</t>
+          <t>https://norns.community/yggdrasil</t>
         </is>
       </c>
       <c r="I333" s="2" t="inlineStr">
@@ -17850,63 +17842,120 @@
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="inlineStr"/>
+          <t>2022-06-26</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="inlineStr">
+        <is>
+          <t>Discussion URL</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
+          <t>zellen</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>sbaio</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="inlineStr">
+        <is>
+          <t>sequencer, grid</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="inlineStr">
+        <is>
+          <t>game of life based sequencer</t>
+        </is>
+      </c>
+      <c r="E334" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/B0t-nJsBTV2/</t>
+        </is>
+      </c>
+      <c r="F334" s="3" t="inlineStr">
+        <is>
+          <t>https://llllllll.co/t/zellen/21107</t>
+        </is>
+      </c>
+      <c r="G334" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/sarweiler/zellen</t>
+        </is>
+      </c>
+      <c r="H334" s="3" t="inlineStr">
+        <is>
+          <t>https://norns.community/zellen</t>
+        </is>
+      </c>
+      <c r="I334" s="2" t="inlineStr">
+        <is>
+          <t>No Conflict</t>
+        </is>
+      </c>
+      <c r="J334" s="2" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="K334" s="2" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="inlineStr">
+        <is>
           <t>zxcvbn</t>
         </is>
       </c>
-      <c r="B334" s="2" t="inlineStr">
+      <c r="B335" s="2" t="inlineStr">
         <is>
           <t>infinitedigits</t>
         </is>
       </c>
-      <c r="C334" s="2" t="inlineStr">
+      <c r="C335" s="2" t="inlineStr">
         <is>
           <t>sequencer, tracker, keyboard, midi, crow</t>
         </is>
       </c>
-      <c r="D334" s="2" t="inlineStr">
+      <c r="D335" s="2" t="inlineStr">
         <is>
           <t>a tracker</t>
         </is>
       </c>
-      <c r="E334" s="3" t="inlineStr">
+      <c r="E335" s="3" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=6W9oiyR2XD8</t>
         </is>
       </c>
-      <c r="F334" s="3" t="inlineStr">
+      <c r="F335" s="3" t="inlineStr">
         <is>
           <t>https://llllllll.co/t/zxcvbn/59289</t>
         </is>
       </c>
-      <c r="G334" s="3" t="inlineStr">
+      <c r="G335" s="3" t="inlineStr">
         <is>
           <t>https://github.com/schollz/zxcvbn</t>
         </is>
       </c>
-      <c r="H334" s="3" t="inlineStr">
+      <c r="H335" s="3" t="inlineStr">
         <is>
           <t>https://norns.community/zxcvbn</t>
         </is>
       </c>
-      <c r="I334" s="2" t="inlineStr">
+      <c r="I335" s="2" t="inlineStr">
         <is>
           <t>No Conflict</t>
         </is>
       </c>
-      <c r="J334" s="2" t="inlineStr">
+      <c r="J335" s="2" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
-      <c r="K334" s="2" t="inlineStr"/>
+      <c r="K335" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19053,118 +19102,121 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F306" r:id="rId1141"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G306" r:id="rId1142"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H306" r:id="rId1143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E307" r:id="rId1144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F307" r:id="rId1145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G307" r:id="rId1146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H307" r:id="rId1147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F307" r:id="rId1144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G307" r:id="rId1145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H307" r:id="rId1146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId1147"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F308" r:id="rId1148"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G308" r:id="rId1149"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H308" r:id="rId1150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId1151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F309" r:id="rId1152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G309" r:id="rId1153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H309" r:id="rId1154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId1155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F310" r:id="rId1156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G310" r:id="rId1157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H310" r:id="rId1158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId1159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F311" r:id="rId1160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G311" r:id="rId1161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H311" r:id="rId1162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId1163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F312" r:id="rId1164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G312" r:id="rId1165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H312" r:id="rId1166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId1167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F313" r:id="rId1168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G313" r:id="rId1169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H313" r:id="rId1170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E314" r:id="rId1171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F314" r:id="rId1172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G314" r:id="rId1173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H314" r:id="rId1174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F309" r:id="rId1151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G309" r:id="rId1152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H309" r:id="rId1153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId1154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F310" r:id="rId1155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G310" r:id="rId1156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H310" r:id="rId1157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E311" r:id="rId1158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F311" r:id="rId1159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G311" r:id="rId1160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H311" r:id="rId1161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E312" r:id="rId1162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F312" r:id="rId1163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G312" r:id="rId1164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H312" r:id="rId1165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E313" r:id="rId1166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F313" r:id="rId1167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G313" r:id="rId1168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H313" r:id="rId1169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E314" r:id="rId1170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F314" r:id="rId1171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G314" r:id="rId1172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H314" r:id="rId1173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E315" r:id="rId1174"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F315" r:id="rId1175"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G315" r:id="rId1176"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H315" r:id="rId1177"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId1178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F316" r:id="rId1179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G316" r:id="rId1180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H316" r:id="rId1181"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId1182"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F317" r:id="rId1183"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G317" r:id="rId1184"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H317" r:id="rId1185"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId1186"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F318" r:id="rId1187"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G318" r:id="rId1188"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H318" r:id="rId1189"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId1190"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F319" r:id="rId1191"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G319" r:id="rId1192"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H319" r:id="rId1193"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E320" r:id="rId1194"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F320" r:id="rId1195"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G320" r:id="rId1196"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H320" r:id="rId1197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F316" r:id="rId1178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G316" r:id="rId1179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H316" r:id="rId1180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId1181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F317" r:id="rId1182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G317" r:id="rId1183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H317" r:id="rId1184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E318" r:id="rId1185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F318" r:id="rId1186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G318" r:id="rId1187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H318" r:id="rId1188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E319" r:id="rId1189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F319" r:id="rId1190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G319" r:id="rId1191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H319" r:id="rId1192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E320" r:id="rId1193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F320" r:id="rId1194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G320" r:id="rId1195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H320" r:id="rId1196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E321" r:id="rId1197"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F321" r:id="rId1198"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G321" r:id="rId1199"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H321" r:id="rId1200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId1201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F322" r:id="rId1202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G322" r:id="rId1203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H322" r:id="rId1204"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E323" r:id="rId1205"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F323" r:id="rId1206"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G323" r:id="rId1207"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H323" r:id="rId1208"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId1209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F324" r:id="rId1210"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G324" r:id="rId1211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H324" r:id="rId1212"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E325" r:id="rId1213"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F325" r:id="rId1214"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G325" r:id="rId1215"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H325" r:id="rId1216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F322" r:id="rId1201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G322" r:id="rId1202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H322" r:id="rId1203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E323" r:id="rId1204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F323" r:id="rId1205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G323" r:id="rId1206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H323" r:id="rId1207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E324" r:id="rId1208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F324" r:id="rId1209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G324" r:id="rId1210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H324" r:id="rId1211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E325" r:id="rId1212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F325" r:id="rId1213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G325" r:id="rId1214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H325" r:id="rId1215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E326" r:id="rId1216"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F326" r:id="rId1217"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G326" r:id="rId1218"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H326" r:id="rId1219"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E327" r:id="rId1220"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F327" r:id="rId1221"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G327" r:id="rId1222"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H327" r:id="rId1223"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E328" r:id="rId1224"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F328" r:id="rId1225"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G328" r:id="rId1226"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H328" r:id="rId1227"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E329" r:id="rId1228"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F329" r:id="rId1229"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G329" r:id="rId1230"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H329" r:id="rId1231"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E330" r:id="rId1232"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F330" r:id="rId1233"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G330" r:id="rId1234"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H330" r:id="rId1235"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E331" r:id="rId1236"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F331" r:id="rId1237"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G331" r:id="rId1238"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H331" r:id="rId1239"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E332" r:id="rId1240"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F332" r:id="rId1241"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G332" r:id="rId1242"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H332" r:id="rId1243"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E333" r:id="rId1244"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F333" r:id="rId1245"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G333" r:id="rId1246"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H333" r:id="rId1247"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E334" r:id="rId1248"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F334" r:id="rId1249"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G334" r:id="rId1250"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H334" r:id="rId1251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F327" r:id="rId1220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G327" r:id="rId1221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H327" r:id="rId1222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E328" r:id="rId1223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F328" r:id="rId1224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G328" r:id="rId1225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H328" r:id="rId1226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E329" r:id="rId1227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F329" r:id="rId1228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G329" r:id="rId1229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H329" r:id="rId1230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E330" r:id="rId1231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F330" r:id="rId1232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G330" r:id="rId1233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H330" r:id="rId1234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E331" r:id="rId1235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F331" r:id="rId1236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G331" r:id="rId1237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H331" r:id="rId1238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E332" r:id="rId1239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F332" r:id="rId1240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G332" r:id="rId1241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H332" r:id="rId1242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E333" r:id="rId1243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F333" r:id="rId1244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G333" r:id="rId1245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H333" r:id="rId1246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E334" r:id="rId1247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F334" r:id="rId1248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G334" r:id="rId1249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H334" r:id="rId1250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E335" r:id="rId1251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F335" r:id="rId1252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G335" r:id="rId1253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H335" r:id="rId1254"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1252"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1255"/>
   </tableParts>
 </worksheet>
 </file>
--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -16476,7 +16476,7 @@
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -14592,7 +14592,7 @@
       <c r="I271" s="2" t="inlineStr"/>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="K271" s="2" t="inlineStr">

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -7508,7 +7508,7 @@
       <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
@@ -14592,7 +14592,7 @@
       <c r="I271" s="2" t="inlineStr"/>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="K271" s="2" t="inlineStr">

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -14592,7 +14592,7 @@
       <c r="I271" s="2" t="inlineStr"/>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="K271" s="2" t="inlineStr">

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -5269,7 +5269,7 @@
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -5269,7 +5269,7 @@
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr"/>
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -5269,7 +5269,7 @@
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -16476,7 +16476,7 @@
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -16476,7 +16476,7 @@
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -4845,7 +4845,7 @@
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>2023-06-07</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr"/>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17210,7 +17210,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -14643,11 +14643,7 @@
           <t>Missing Demo</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>2023-06-18</t>
-        </is>
-      </c>
+      <c r="J272" s="2" t="inlineStr"/>
       <c r="K272" s="2" t="inlineStr"/>
     </row>
     <row r="273">
@@ -17210,7 +17206,7 @@
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -12618,7 +12618,7 @@
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="K233" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -16472,7 +16472,7 @@
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NornsScripts" displayName="NornsScripts" ref="A1:K335" headerRowCount="1">
-  <autoFilter ref="A1:K335"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NornsScripts" displayName="NornsScripts" ref="A1:K336" headerRowCount="1">
+  <autoFilter ref="A1:K336"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Author"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K335"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="J98" s="2" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr"/>
@@ -13209,48 +13209,52 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>ppm_norns</t>
+          <t>postskript</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>duncangeere</t>
+          <t>imminent_gloom</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>art, drone, crow</t>
+          <t>sampler, arc</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>parts per million</t>
-        </is>
-      </c>
-      <c r="E245" s="2" t="inlineStr"/>
+          <t>sampler for arc and norns</t>
+        </is>
+      </c>
+      <c r="E245" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Y5IK7cSAQJ8</t>
+        </is>
+      </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/ppm/54589</t>
+          <t>https://llllllll.co/t/postskript</t>
         </is>
       </c>
       <c r="G245" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/loudnumbers/ppm_norns</t>
+          <t>https://github.com/imminentgloom/postskript</t>
         </is>
       </c>
       <c r="H245" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/ppm_norns</t>
+          <t>https://norns.community/postskript</t>
         </is>
       </c>
       <c r="I245" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J245" s="2" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="K245" s="2" t="inlineStr"/>
@@ -13258,52 +13262,48 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>punchcard</t>
+          <t>ppm_norns</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>neauoire</t>
+          <t>duncangeere</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>art, drone, crow</t>
         </is>
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>an experimental sequencer that works a bit like the classic punchcard computer</t>
-        </is>
-      </c>
-      <c r="E246" s="3" t="inlineStr">
-        <is>
-          <t>https://youtu.be/jZUtkNuEDqY</t>
-        </is>
-      </c>
+          <t>parts per million</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="inlineStr"/>
       <c r="F246" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/23557</t>
+          <t>https://llllllll.co/t/ppm/54589</t>
         </is>
       </c>
       <c r="G246" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/neauoire/punchcard</t>
+          <t>https://github.com/loudnumbers/ppm_norns</t>
         </is>
       </c>
       <c r="H246" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/punchcard</t>
+          <t>https://norns.community/ppm_norns</t>
         </is>
       </c>
       <c r="I246" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J246" s="2" t="inlineStr">
         <is>
-          <t>2019-07-01</t>
+          <t>2023-05-21</t>
         </is>
       </c>
       <c r="K246" s="2" t="inlineStr"/>
@@ -13311,52 +13311,52 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>qfwfq</t>
+          <t>punchcard</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>notester</t>
+          <t>neauoire</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>sequencer, generative, midi</t>
+          <t>sequencer, grid</t>
         </is>
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>A brute-force password hack inspired sequencer.</t>
+          <t>an experimental sequencer that works a bit like the classic punchcard computer</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/shorts/JbNxznmMTfk</t>
+          <t>https://youtu.be/jZUtkNuEDqY</t>
         </is>
       </c>
       <c r="F247" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/qfwfq</t>
+          <t>https://llllllll.co/t/23557</t>
         </is>
       </c>
       <c r="G247" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cachilders/qfwfq</t>
+          <t>https://github.com/neauoire/punchcard</t>
         </is>
       </c>
       <c r="H247" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/qfwfq</t>
+          <t>https://norns.community/punchcard</t>
         </is>
       </c>
       <c r="I247" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J247" s="2" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>2019-07-01</t>
         </is>
       </c>
       <c r="K247" s="2" t="inlineStr"/>
@@ -13364,52 +13364,52 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>quence</t>
+          <t>qfwfq</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>RobSchoen</t>
+          <t>notester</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>sequencer, generative, grid, crow, midi</t>
+          <t>sequencer, generative, midi</t>
         </is>
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>probabilistic 4-track sequencer</t>
+          <t>A brute-force password hack inspired sequencer.</t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CVbdWnWA9UM</t>
+          <t>https://www.youtube.com/shorts/JbNxznmMTfk</t>
         </is>
       </c>
       <c r="F248" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/quence/29436</t>
+          <t>https://llllllll.co/t/qfwfq</t>
         </is>
       </c>
       <c r="G248" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/millxing/QUENCE</t>
+          <t>https://github.com/cachilders/qfwfq</t>
         </is>
       </c>
       <c r="H248" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/quence</t>
+          <t>https://norns.community/qfwfq</t>
         </is>
       </c>
       <c r="I248" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="K248" s="2" t="inlineStr"/>
@@ -13417,150 +13417,154 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>quence</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>jah</t>
+          <t>RobSchoen</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>lib</t>
+          <t>sequencer, generative, grid, crow, midi</t>
         </is>
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>general purpose audio patching engine</t>
-        </is>
-      </c>
-      <c r="E249" s="2" t="inlineStr"/>
-      <c r="F249" s="2" t="inlineStr"/>
+          <t>probabilistic 4-track sequencer</t>
+        </is>
+      </c>
+      <c r="E249" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CVbdWnWA9UM</t>
+        </is>
+      </c>
+      <c r="F249" s="3" t="inlineStr">
+        <is>
+          <t>https://llllllll.co/t/quence/29436</t>
+        </is>
+      </c>
       <c r="G249" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/antonhornquist/r</t>
+          <t>https://github.com/millxing/QUENCE</t>
         </is>
       </c>
       <c r="H249" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/r</t>
+          <t>https://norns.community/quence</t>
         </is>
       </c>
       <c r="I249" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>rachim</t>
+          <t>r</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>jah</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>generative, sequencer, drone</t>
+          <t>lib</t>
         </is>
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>a five-piece orchestra sequence synthesizer</t>
-        </is>
-      </c>
-      <c r="E250" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=p_OTXsPqMhU</t>
-        </is>
-      </c>
-      <c r="F250" s="3" t="inlineStr">
-        <is>
-          <t>https://llllllll.co/t/rachim/66632</t>
-        </is>
-      </c>
+          <t>general purpose audio patching engine</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="inlineStr"/>
+      <c r="F250" s="2" t="inlineStr"/>
       <c r="G250" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/rachim</t>
+          <t>https://github.com/antonhornquist/r</t>
         </is>
       </c>
       <c r="H250" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rachim</t>
+          <t>https://norns.community/r</t>
         </is>
       </c>
       <c r="I250" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="inlineStr"/>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>raft</t>
+          <t>rachim</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>toomanatees</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>delay, audio_fx</t>
+          <t>generative, sequencer, drone</t>
         </is>
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>a scene-setting, softcut-based modulated delay and noise generator</t>
-        </is>
-      </c>
-      <c r="E251" s="2" t="inlineStr"/>
+          <t>a five-piece orchestra sequence synthesizer</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=p_OTXsPqMhU</t>
+        </is>
+      </c>
       <c r="F251" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/raft</t>
+          <t>https://llllllll.co/t/rachim/66632</t>
         </is>
       </c>
       <c r="G251" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/timothy-taylor/raft</t>
+          <t>https://github.com/schollz/rachim</t>
         </is>
       </c>
       <c r="H251" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/raft</t>
+          <t>https://norns.community/rachim</t>
         </is>
       </c>
       <c r="I251" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="K251" s="2" t="inlineStr"/>
@@ -13568,52 +13572,48 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>raindrops</t>
+          <t>raft</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>ambalek</t>
+          <t>toomanatees</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>sequencer, generative, synth, midi</t>
+          <t>delay, audio_fx</t>
         </is>
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>generative melodies complete with lo-fi effects</t>
-        </is>
-      </c>
-      <c r="E252" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=DD7XTDHkd2s</t>
-        </is>
-      </c>
+          <t>a scene-setting, softcut-based modulated delay and noise generator</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="inlineStr"/>
       <c r="F252" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/raindrops-simple-generative-synth-sequencer/47633</t>
+          <t>https://llllllll.co/t/raft</t>
         </is>
       </c>
       <c r="G252" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ambalek/raindrops</t>
+          <t>https://github.com/timothy-taylor/raft</t>
         </is>
       </c>
       <c r="H252" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/raindrops</t>
+          <t>https://norns.community/raft</t>
         </is>
       </c>
       <c r="I252" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="K252" s="2" t="inlineStr"/>
@@ -13621,52 +13621,52 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>randomizer_typhon</t>
+          <t>raindrops</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>DanielGorgan</t>
+          <t>ambalek</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>sequencer, generative, synth, midi</t>
         </is>
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>Randomizer for Dreadbox Typhon</t>
+          <t>generative melodies complete with lo-fi effects</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hD-t4onIJbk</t>
+          <t>https://www.youtube.com/watch?v=DD7XTDHkd2s</t>
         </is>
       </c>
       <c r="F253" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/randomizer-typhon/54196</t>
+          <t>https://llllllll.co/t/raindrops-simple-generative-synth-sequencer/47633</t>
         </is>
       </c>
       <c r="G253" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/danut007ro/randomizer_typhon</t>
+          <t>https://github.com/ambalek/raindrops</t>
         </is>
       </c>
       <c r="H253" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/randomizer_typhon</t>
+          <t>https://norns.community/raindrops</t>
         </is>
       </c>
       <c r="I253" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="K253" s="2" t="inlineStr"/>
@@ -13674,42 +13674,42 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>rangl</t>
+          <t>randomizer_typhon</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>tgk</t>
+          <t>DanielGorgan</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>sampler, granulator, arc</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>arc based granular four track sampler with live recording and friction.</t>
+          <t>Randomizer for Dreadbox Typhon</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/545457820</t>
+          <t>https://www.youtube.com/watch?v=hD-t4onIJbk</t>
         </is>
       </c>
       <c r="F254" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/rangl/44673</t>
+          <t>https://llllllll.co/t/randomizer-typhon/54196</t>
         </is>
       </c>
       <c r="G254" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tgk/rangl</t>
+          <t>https://github.com/danut007ro/randomizer_typhon</t>
         </is>
       </c>
       <c r="H254" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rangl</t>
+          <t>https://norns.community/randomizer_typhon</t>
         </is>
       </c>
       <c r="I254" s="2" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="K254" s="2" t="inlineStr"/>
@@ -13727,52 +13727,52 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>rebound</t>
+          <t>rangl</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>enneff</t>
+          <t>tgk</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>sampler, granulator, arc</t>
         </is>
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>a kinetic sequencer</t>
+          <t>arc based granular four track sampler with live recording and friction.</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/BmSiQgrAhRg/</t>
+          <t>https://vimeo.com/545457820</t>
         </is>
       </c>
       <c r="F255" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/23243</t>
+          <t>https://llllllll.co/t/rangl/44673</t>
         </is>
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/nf/rebound</t>
+          <t>https://github.com/tgk/rangl</t>
         </is>
       </c>
       <c r="H255" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rebound</t>
+          <t>https://norns.community/rangl</t>
         </is>
       </c>
       <c r="I255" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>2020-06-21</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="K255" s="2" t="inlineStr"/>
@@ -13780,52 +13780,52 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>reels</t>
+          <t>rebound</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>its_your_bedtime</t>
+          <t>enneff</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>looper, delay</t>
+          <t>sequencer</t>
         </is>
       </c>
       <c r="D256" s="2" t="inlineStr">
         <is>
-          <t>a 4-track asynchronous looper, inspired by op-1 tape recorder and mannequins w/ eurorack module.</t>
+          <t>a kinetic sequencer</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=3XKruCUB1PM</t>
+          <t>https://www.instagram.com/p/BmSiQgrAhRg/</t>
         </is>
       </c>
       <c r="F256" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21030</t>
+          <t>https://llllllll.co/t/23243</t>
         </is>
       </c>
       <c r="G256" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/itsyourbedtime/reels</t>
+          <t>https://github.com/nf/rebound</t>
         </is>
       </c>
       <c r="H256" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/reels</t>
+          <t>https://norns.community/rebound</t>
         </is>
       </c>
       <c r="I256" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>2020-11-16</t>
+          <t>2020-06-21</t>
         </is>
       </c>
       <c r="K256" s="2" t="inlineStr"/>
@@ -13833,150 +13833,150 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>repeater</t>
+          <t>reels</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>spoitras</t>
+          <t>its_your_bedtime</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>delay, looper, texture, engine</t>
+          <t>looper, delay</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>textural delay orchestra with multiple tempo-synced lines. port of the original by Bryant Smith.</t>
-        </is>
-      </c>
-      <c r="E257" s="2" t="inlineStr"/>
-      <c r="F257" s="2" t="inlineStr"/>
+          <t>a 4-track asynchronous looper, inspired by op-1 tape recorder and mannequins w/ eurorack module.</t>
+        </is>
+      </c>
+      <c r="E257" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3XKruCUB1PM</t>
+        </is>
+      </c>
+      <c r="F257" s="3" t="inlineStr">
+        <is>
+          <t>https://llllllll.co/t/21030</t>
+        </is>
+      </c>
       <c r="G257" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/spoitras/repeater</t>
+          <t>https://github.com/itsyourbedtime/reels</t>
         </is>
       </c>
       <c r="H257" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/repeater</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="inlineStr"/>
+          <t>https://norns.community/reels</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="inlineStr">
+        <is>
+          <t>Extract Preferred</t>
+        </is>
+      </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
+          <t>2020-11-16</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>repl-looper</t>
+          <t>repeater</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>awwaiid</t>
+          <t>spoitras</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>sequencer, looper, grid, keyboard</t>
+          <t>delay, looper, texture, engine</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>mash of REPL and looper; a live performance code sequencer</t>
-        </is>
-      </c>
-      <c r="E258" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=FPE5DOlScIY</t>
-        </is>
-      </c>
-      <c r="F258" s="3" t="inlineStr">
-        <is>
-          <t>https://llllllll.co/t/51485</t>
-        </is>
-      </c>
+          <t>textural delay orchestra with multiple tempo-synced lines. port of the original by Bryant Smith.</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="inlineStr"/>
+      <c r="F258" s="2" t="inlineStr"/>
       <c r="G258" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/awwaiid/repl-looper</t>
+          <t>https://github.com/spoitras/repeater</t>
         </is>
       </c>
       <c r="H258" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/repl-looper</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="inlineStr">
-        <is>
-          <t>No Conflict</t>
-        </is>
-      </c>
+          <t>https://norns.community/repeater</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="inlineStr"/>
       <c r="J258" s="2" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="inlineStr"/>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>ribbons</t>
+          <t>repl-looper</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>tehn</t>
+          <t>awwaiid</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>sequencer, arc</t>
+          <t>sequencer, looper, grid, keyboard</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>folded euclidean arpeggiator</t>
+          <t>mash of REPL and looper; a live performance code sequencer</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/1099770303</t>
+          <t>https://www.youtube.com/watch?v=FPE5DOlScIY</t>
         </is>
       </c>
       <c r="F259" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/ribbons/72521</t>
+          <t>https://llllllll.co/t/51485</t>
         </is>
       </c>
       <c r="G259" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tehn/ribbons</t>
+          <t>https://github.com/awwaiid/repl-looper</t>
         </is>
       </c>
       <c r="H259" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/ribbons</t>
+          <t>https://norns.community/repl-looper</t>
         </is>
       </c>
       <c r="I259" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J259" s="2" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="K259" s="2" t="inlineStr"/>
@@ -13984,52 +13984,52 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>rpls</t>
+          <t>ribbons</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>andrew</t>
+          <t>tehn</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>delay, looper</t>
+          <t>sequencer, arc</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>varispeed multitap echo</t>
+          <t>folded euclidean arpeggiator</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=AUcsdTWoAys</t>
+          <t>https://vimeo.com/1099770303</t>
         </is>
       </c>
       <c r="F260" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/rpls/</t>
+          <t>https://llllllll.co/t/ribbons/72521</t>
         </is>
       </c>
       <c r="G260" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/andr-ew/rpls/releases/download/latest/complete-source-code.zip</t>
+          <t>https://github.com/tehn/ribbons</t>
         </is>
       </c>
       <c r="H260" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rpls</t>
+          <t>https://norns.community/ribbons</t>
         </is>
       </c>
       <c r="I260" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="K260" s="2" t="inlineStr"/>
@@ -14037,42 +14037,42 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>rpmate</t>
+          <t>rpls</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>eigen</t>
+          <t>andrew</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>utility, sampler</t>
+          <t>delay, looper</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>record a sound an play it back at various RPM ratios</t>
+          <t>varispeed multitap echo</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=K7_9-ymumd4</t>
+          <t>https://www.youtube.com/watch?v=AUcsdTWoAys</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/38542</t>
+          <t>https://llllllll.co/t/rpls/</t>
         </is>
       </c>
       <c r="G261" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/p3r7/rpmate</t>
+          <t>https://github.com/andr-ew/rpls/releases/download/latest/complete-source-code.zip</t>
         </is>
       </c>
       <c r="H261" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rpmate</t>
+          <t>https://norns.community/rpls</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="J261" s="2" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="K261" s="2" t="inlineStr"/>
@@ -14090,42 +14090,42 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>rudiments</t>
+          <t>rpmate</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>eigen</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>sequencer, drum</t>
+          <t>utility, sampler</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>an 8 voice lofi percussion synthesizer and sequencer</t>
+          <t>record a sound an play it back at various RPM ratios</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hvPSVOyGsYg</t>
+          <t>https://www.youtube.com/watch?v=K7_9-ymumd4</t>
         </is>
       </c>
       <c r="F262" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/31828</t>
+          <t>https://llllllll.co/t/38542</t>
         </is>
       </c>
       <c r="G262" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/rudiments</t>
+          <t>https://github.com/p3r7/rpmate</t>
         </is>
       </c>
       <c r="H262" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/rudiments</t>
+          <t>https://norns.community/rpmate</t>
         </is>
       </c>
       <c r="I262" s="2" t="inlineStr">
@@ -14135,7 +14135,7 @@
       </c>
       <c r="J262" s="2" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="K262" s="2" t="inlineStr"/>
@@ -14143,48 +14143,52 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>sam</t>
+          <t>rudiments</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>sampler, utility</t>
+          <t>sequencer, drum</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>a simple sample recorder/slicer</t>
-        </is>
-      </c>
-      <c r="E263" s="2" t="inlineStr"/>
+          <t>an 8 voice lofi percussion synthesizer and sequencer</t>
+        </is>
+      </c>
+      <c r="E263" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=hvPSVOyGsYg</t>
+        </is>
+      </c>
       <c r="F263" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/23943</t>
+          <t>https://llllllll.co/t/31828</t>
         </is>
       </c>
       <c r="G263" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/sam</t>
+          <t>https://github.com/cfdrake/rudiments</t>
         </is>
       </c>
       <c r="H263" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sam</t>
+          <t>https://norns.community/rudiments</t>
         </is>
       </c>
       <c r="I263" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J263" s="2" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="K263" s="2" t="inlineStr"/>
@@ -14192,52 +14196,48 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>sampswap</t>
+          <t>sam</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>sampler</t>
+          <t>sampler, utility</t>
         </is>
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>swap samples within loops</t>
-        </is>
-      </c>
-      <c r="E264" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/688648344</t>
-        </is>
-      </c>
+          <t>a simple sample recorder/slicer</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="inlineStr"/>
       <c r="F264" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/sampswap/53719</t>
+          <t>https://llllllll.co/t/23943</t>
         </is>
       </c>
       <c r="G264" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/sampswap</t>
+          <t>https://github.com/justmat/sam</t>
         </is>
       </c>
       <c r="H264" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sampswap</t>
+          <t>https://norns.community/sam</t>
         </is>
       </c>
       <c r="I264" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J264" s="2" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="K264" s="2" t="inlineStr"/>
@@ -14245,52 +14245,52 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>samsara</t>
+          <t>sampswap</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>21echoes</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>looper, delay</t>
+          <t>sampler</t>
         </is>
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>a minimalist clock-synced looper</t>
+          <t>swap samples within loops</t>
         </is>
       </c>
       <c r="E265" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Vkt7b72l1Cg</t>
+          <t>https://vimeo.com/688648344</t>
         </is>
       </c>
       <c r="F265" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/34095</t>
+          <t>https://llllllll.co/t/sampswap/53719</t>
         </is>
       </c>
       <c r="G265" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/21echoes/samsara</t>
+          <t>https://github.com/schollz/sampswap</t>
         </is>
       </c>
       <c r="H265" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/samsara</t>
+          <t>https://norns.community/sampswap</t>
         </is>
       </c>
       <c r="I265" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J265" s="2" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="K265" s="2" t="inlineStr"/>
@@ -14298,52 +14298,52 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>samthree</t>
+          <t>samsara</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>ooray</t>
+          <t>21echoes</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>looper, sampler, happyaccident</t>
+          <t>looper, delay</t>
         </is>
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>3 voice looper based on samsara</t>
+          <t>a minimalist clock-synced looper</t>
         </is>
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>https://youtu.be/c6nqTYF_J-k</t>
+          <t>https://www.youtube.com/watch?v=Vkt7b72l1Cg</t>
         </is>
       </c>
       <c r="F266" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/samthree-three-voice-pitched-looper/60482</t>
+          <t>https://llllllll.co/t/34095</t>
         </is>
       </c>
       <c r="G266" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/laderast/samthree</t>
+          <t>https://github.com/21echoes/samsara</t>
         </is>
       </c>
       <c r="H266" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/samthree</t>
+          <t>https://norns.community/samsara</t>
         </is>
       </c>
       <c r="I266" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J266" s="2" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="K266" s="2" t="inlineStr"/>
@@ -14351,52 +14351,52 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>schicksalslied</t>
+          <t>samthree</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>ooray</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
+          <t>looper, sampler, happyaccident</t>
         </is>
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>a poetry sequencer</t>
+          <t>3 voice looper based on samsara</t>
         </is>
       </c>
       <c r="E267" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ngVAAIWE_Io</t>
+          <t>https://youtu.be/c6nqTYF_J-k</t>
         </is>
       </c>
       <c r="F267" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/schicksalslied/59227</t>
+          <t>https://llllllll.co/t/samthree-three-voice-pitched-looper/60482</t>
         </is>
       </c>
       <c r="G267" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/schicksalslied</t>
+          <t>https://github.com/laderast/samthree</t>
         </is>
       </c>
       <c r="H267" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/schicksalslied</t>
+          <t>https://norns.community/samthree</t>
         </is>
       </c>
       <c r="I267" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J267" s="2" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="K267" s="2" t="inlineStr"/>
@@ -14404,52 +14404,52 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>scholastic</t>
+          <t>schicksalslied</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>adamstaff</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>norns, sequencer, nb, midi</t>
+          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
         </is>
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>multitrack polyrhythmic sequencer</t>
+          <t>a poetry sequencer</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vvl44pg3hMM</t>
+          <t>https://www.youtube.com/watch?v=ngVAAIWE_Io</t>
         </is>
       </c>
       <c r="F268" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/scholastic-multitrack-polyrhythmic-sequencer/64232</t>
+          <t>https://llllllll.co/t/schicksalslied/59227</t>
         </is>
       </c>
       <c r="G268" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/adamstaff/scholastic</t>
+          <t>https://github.com/williamthazard/schicksalslied</t>
         </is>
       </c>
       <c r="H268" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/scholastic</t>
+          <t>https://norns.community/schicksalslied</t>
         </is>
       </c>
       <c r="I268" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J268" s="2" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="K268" s="2" t="inlineStr"/>
@@ -14457,42 +14457,42 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>scryingstone</t>
+          <t>scholastic</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>adamstaff</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>norns, noise, art, drone</t>
+          <t>norns, sequencer, nb, midi</t>
         </is>
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>scrying stone for monome norns</t>
+          <t>multitrack polyrhythmic sequencer</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_go_5QtmvL8</t>
+          <t>https://www.youtube.com/watch?v=vvl44pg3hMM</t>
         </is>
       </c>
       <c r="F269" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/scryingstone-norns/70778</t>
+          <t>https://llllllll.co/t/scholastic-multitrack-polyrhythmic-sequencer/64232</t>
         </is>
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/scryingstone</t>
+          <t>https://github.com/adamstaff/scholastic</t>
         </is>
       </c>
       <c r="H269" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/scryingstone</t>
+          <t>https://norns.community/scholastic</t>
         </is>
       </c>
       <c r="I269" s="2" t="inlineStr">
@@ -14502,7 +14502,7 @@
       </c>
       <c r="J269" s="2" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="K269" s="2" t="inlineStr"/>
@@ -14510,48 +14510,52 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>seaflex</t>
+          <t>scryingstone</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>lylem</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>utility, grid</t>
+          <t>norns, noise, art, drone</t>
         </is>
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>companion app for earthsea</t>
-        </is>
-      </c>
-      <c r="E270" s="2" t="inlineStr"/>
+          <t>scrying stone for monome norns</t>
+        </is>
+      </c>
+      <c r="E270" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=_go_5QtmvL8</t>
+        </is>
+      </c>
       <c r="F270" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/23209</t>
+          <t>https://llllllll.co/t/scryingstone-norns/70778</t>
         </is>
       </c>
       <c r="G270" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/lylepmills/seaflex</t>
+          <t>https://github.com/williamthazard/scryingstone</t>
         </is>
       </c>
       <c r="H270" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/seaflex</t>
+          <t>https://norns.community/scryingstone</t>
         </is>
       </c>
       <c r="I270" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J270" s="2" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="K270" s="2" t="inlineStr"/>
@@ -14559,185 +14563,181 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>seeker_ii</t>
+          <t>seaflex</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>awakeningsystems</t>
+          <t>lylem</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>grid, arc, midi, osc, crow</t>
+          <t>utility, grid</t>
         </is>
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>compositional interface for music, voltage, and video</t>
+          <t>companion app for earthsea</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
-      <c r="F271" s="2" t="inlineStr"/>
+      <c r="F271" s="3" t="inlineStr">
+        <is>
+          <t>https://llllllll.co/t/23209</t>
+        </is>
+      </c>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/brokyo/seeker_ii</t>
+          <t>https://github.com/lylepmills/seaflex</t>
         </is>
       </c>
       <c r="H271" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/seeker_ii</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="inlineStr"/>
+          <t>https://norns.community/seaflex</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="inlineStr">
+        <is>
+          <t>Missing Demo</t>
+        </is>
+      </c>
       <c r="J271" s="2" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>semiconductor</t>
+          <t>seeker_ii</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>jaseknighter</t>
+          <t>awakeningsystems</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>mod, utility</t>
+          <t>grid, arc, midi, osc, crow</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>norns ensemble mod</t>
+          <t>compositional interface for music, voltage, and video</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
-      <c r="F272" s="3" t="inlineStr">
-        <is>
-          <t>https://llllllll.co/t/62651</t>
-        </is>
-      </c>
+      <c r="F272" s="2" t="inlineStr"/>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/jaseknighter/semiconductor</t>
+          <t>https://github.com/brokyo/seeker_ii</t>
         </is>
       </c>
       <c r="H272" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/semiconductor</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="inlineStr">
-        <is>
-          <t>Missing Demo</t>
-        </is>
-      </c>
-      <c r="J272" s="2" t="inlineStr"/>
-      <c r="K272" s="2" t="inlineStr"/>
+          <t>https://norns.community/seeker_ii</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="inlineStr"/>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>sempra</t>
+          <t>semiconductor</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>zbs</t>
+          <t>jaseknighter</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, crow</t>
+          <t>mod, utility</t>
         </is>
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>continuous dynamic melody sequencer for 16n+grid</t>
-        </is>
-      </c>
-      <c r="E273" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ylj5nLv6IEg</t>
-        </is>
-      </c>
+          <t>norns ensemble mod</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="inlineStr"/>
       <c r="F273" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/54492</t>
+          <t>https://llllllll.co/t/62651</t>
         </is>
       </c>
       <c r="G273" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/zjb-s/sempra</t>
+          <t>https://github.com/jaseknighter/semiconductor</t>
         </is>
       </c>
       <c r="H273" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sempra</t>
+          <t>https://norns.community/semiconductor</t>
         </is>
       </c>
       <c r="I273" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
-        </is>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>2022-04-29</t>
-        </is>
-      </c>
+          <t>Missing Demo</t>
+        </is>
+      </c>
+      <c r="J273" s="2" t="inlineStr"/>
       <c r="K273" s="2" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>serialism</t>
+          <t>sempra</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>xmacex</t>
+          <t>zbs</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>midi</t>
+          <t>sequencer, grid, crow</t>
         </is>
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>Explore serialism in the spirit of Arnold Schönberg and others</t>
+          <t>continuous dynamic melody sequencer for 16n+grid</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>https://youtu.be/8sm3o-2cfIQ</t>
+          <t>https://www.youtube.com/watch?v=ylj5nLv6IEg</t>
         </is>
       </c>
       <c r="F274" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/serialism/68332</t>
+          <t>https://llllllll.co/t/54492</t>
         </is>
       </c>
       <c r="G274" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/xmacex/serialism</t>
+          <t>https://github.com/zjb-s/sempra</t>
         </is>
       </c>
       <c r="H274" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/serialism</t>
+          <t>https://norns.community/sempra</t>
         </is>
       </c>
       <c r="I274" s="2" t="inlineStr">
@@ -14747,7 +14747,7 @@
       </c>
       <c r="J274" s="2" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="K274" s="2" t="inlineStr"/>
@@ -14755,52 +14755,52 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>shapes</t>
+          <t>serialism</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>tyler</t>
+          <t>xmacex</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>midi</t>
         </is>
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>visuals-based modulation source for crow and midi</t>
+          <t>Explore serialism in the spirit of Arnold Schönberg and others</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8TD0vDnNUYc</t>
+          <t>https://youtu.be/8sm3o-2cfIQ</t>
         </is>
       </c>
       <c r="F275" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/36759</t>
+          <t>https://llllllll.co/t/serialism/68332</t>
         </is>
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tlubke/shapes</t>
+          <t>https://github.com/xmacex/serialism</t>
         </is>
       </c>
       <c r="H275" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shapes</t>
+          <t>https://norns.community/serialism</t>
         </is>
       </c>
       <c r="I275" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J275" s="2" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="K275" s="2" t="inlineStr"/>
@@ -14808,42 +14808,42 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>shfts</t>
+          <t>shapes</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>germinal</t>
+          <t>tyler</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>sequencer, crow, grid</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>random sequencer for norns, crow, and grid</t>
+          <t>visuals-based modulation source for crow and midi</t>
         </is>
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B3kCWYtBl_8/</t>
+          <t>https://www.youtube.com/watch?v=8TD0vDnNUYc</t>
         </is>
       </c>
       <c r="F276" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/26221</t>
+          <t>https://llllllll.co/t/36759</t>
         </is>
       </c>
       <c r="G276" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/rwhaling/shfts</t>
+          <t>https://github.com/tlubke/shapes</t>
         </is>
       </c>
       <c r="H276" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shfts</t>
+          <t>https://norns.community/shapes</t>
         </is>
       </c>
       <c r="I276" s="2" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="K276" s="2" t="inlineStr"/>
@@ -14861,48 +14861,52 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>shnthsalslied</t>
+          <t>shfts</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>germinal</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
+          <t>sequencer, crow, grid</t>
         </is>
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>fork of schicksalslied for use with shbobo shnth</t>
-        </is>
-      </c>
-      <c r="E277" s="2" t="inlineStr"/>
+          <t>random sequencer for norns, crow, and grid</t>
+        </is>
+      </c>
+      <c r="E277" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/B3kCWYtBl_8/</t>
+        </is>
+      </c>
       <c r="F277" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/shnthsalslied/59232</t>
+          <t>https://llllllll.co/t/26221</t>
         </is>
       </c>
       <c r="G277" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/shnthsalslied</t>
+          <t>https://github.com/rwhaling/shfts</t>
         </is>
       </c>
       <c r="H277" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/shnthsalslied</t>
+          <t>https://norns.community/shfts</t>
         </is>
       </c>
       <c r="I277" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J277" s="2" t="inlineStr">
         <is>
-          <t>2022-10-29</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="K277" s="2" t="inlineStr"/>
@@ -14910,52 +14914,48 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>showers</t>
+          <t>shnthsalslied</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>generative, synth, art, sequencer, keyboard, grid, crow, jf, w</t>
         </is>
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>a thunderstorm for norns</t>
-        </is>
-      </c>
-      <c r="E278" s="3" t="inlineStr">
-        <is>
-          <t>https://soundcloud.com/track/885593155</t>
-        </is>
-      </c>
+          <t>fork of schicksalslied for use with shbobo shnth</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="inlineStr"/>
       <c r="F278" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/31622</t>
+          <t>https://llllllll.co/t/shnthsalslied/59232</t>
         </is>
       </c>
       <c r="G278" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/showers</t>
+          <t>https://github.com/williamthazard/shnthsalslied</t>
         </is>
       </c>
       <c r="H278" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/showers</t>
+          <t>https://norns.community/shnthsalslied</t>
         </is>
       </c>
       <c r="I278" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J278" s="2" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="K278" s="2" t="inlineStr"/>
@@ -14963,7 +14963,7 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>silos</t>
+          <t>showers</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
@@ -14973,42 +14973,42 @@
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>granulator, audio_fx, keyboard, grid, arc</t>
+          <t>art</t>
         </is>
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t>live grains</t>
+          <t>a thunderstorm for norns</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/user-136434953/silos-2</t>
+          <t>https://soundcloud.com/track/885593155</t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/43804</t>
+          <t>https://llllllll.co/t/31622</t>
         </is>
       </c>
       <c r="G279" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/silos</t>
+          <t>https://github.com/justmat/showers</t>
         </is>
       </c>
       <c r="H279" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/silos</t>
+          <t>https://norns.community/showers</t>
         </is>
       </c>
       <c r="I279" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J279" s="2" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="K279" s="2" t="inlineStr"/>
@@ -15016,52 +15016,52 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>sines</t>
+          <t>silos</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>oootini</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>synth, drone, 16n, midi</t>
+          <t>granulator, audio_fx, keyboard, grid, arc</t>
         </is>
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>16 sine waves</t>
+          <t>live grains</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=b8WXjrjjRe8</t>
+          <t>https://soundcloud.com/user-136434953/silos-2</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/39292</t>
+          <t>https://llllllll.co/t/43804</t>
         </is>
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/aidanreilly/sines</t>
+          <t>https://github.com/justmat/silos</t>
         </is>
       </c>
       <c r="H280" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sines</t>
+          <t>https://norns.community/silos</t>
         </is>
       </c>
       <c r="I280" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J280" s="2" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="K280" s="2" t="inlineStr"/>
@@ -15069,52 +15069,52 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>skylines</t>
+          <t>sines</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>markel_m</t>
+          <t>oootini</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>synth, drone, 16n, midi</t>
         </is>
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>a sequencer inspired on the M185/Intellijel Metropolis</t>
+          <t>16 sine waves</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CH8dDmShk9Z/</t>
+          <t>https://www.youtube.com/watch?v=b8WXjrjjRe8</t>
         </is>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/skylines/38856</t>
+          <t>https://llllllll.co/t/39292</t>
         </is>
       </c>
       <c r="G281" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/unit-cell/skylines</t>
+          <t>https://github.com/aidanreilly/sines</t>
         </is>
       </c>
       <c r="H281" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/skylines</t>
+          <t>https://norns.community/sines</t>
         </is>
       </c>
       <c r="I281" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J281" s="2" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="K281" s="2" t="inlineStr"/>
@@ -15122,52 +15122,52 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>smash</t>
+          <t>skylines</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>markel_m</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>sequencer, drum</t>
+          <t>sequencer</t>
         </is>
       </c>
       <c r="D282" s="2" t="inlineStr">
         <is>
-          <t>sequencer for apes</t>
+          <t>a sequencer inspired on the M185/Intellijel Metropolis</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=G8dZLtmcJ60</t>
+          <t>https://www.instagram.com/p/CH8dDmShk9Z/</t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/smash/48782</t>
+          <t>https://llllllll.co/t/skylines/38856</t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryanlaws/SMASH</t>
+          <t>https://github.com/unit-cell/skylines</t>
         </is>
       </c>
       <c r="H282" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/smash</t>
+          <t>https://norns.community/skylines</t>
         </is>
       </c>
       <c r="I282" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J282" s="2" t="inlineStr">
         <is>
-          <t>2021-09-19</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="K282" s="2" t="inlineStr"/>
@@ -15175,42 +15175,42 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>spirals</t>
+          <t>smash</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>tomw</t>
+          <t>license</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>generative, sequencer, grid, midi</t>
+          <t>sequencer, drum</t>
         </is>
       </c>
       <c r="D283" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>sequencer for apes</t>
         </is>
       </c>
       <c r="E283" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5-2XTOoBuU0</t>
+          <t>https://www.youtube.com/watch?v=G8dZLtmcJ60</t>
         </is>
       </c>
       <c r="F283" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/spirals/40678</t>
+          <t>https://llllllll.co/t/smash/48782</t>
         </is>
       </c>
       <c r="G283" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/tomwaters/spirals</t>
+          <t>https://github.com/ryanlaws/SMASH</t>
         </is>
       </c>
       <c r="H283" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/spirals</t>
+          <t>https://norns.community/smash</t>
         </is>
       </c>
       <c r="I283" s="2" t="inlineStr">
@@ -15220,7 +15220,7 @@
       </c>
       <c r="J283" s="2" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2021-09-19</t>
         </is>
       </c>
       <c r="K283" s="2" t="inlineStr"/>
@@ -15228,48 +15228,52 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>splicer</t>
+          <t>spirals</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>tomw</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>eduscript</t>
+          <t>generative, sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D284" s="2" t="inlineStr">
         <is>
-          <t>an eduscript for sequins and lattice</t>
-        </is>
-      </c>
-      <c r="E284" s="2" t="inlineStr"/>
+          <t>sequencer</t>
+        </is>
+      </c>
+      <c r="E284" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5-2XTOoBuU0</t>
+        </is>
+      </c>
       <c r="F284" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/splicer</t>
+          <t>https://llllllll.co/t/spirals/40678</t>
         </is>
       </c>
       <c r="G284" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/splicer</t>
+          <t>https://github.com/tomwaters/spirals</t>
         </is>
       </c>
       <c r="H284" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/splicer</t>
+          <t>https://norns.community/spirals</t>
         </is>
       </c>
       <c r="I284" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J284" s="2" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="K284" s="2" t="inlineStr"/>
@@ -15277,52 +15281,48 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>splnkr</t>
+          <t>splicer</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>jaseknighter</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>sequencer, audio_fx, sampler, jf, crow, grid</t>
+          <t>eduscript</t>
         </is>
       </c>
       <c r="D285" s="2" t="inlineStr">
         <is>
-          <t>an amplitude and frequency tracking effects processor/sampler/sequencer</t>
-        </is>
-      </c>
-      <c r="E285" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/660537339</t>
-        </is>
-      </c>
+          <t>an eduscript for sequins and lattice</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="inlineStr"/>
       <c r="F285" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/51191</t>
+          <t>https://l.llllllll.co/splicer</t>
         </is>
       </c>
       <c r="G285" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/jaseknighter/splnkr</t>
+          <t>https://github.com/northern-information/splicer</t>
         </is>
       </c>
       <c r="H285" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/splnkr</t>
+          <t>https://norns.community/splicer</t>
         </is>
       </c>
       <c r="I285" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J285" s="2" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="K285" s="2" t="inlineStr"/>
@@ -15330,52 +15330,52 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>stack</t>
+          <t>splnkr</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>jaseknighter</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>audio_fx</t>
+          <t>sequencer, audio_fx, sampler, jf, crow, grid</t>
         </is>
       </c>
       <c r="D286" s="2" t="inlineStr">
         <is>
-          <t>a stack of 8 fixed-frequency resonant bandpass filters</t>
+          <t>an amplitude and frequency tracking effects processor/sampler/sequencer</t>
         </is>
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Zp7DKJaQs9o</t>
+          <t>https://vimeo.com/660537339</t>
         </is>
       </c>
       <c r="F286" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/35218</t>
+          <t>https://llllllll.co/t/51191</t>
         </is>
       </c>
       <c r="G286" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/stack</t>
+          <t>https://github.com/jaseknighter/splnkr</t>
         </is>
       </c>
       <c r="H286" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stack</t>
+          <t>https://norns.community/splnkr</t>
         </is>
       </c>
       <c r="I286" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J286" s="2" t="inlineStr">
         <is>
-          <t>2021-02-19</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="K286" s="2" t="inlineStr"/>
@@ -15383,48 +15383,52 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>stack</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>jah</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>sampler, sequencer</t>
+          <t>audio_fx</t>
         </is>
       </c>
       <c r="D287" s="2" t="inlineStr">
         <is>
-          <t>a simple step sequencer</t>
-        </is>
-      </c>
-      <c r="E287" s="2" t="inlineStr"/>
+          <t>a stack of 8 fixed-frequency resonant bandpass filters</t>
+        </is>
+      </c>
+      <c r="E287" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Zp7DKJaQs9o</t>
+        </is>
+      </c>
       <c r="F287" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/step/21093</t>
+          <t>https://llllllll.co/t/35218</t>
         </is>
       </c>
       <c r="G287" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/antonhornquist/step</t>
+          <t>https://github.com/cfdrake/stack</t>
         </is>
       </c>
       <c r="H287" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/step</t>
+          <t>https://norns.community/stack</t>
         </is>
       </c>
       <c r="I287" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J287" s="2" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2021-02-19</t>
         </is>
       </c>
       <c r="K287" s="2" t="inlineStr"/>
@@ -15432,52 +15436,48 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>stjörnuíþrótt</t>
+          <t>step</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>frederickk</t>
+          <t>jah</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>synth, drone, midi</t>
+          <t>sampler, sequencer</t>
         </is>
       </c>
       <c r="D288" s="2" t="inlineStr">
         <is>
-          <t>drone inspired by Moffenzeef Stargazer</t>
-        </is>
-      </c>
-      <c r="E288" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=iaO3x2EGuU0</t>
-        </is>
-      </c>
+          <t>a simple step sequencer</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="inlineStr"/>
       <c r="F288" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/33889</t>
+          <t>https://llllllll.co/t/step/21093</t>
         </is>
       </c>
       <c r="G288" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/frederickk/stjoernuithrott</t>
+          <t>https://github.com/antonhornquist/step</t>
         </is>
       </c>
       <c r="H288" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stjrnurtt</t>
+          <t>https://norns.community/step</t>
         </is>
       </c>
       <c r="I288" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J288" s="2" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="K288" s="2" t="inlineStr"/>
@@ -15485,42 +15485,42 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>streams</t>
+          <t>stjörnuíþrótt</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>sonocircuit</t>
+          <t>frederickk</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, crow, midi</t>
+          <t>synth, drone, midi</t>
         </is>
       </c>
       <c r="D289" s="2" t="inlineStr">
         <is>
-          <t>a multi play head sequencer</t>
+          <t>drone inspired by Moffenzeef Stargazer</t>
         </is>
       </c>
       <c r="E289" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pTOR4oDJ6hE</t>
+          <t>https://www.youtube.com/watch?v=iaO3x2EGuU0</t>
         </is>
       </c>
       <c r="F289" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/streams/61436</t>
+          <t>https://llllllll.co/t/33889</t>
         </is>
       </c>
       <c r="G289" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/sonocircuit/streams</t>
+          <t>https://github.com/frederickk/stjoernuithrott</t>
         </is>
       </c>
       <c r="H289" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/streams</t>
+          <t>https://norns.community/stjrnurtt</t>
         </is>
       </c>
       <c r="I289" s="2" t="inlineStr">
@@ -15530,7 +15530,7 @@
       </c>
       <c r="J289" s="2" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="K289" s="2" t="inlineStr"/>
@@ -15538,42 +15538,42 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>strides</t>
+          <t>streams</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>sonocircuit</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>sampler, sequencer, grid, midi</t>
+          <t>sequencer, grid, crow, midi</t>
         </is>
       </c>
       <c r="D290" s="2" t="inlineStr">
         <is>
-          <t>a collection of pattern recorders</t>
+          <t>a multi play head sequencer</t>
         </is>
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/328470668</t>
+          <t>https://www.youtube.com/watch?v=pTOR4oDJ6hE</t>
         </is>
       </c>
       <c r="F290" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21101</t>
+          <t>https://llllllll.co/t/streams/61436</t>
         </is>
       </c>
       <c r="G290" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/notjustmat/strides</t>
+          <t>https://github.com/sonocircuit/streams</t>
         </is>
       </c>
       <c r="H290" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/strides</t>
+          <t>https://norns.community/streams</t>
         </is>
       </c>
       <c r="I290" s="2" t="inlineStr">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="J290" s="2" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="K290" s="2" t="inlineStr"/>
@@ -15591,52 +15591,52 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>strum</t>
+          <t>strides</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>carvingcode</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>sampler, sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D291" s="2" t="inlineStr">
         <is>
-          <t>a plucky little pattern sequencer</t>
+          <t>a collection of pattern recorders</t>
         </is>
       </c>
       <c r="E291" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/328638255</t>
+          <t>https://vimeo.com/328470668</t>
         </is>
       </c>
       <c r="F291" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21025</t>
+          <t>https://llllllll.co/t/21101</t>
         </is>
       </c>
       <c r="G291" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/carvingCode/strum</t>
+          <t>https://github.com/notjustmat/strides</t>
         </is>
       </c>
       <c r="H291" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/strum</t>
+          <t>https://norns.community/strides</t>
         </is>
       </c>
       <c r="I291" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="K291" s="2" t="inlineStr"/>
@@ -15644,48 +15644,52 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>støv</t>
+          <t>strum</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>imminent_gloom</t>
+          <t>carvingcode</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>synth, arc</t>
+          <t>sequencer, grid</t>
         </is>
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>another noise synth for norns</t>
-        </is>
-      </c>
-      <c r="E292" s="2" t="inlineStr"/>
+          <t>a plucky little pattern sequencer</t>
+        </is>
+      </c>
+      <c r="E292" s="3" t="inlineStr">
+        <is>
+          <t>https://vimeo.com/328638255</t>
+        </is>
+      </c>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/stov/70821</t>
+          <t>https://llllllll.co/t/21025</t>
         </is>
       </c>
       <c r="G292" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/imminentgloom/st-v</t>
+          <t>https://github.com/carvingCode/strum</t>
         </is>
       </c>
       <c r="H292" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/stv</t>
+          <t>https://norns.community/strum</t>
         </is>
       </c>
       <c r="I292" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2019-04-06</t>
         </is>
       </c>
       <c r="K292" s="2" t="inlineStr"/>
@@ -15693,7 +15697,7 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>støy</t>
+          <t>støv</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
@@ -15703,42 +15707,38 @@
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>synth, delay, grid</t>
+          <t>synth, arc</t>
         </is>
       </c>
       <c r="D293" s="2" t="inlineStr">
         <is>
-          <t>a noise synth for norns</t>
-        </is>
-      </c>
-      <c r="E293" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ZayWqvTqd_o</t>
-        </is>
-      </c>
+          <t>another noise synth for norns</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="inlineStr"/>
       <c r="F293" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/stoy/67054</t>
+          <t>https://llllllll.co/t/stov/70821</t>
         </is>
       </c>
       <c r="G293" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/imminentgloom/st-y</t>
+          <t>https://github.com/imminentgloom/st-v</t>
         </is>
       </c>
       <c r="H293" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sty</t>
+          <t>https://norns.community/stv</t>
         </is>
       </c>
       <c r="I293" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="K293" s="2" t="inlineStr"/>
@@ -15746,52 +15746,52 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>supertonic</t>
+          <t>støy</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>imminent_gloom</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>generative, drum</t>
+          <t>synth, delay, grid</t>
         </is>
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>an introspective drum machine</t>
+          <t>a noise synth for norns</t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/557258118</t>
+          <t>https://www.youtube.com/watch?v=ZayWqvTqd_o</t>
         </is>
       </c>
       <c r="F294" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/supertonic/45551</t>
+          <t>https://llllllll.co/t/stoy/67054</t>
         </is>
       </c>
       <c r="G294" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/supertonic</t>
+          <t>https://github.com/imminentgloom/st-y</t>
         </is>
       </c>
       <c r="H294" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/supertonic</t>
+          <t>https://norns.community/sty</t>
         </is>
       </c>
       <c r="I294" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J294" s="2" t="inlineStr">
         <is>
-          <t>2021-07-03</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="K294" s="2" t="inlineStr"/>
@@ -15799,52 +15799,52 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>sway</t>
+          <t>supertonic</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>carltesta</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>generative, audio_fx</t>
+          <t>generative, drum</t>
         </is>
       </c>
       <c r="D295" s="2" t="inlineStr">
         <is>
-          <t>analysis-driven live audio processing</t>
+          <t>an introspective drum machine</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5IPCUoO0vYg</t>
+          <t>https://vimeo.com/557258118</t>
         </is>
       </c>
       <c r="F295" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/sway/21117</t>
+          <t>https://llllllll.co/t/supertonic/45551</t>
         </is>
       </c>
       <c r="G295" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/carltesta/sway</t>
+          <t>https://github.com/schollz/supertonic</t>
         </is>
       </c>
       <c r="H295" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sway</t>
+          <t>https://norns.community/supertonic</t>
         </is>
       </c>
       <c r="I295" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J295" s="2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2021-07-03</t>
         </is>
       </c>
       <c r="K295" s="2" t="inlineStr"/>
@@ -15852,48 +15852,52 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>sweet bees</t>
+          <t>sway</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>Midworld</t>
+          <t>carltesta</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>looper</t>
+          <t>generative, audio_fx</t>
         </is>
       </c>
       <c r="D296" s="2" t="inlineStr">
         <is>
-          <t>asynchronous tape looper and reverb</t>
-        </is>
-      </c>
-      <c r="E296" s="2" t="inlineStr"/>
+          <t>analysis-driven live audio processing</t>
+        </is>
+      </c>
+      <c r="E296" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5IPCUoO0vYg</t>
+        </is>
+      </c>
       <c r="F296" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/sweet-bees/49272</t>
+          <t>https://llllllll.co/t/sway/21117</t>
         </is>
       </c>
       <c r="G296" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/icerigger/sweet-bees</t>
+          <t>https://github.com/carltesta/sway</t>
         </is>
       </c>
       <c r="H296" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/sweetbees</t>
+          <t>https://norns.community/sway</t>
         </is>
       </c>
       <c r="I296" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J296" s="2" t="inlineStr">
         <is>
-          <t>2021-11-08</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="K296" s="2" t="inlineStr"/>
@@ -15901,52 +15905,48 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>synthy</t>
+          <t>sweet bees</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>Midworld</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>synth, sequencer</t>
+          <t>looper</t>
         </is>
       </c>
       <c r="D297" s="2" t="inlineStr">
         <is>
-          <t>a synthesizer critter</t>
-        </is>
-      </c>
-      <c r="E297" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/593857252</t>
-        </is>
-      </c>
+          <t>asynchronous tape looper and reverb</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="inlineStr"/>
       <c r="F297" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/synthy/48062</t>
+          <t>https://llllllll.co/t/sweet-bees/49272</t>
         </is>
       </c>
       <c r="G297" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/synthy</t>
+          <t>https://github.com/icerigger/sweet-bees</t>
         </is>
       </c>
       <c r="H297" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/synthy</t>
+          <t>https://norns.community/sweetbees</t>
         </is>
       </c>
       <c r="I297" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J297" s="2" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2021-11-08</t>
         </is>
       </c>
       <c r="K297" s="2" t="inlineStr"/>
@@ -15954,162 +15954,162 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>takt</t>
+          <t>synthy</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>its_your_bedtime</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>sequencer</t>
+          <t>synth, sequencer</t>
         </is>
       </c>
       <c r="D298" s="2" t="inlineStr">
         <is>
-          <t>parameter locking step sequencer</t>
+          <t>a synthesizer critter</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/Brm-za6FWMZ/</t>
+          <t>https://vimeo.com/593857252</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/takt/21032</t>
+          <t>https://llllllll.co/t/synthy/48062</t>
         </is>
       </c>
       <c r="G298" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/itsyourbedtime/takt</t>
+          <t>https://github.com/schollz/synthy</t>
         </is>
       </c>
       <c r="H298" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/takt</t>
+          <t>https://norns.community/synthy</t>
         </is>
       </c>
       <c r="I298" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J298" s="2" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
-        </is>
-      </c>
-      <c r="K298" s="2" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
+          <t>2021-10-20</t>
+        </is>
+      </c>
+      <c r="K298" s="2" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>tambla</t>
+          <t>takt</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>ngwese</t>
+          <t>its_your_bedtime</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>sequencer, midi, arc, grid</t>
+          <t>sequencer</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t>bending rhythmic arpeggio</t>
+          <t>parameter locking step sequencer</t>
         </is>
       </c>
       <c r="E299" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T9nk9IomwYM</t>
+          <t>https://www.instagram.com/p/Brm-za6FWMZ/</t>
         </is>
       </c>
       <c r="F299" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/37965</t>
+          <t>https://llllllll.co/t/takt/21032</t>
         </is>
       </c>
       <c r="G299" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ngwese/tambla.git</t>
+          <t>https://github.com/itsyourbedtime/takt</t>
         </is>
       </c>
       <c r="H299" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tambla</t>
+          <t>https://norns.community/takt</t>
         </is>
       </c>
       <c r="I299" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J299" s="2" t="inlineStr">
         <is>
-          <t>2021-09-08</t>
-        </is>
-      </c>
-      <c r="K299" s="2" t="inlineStr"/>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="K299" s="2" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>tapedeck</t>
+          <t>tambla</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>ngwese</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>audio_fx</t>
+          <t>sequencer, midi, arc, grid</t>
         </is>
       </c>
       <c r="D300" s="2" t="inlineStr">
         <is>
-          <t>live tape deck emulation (saturation, distortion, wow/flutter)</t>
+          <t>bending rhythmic arpeggio</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/666500841</t>
+          <t>https://www.youtube.com/watch?v=T9nk9IomwYM</t>
         </is>
       </c>
       <c r="F300" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tapedeck/51919</t>
+          <t>https://llllllll.co/t/37965</t>
         </is>
       </c>
       <c r="G300" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/tapedeck</t>
+          <t>https://github.com/ngwese/tambla.git</t>
         </is>
       </c>
       <c r="H300" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tapedeck</t>
+          <t>https://norns.community/tambla</t>
         </is>
       </c>
       <c r="I300" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J300" s="2" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2021-09-08</t>
         </is>
       </c>
       <c r="K300" s="2" t="inlineStr"/>
@@ -16117,52 +16117,52 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>taweeet</t>
+          <t>tapedeck</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>skibu</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>art, birds</t>
+          <t>audio_fx</t>
         </is>
       </c>
       <c r="D301" s="2" t="inlineStr">
         <is>
-          <t>Bird song, and lots of it. And pics, too.</t>
+          <t>live tape deck emulation (saturation, distortion, wow/flutter)</t>
         </is>
       </c>
       <c r="E301" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=yvc-pNiVl_c</t>
+          <t>https://vimeo.com/666500841</t>
         </is>
       </c>
       <c r="F301" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/69028</t>
+          <t>https://llllllll.co/t/tapedeck/51919</t>
         </is>
       </c>
       <c r="G301" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/skibu/taweeet</t>
+          <t>https://github.com/schollz/tapedeck</t>
         </is>
       </c>
       <c r="H301" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/taweeet</t>
+          <t>https://norns.community/tapedeck</t>
         </is>
       </c>
       <c r="I301" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J301" s="2" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2023-05-14</t>
         </is>
       </c>
       <c r="K301" s="2" t="inlineStr"/>
@@ -16170,42 +16170,42 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>tetra</t>
+          <t>taweeet</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>nvillar</t>
+          <t>skibu</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>synth, sequencer, grid</t>
+          <t>art, birds</t>
         </is>
       </c>
       <c r="D302" s="2" t="inlineStr">
         <is>
-          <t>use the grid to create, perform and sequence sound objects</t>
+          <t>Bird song, and lots of it. And pics, too.</t>
         </is>
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M0aHRQAvBRA</t>
+          <t>https://www.youtube.com/watch?v=yvc-pNiVl_c</t>
         </is>
       </c>
       <c r="F302" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetra/68343</t>
+          <t>https://llllllll.co/t/69028</t>
         </is>
       </c>
       <c r="G302" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/nvillar/tetra</t>
+          <t>https://github.com/skibu/taweeet</t>
         </is>
       </c>
       <c r="H302" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetra</t>
+          <t>https://norns.community/taweeet</t>
         </is>
       </c>
       <c r="I302" s="2" t="inlineStr">
@@ -16215,7 +16215,7 @@
       </c>
       <c r="J302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="K302" s="2" t="inlineStr"/>
@@ -16223,42 +16223,42 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>tetrabobo</t>
+          <t>tetra</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>WilliamHazard</t>
+          <t>nvillar</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>synth</t>
+          <t>synth, sequencer, grid</t>
         </is>
       </c>
       <c r="D303" s="2" t="inlineStr">
         <is>
-          <t>triangle wave organ with variable slope for norns &amp; shbobo shnth</t>
+          <t>use the grid to create, perform and sequence sound objects</t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/track/1391254177</t>
+          <t>https://www.youtube.com/watch?v=M0aHRQAvBRA</t>
         </is>
       </c>
       <c r="F303" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetrabobo/60112</t>
+          <t>https://llllllll.co/t/tetra/68343</t>
         </is>
       </c>
       <c r="G303" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/TetraBobo</t>
+          <t>https://github.com/nvillar/tetra</t>
         </is>
       </c>
       <c r="H303" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetrabobo</t>
+          <t>https://norns.community/tetra</t>
         </is>
       </c>
       <c r="I303" s="2" t="inlineStr">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="J303" s="2" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="K303" s="2" t="inlineStr"/>
@@ -16276,7 +16276,7 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>tetrabotis</t>
+          <t>tetrabobo</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
@@ -16291,32 +16291,32 @@
       </c>
       <c r="D304" s="2" t="inlineStr">
         <is>
-          <t>tetrabobo + otis = tetrabotis</t>
+          <t>triangle wave organ with variable slope for norns &amp; shbobo shnth</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wqTQ7xwg5CI</t>
+          <t>https://soundcloud.com/track/1391254177</t>
         </is>
       </c>
       <c r="F304" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tetrabotis/60216</t>
+          <t>https://llllllll.co/t/tetrabobo/60112</t>
         </is>
       </c>
       <c r="G304" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/williamthazard/Tetrabotis</t>
+          <t>https://github.com/williamthazard/TetraBobo</t>
         </is>
       </c>
       <c r="H304" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tetrabotis</t>
+          <t>https://norns.community/tetrabobo</t>
         </is>
       </c>
       <c r="I304" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J304" s="2" t="inlineStr">
@@ -16329,48 +16329,52 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>thebangs</t>
+          <t>tetrabotis</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>zebra</t>
+          <t>WilliamHazard</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>engine</t>
+          <t>synth</t>
         </is>
       </c>
       <c r="D305" s="2" t="inlineStr">
         <is>
-          <t>one-shot synthesis engine</t>
-        </is>
-      </c>
-      <c r="E305" s="2" t="inlineStr"/>
+          <t>tetrabobo + otis = tetrabotis</t>
+        </is>
+      </c>
+      <c r="E305" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wqTQ7xwg5CI</t>
+        </is>
+      </c>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/engine-thebangs</t>
+          <t>https://llllllll.co/t/tetrabotis/60216</t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/catfact/thebangs.git</t>
+          <t>https://github.com/williamthazard/Tetrabotis</t>
         </is>
       </c>
       <c r="H305" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/thebangs</t>
+          <t>https://norns.community/tetrabotis</t>
         </is>
       </c>
       <c r="I305" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J305" s="2" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="K305" s="2" t="inlineStr"/>
@@ -16378,52 +16382,48 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>thirtythree</t>
+          <t>thebangs</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>zebra</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>engine</t>
         </is>
       </c>
       <c r="D306" s="2" t="inlineStr">
         <is>
-          <t>sample + sequencer + splicer in the style of po-33</t>
-        </is>
-      </c>
-      <c r="E306" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/545281946</t>
-        </is>
-      </c>
+          <t>one-shot synthesis engine</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="inlineStr"/>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/thirtythree/44702</t>
+          <t>https://llllllll.co/t/engine-thebangs</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/thirtythree</t>
+          <t>https://github.com/catfact/thebangs.git</t>
         </is>
       </c>
       <c r="H306" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/thirtythree</t>
+          <t>https://norns.community/thebangs</t>
         </is>
       </c>
       <c r="I306" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J306" s="2" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="K306" s="2" t="inlineStr"/>
@@ -16431,48 +16431,52 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>thorns</t>
+          <t>thirtythree</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>mpelath</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>norns, grid, midi, sequencer, generative</t>
+          <t>sequencer, grid</t>
         </is>
       </c>
       <c r="D307" s="2" t="inlineStr">
         <is>
-          <t>fractal sequencer for norns + grid</t>
-        </is>
-      </c>
-      <c r="E307" s="2" t="inlineStr"/>
+          <t>sample + sequencer + splicer in the style of po-33</t>
+        </is>
+      </c>
+      <c r="E307" s="3" t="inlineStr">
+        <is>
+          <t>https://vimeo.com/545281946</t>
+        </is>
+      </c>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/thorns-a-fractal-sequencer/73644</t>
+          <t>https://llllllll.co/t/thirtythree/44702</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/mpelath/thorns</t>
+          <t>https://github.com/schollz/thirtythree</t>
         </is>
       </c>
       <c r="H307" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/thorns</t>
+          <t>https://norns.community/thirtythree</t>
         </is>
       </c>
       <c r="I307" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="K307" s="2" t="inlineStr"/>
@@ -16480,52 +16484,48 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>timber</t>
+          <t>thorns</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>markeats</t>
+          <t>mpelath</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>sampler, midi</t>
+          <t>norns, grid, midi, sequencer, generative</t>
         </is>
       </c>
       <c r="D308" s="2" t="inlineStr">
         <is>
-          <t>sample player engine and scripts</t>
-        </is>
-      </c>
-      <c r="E308" s="3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/Bs4PuShBTbZ</t>
-        </is>
-      </c>
+          <t>fractal sequencer for norns + grid</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="inlineStr"/>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/21407</t>
+          <t>https://llllllll.co/t/thorns-a-fractal-sequencer/73644</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/markwheeler/timber</t>
+          <t>https://github.com/mpelath/thorns</t>
         </is>
       </c>
       <c r="H308" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/timber</t>
+          <t>https://norns.community/thorns</t>
         </is>
       </c>
       <c r="I308" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J308" s="2" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="K308" s="2" t="inlineStr"/>
@@ -16533,48 +16533,52 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>time-rhythm</t>
+          <t>timber</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>emanuelep</t>
+          <t>markeats</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>drum, synth</t>
+          <t>sampler, midi</t>
         </is>
       </c>
       <c r="D309" s="2" t="inlineStr">
         <is>
-          <t>duophonic synthesizer for norns</t>
-        </is>
-      </c>
-      <c r="E309" s="2" t="inlineStr"/>
+          <t>sample player engine and scripts</t>
+        </is>
+      </c>
+      <c r="E309" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Bs4PuShBTbZ</t>
+        </is>
+      </c>
       <c r="F309" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/time-rhythm/</t>
+          <t>https://llllllll.co/t/21407</t>
         </is>
       </c>
       <c r="G309" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/emanuelep/time-rhythm</t>
+          <t>https://github.com/markwheeler/timber</t>
         </is>
       </c>
       <c r="H309" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/time-rhythm</t>
+          <t>https://norns.community/timber</t>
         </is>
       </c>
       <c r="I309" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J309" s="2" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="K309" s="2" t="inlineStr"/>
@@ -16582,52 +16586,48 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>timeparty</t>
+          <t>time-rhythm</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>crim</t>
+          <t>emanuelep</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>audio_fx, delay, grid, crow</t>
+          <t>drum, synth</t>
         </is>
       </c>
       <c r="D310" s="2" t="inlineStr">
         <is>
-          <t>grid based delay sequencer</t>
-        </is>
-      </c>
-      <c r="E310" s="3" t="inlineStr">
-        <is>
-          <t>https://soundcloud.com/track/628734114</t>
-        </is>
-      </c>
+          <t>duophonic synthesizer for norns</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="inlineStr"/>
       <c r="F310" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/timeparty/22837</t>
+          <t>https://llllllll.co/t/time-rhythm/</t>
         </is>
       </c>
       <c r="G310" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/crimclark/timeparty</t>
+          <t>https://github.com/emanuelep/time-rhythm</t>
         </is>
       </c>
       <c r="H310" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/timeparty</t>
+          <t>https://norns.community/time-rhythm</t>
         </is>
       </c>
       <c r="I310" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J310" s="2" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="K310" s="2" t="inlineStr"/>
@@ -16635,52 +16635,52 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>tmi</t>
+          <t>timeparty</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>crim</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>utility, midi</t>
+          <t>audio_fx, delay, grid, crow</t>
         </is>
       </c>
       <c r="D311" s="2" t="inlineStr">
         <is>
-          <t>library for sequencing midi with text</t>
+          <t>grid based delay sequencer</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/503866942</t>
+          <t>https://soundcloud.com/track/628734114</t>
         </is>
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tmi/40818</t>
+          <t>https://llllllll.co/t/timeparty/22837</t>
         </is>
       </c>
       <c r="G311" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/tmi</t>
+          <t>https://github.com/crimclark/timeparty</t>
         </is>
       </c>
       <c r="H311" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tmi</t>
+          <t>https://norns.community/timeparty</t>
         </is>
       </c>
       <c r="I311" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J311" s="2" t="inlineStr">
         <is>
-          <t>2021-01-29</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="K311" s="2" t="inlineStr"/>
@@ -16688,52 +16688,52 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>torii</t>
+          <t>tmi</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>okyeron</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid, midi</t>
+          <t>utility, midi</t>
         </is>
       </c>
       <c r="D312" s="2" t="inlineStr">
         <is>
-          <t>gated audio sequencer</t>
+          <t>library for sequencing midi with text</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B9V3djWhUwn</t>
+          <t>https://vimeo.com/503866942</t>
         </is>
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/torii/30476</t>
+          <t>https://llllllll.co/t/tmi/40818</t>
         </is>
       </c>
       <c r="G312" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/okyeron/torii</t>
+          <t>https://github.com/schollz/tmi</t>
         </is>
       </c>
       <c r="H312" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/torii</t>
+          <t>https://norns.community/tmi</t>
         </is>
       </c>
       <c r="I312" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J312" s="2" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="K312" s="2" t="inlineStr"/>
@@ -16741,12 +16741,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>torii</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>ypxkap</t>
+          <t>okyeron</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -16756,27 +16756,27 @@
       </c>
       <c r="D313" s="2" t="inlineStr">
         <is>
-          <t>edit of @markeats loom for quickly decoupling motifs from their harmonic framework</t>
+          <t>gated audio sequencer</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/ByY7ppPgag_/</t>
+          <t>https://www.instagram.com/p/B9V3djWhUwn</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/traffic/21262</t>
+          <t>https://llllllll.co/t/torii/30476</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ypxk/traffic</t>
+          <t>https://github.com/okyeron/torii</t>
         </is>
       </c>
       <c r="H313" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/traffic</t>
+          <t>https://norns.community/torii</t>
         </is>
       </c>
       <c r="I313" s="2" t="inlineStr">
@@ -16786,7 +16786,7 @@
       </c>
       <c r="J313" s="2" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="K313" s="2" t="inlineStr"/>
@@ -16794,42 +16794,42 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>triangles</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>ChrisLowis</t>
+          <t>ypxkap</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>synth</t>
+          <t>sequencer, grid, midi</t>
         </is>
       </c>
       <c r="D314" s="2" t="inlineStr">
         <is>
-          <t>4-voice triangle wave drone synth</t>
+          <t>edit of @markeats loom for quickly decoupling motifs from their harmonic framework</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qjHoedoSUXY</t>
+          <t>https://www.instagram.com/p/ByY7ppPgag_/</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/triangles/52662</t>
+          <t>https://llllllll.co/t/traffic/21262</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/chrislo/triangles</t>
+          <t>https://github.com/ypxk/traffic</t>
         </is>
       </c>
       <c r="H314" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/triangles</t>
+          <t>https://norns.community/traffic</t>
         </is>
       </c>
       <c r="I314" s="2" t="inlineStr">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="J314" s="2" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="K314" s="2" t="inlineStr"/>
@@ -16847,42 +16847,42 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>tulpamancer</t>
+          <t>triangles</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>ChrisLowis</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>generative, sequencer, midi</t>
+          <t>synth</t>
         </is>
       </c>
       <c r="D315" s="2" t="inlineStr">
         <is>
-          <t>Every night, the kingdom crumbles. And our MIDI pattern, is conjured anew.</t>
+          <t>4-voice triangle wave drone synth</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=sSMW3ABDiJ4</t>
+          <t>https://www.youtube.com/watch?v=qjHoedoSUXY</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/tulpamancer</t>
+          <t>https://llllllll.co/t/triangles/52662</t>
         </is>
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/tulpamancer</t>
+          <t>https://github.com/chrislo/triangles</t>
         </is>
       </c>
       <c r="H315" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tulpamancer</t>
+          <t>https://norns.community/triangles</t>
         </is>
       </c>
       <c r="I315" s="2" t="inlineStr">
@@ -16892,7 +16892,7 @@
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="K315" s="2" t="inlineStr"/>
@@ -16900,48 +16900,52 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>tuner</t>
+          <t>tulpamancer</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>markeats</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>generative, sequencer, midi</t>
         </is>
       </c>
       <c r="D316" s="2" t="inlineStr">
         <is>
-          <t>tune stuff</t>
-        </is>
-      </c>
-      <c r="E316" s="2" t="inlineStr"/>
+          <t>Every night, the kingdom crumbles. And our MIDI pattern, is conjured anew.</t>
+        </is>
+      </c>
+      <c r="E316" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sSMW3ABDiJ4</t>
+        </is>
+      </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tuner/21088</t>
+          <t>https://l.llllllll.co/tulpamancer</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/markwheeler/tuner</t>
+          <t>https://github.com/northern-information/tulpamancer</t>
         </is>
       </c>
       <c r="H316" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tuner</t>
+          <t>https://norns.community/tulpamancer</t>
         </is>
       </c>
       <c r="I316" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J316" s="2" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="K316" s="2" t="inlineStr"/>
@@ -16949,52 +16953,48 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>tunnels</t>
+          <t>tuner</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>speakerdamage</t>
+          <t>markeats</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>delay, audio_fx</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D317" s="2" t="inlineStr">
         <is>
-          <t>a collection of uncertain delays using norns softcut</t>
-        </is>
-      </c>
-      <c r="E317" s="3" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/BwwdlZcls4V/</t>
-        </is>
-      </c>
+          <t>tune stuff</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="inlineStr"/>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tunnels/21973</t>
+          <t>https://llllllll.co/t/tuner/21088</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/speakerdamage/tunnels</t>
+          <t>https://github.com/markwheeler/tuner</t>
         </is>
       </c>
       <c r="H317" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tunnels</t>
+          <t>https://norns.community/tuner</t>
         </is>
       </c>
       <c r="I317" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="K317" s="2" t="inlineStr"/>
@@ -17002,42 +17002,42 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>turntable</t>
+          <t>tunnels</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>adamstaff</t>
+          <t>speakerdamage</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>norns, crow, sampler</t>
+          <t>delay, audio_fx</t>
         </is>
       </c>
       <c r="D318" s="2" t="inlineStr">
         <is>
-          <t>a turntable for norns</t>
+          <t>a collection of uncertain delays using norns softcut</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=kpuc4MYNU9A</t>
+          <t>https://www.instagram.com/p/BwwdlZcls4V/</t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/a-turntable-for-norns-v3-0-1-brings-supercollider-and-crow-to-the-party/67716</t>
+          <t>https://llllllll.co/t/tunnels/21973</t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/adamstaff/turntable</t>
+          <t>https://github.com/speakerdamage/tunnels</t>
         </is>
       </c>
       <c r="H318" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/turntable</t>
+          <t>https://norns.community/tunnels</t>
         </is>
       </c>
       <c r="I318" s="2" t="inlineStr">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="J318" s="2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="K318" s="2" t="inlineStr"/>
@@ -17055,42 +17055,42 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>tviburar</t>
+          <t>turntable</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>ljudvagg, vicimity</t>
+          <t>adamstaff</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>sequencer, crow</t>
+          <t>norns, crow, sampler</t>
         </is>
       </c>
       <c r="D319" s="2" t="inlineStr">
         <is>
-          <t>2x4 complex step sequencer w. free running lfo's</t>
+          <t>a turntable for norns</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pI81ISvjST4</t>
+          <t>https://www.youtube.com/watch?v=kpuc4MYNU9A</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/tviburar/</t>
+          <t>https://llllllll.co/t/a-turntable-for-norns-v3-0-1-brings-supercollider-and-crow-to-the-party/67716</t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/linusschrab/tviburar</t>
+          <t>https://github.com/adamstaff/turntable</t>
         </is>
       </c>
       <c r="H319" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/tviburar</t>
+          <t>https://norns.community/turntable</t>
         </is>
       </c>
       <c r="I319" s="2" t="inlineStr">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="J319" s="2" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="K319" s="2" t="inlineStr"/>
@@ -17108,42 +17108,42 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>twine</t>
+          <t>tviburar</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>cfd90</t>
+          <t>ljudvagg, vicimity</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>granulator</t>
+          <t>sequencer, crow</t>
         </is>
       </c>
       <c r="D320" s="2" t="inlineStr">
         <is>
-          <t>random granulator for two samples</t>
+          <t>2x4 complex step sequencer w. free running lfo's</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RoFk1_z1m18</t>
+          <t>https://www.youtube.com/watch?v=pI81ISvjST4</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/41703</t>
+          <t>https://llllllll.co/t/tviburar/</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/cfdrake/twine</t>
+          <t>https://github.com/linusschrab/tviburar</t>
         </is>
       </c>
       <c r="H320" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/twine</t>
+          <t>https://norns.community/tviburar</t>
         </is>
       </c>
       <c r="I320" s="2" t="inlineStr">
@@ -17153,7 +17153,7 @@
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="K320" s="2" t="inlineStr"/>
@@ -17161,52 +17161,52 @@
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>twins</t>
+          <t>twine</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>dddstudio</t>
+          <t>cfd90</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>granulator, audio_fx</t>
+          <t>granulator</t>
         </is>
       </c>
       <c r="D321" s="2" t="inlineStr">
         <is>
-          <t>randomized dual granular playground, inspired by twine</t>
+          <t>random granulator for two samples</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
         <is>
-          <t>https://soundcloud.com/halfpower/squall</t>
+          <t>https://www.youtube.com/watch?v=RoFk1_z1m18</t>
         </is>
       </c>
       <c r="F321" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/twins/71052</t>
+          <t>https://llllllll.co/t/41703</t>
         </is>
       </c>
       <c r="G321" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/danielrigler/twins</t>
+          <t>https://github.com/cfdrake/twine</t>
         </is>
       </c>
       <c r="H321" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/twins</t>
+          <t>https://norns.community/twine</t>
         </is>
       </c>
       <c r="I321" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="K321" s="2" t="inlineStr"/>
@@ -17214,48 +17214,52 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>twins</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>tyleretters</t>
+          <t>dddstudio</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>granulator, audio_fx</t>
         </is>
       </c>
       <c r="D322" s="2" t="inlineStr">
         <is>
-          <t>norns utility scripts</t>
-        </is>
-      </c>
-      <c r="E322" s="2" t="inlineStr"/>
+          <t>randomized dual granular playground, inspired by twine</t>
+        </is>
+      </c>
+      <c r="E322" s="3" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com/halfpower/squall</t>
+        </is>
+      </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>https://l.llllllll.co/u</t>
+          <t>https://llllllll.co/t/twins/71052</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/u</t>
+          <t>https://github.com/danielrigler/twins</t>
         </is>
       </c>
       <c r="H322" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/u</t>
+          <t>https://norns.community/twins</t>
         </is>
       </c>
       <c r="I322" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="K322" s="2" t="inlineStr"/>
@@ -17263,152 +17267,148 @@
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>ufo</t>
+          <t>u</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>duncangeere</t>
+          <t>tyleretters</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>art, crow, midi, drone, generative</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D323" s="2" t="inlineStr">
         <is>
-          <t>ultra-low frequency oscillator powered by the international space station</t>
-        </is>
-      </c>
-      <c r="E323" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=oiesvr00nFQ</t>
-        </is>
-      </c>
+          <t>norns utility scripts</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="inlineStr"/>
       <c r="F323" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/ufo/62539</t>
+          <t>https://l.llllllll.co/u</t>
         </is>
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/loudnumbers/ufo</t>
+          <t>https://github.com/northern-information/u</t>
         </is>
       </c>
       <c r="H323" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/ufo</t>
+          <t>https://norns.community/u</t>
         </is>
       </c>
       <c r="I323" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J323" s="2" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="inlineStr">
-        <is>
-          <t>Discussion URL</t>
-        </is>
-      </c>
+          <t>2022-02-05</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>uhf</t>
+          <t>ufo</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>speakerdamage</t>
+          <t>duncangeere</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>granulator</t>
+          <t>art, crow, midi, drone, generative</t>
         </is>
       </c>
       <c r="D324" s="2" t="inlineStr">
         <is>
-          <t>your tapes transmitted thru late-night static and broken antenna frequencies</t>
+          <t>ultra-low frequency oscillator powered by the international space station</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XMHBb7v7qSg</t>
+          <t>https://www.youtube.com/watch?v=oiesvr00nFQ</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/uhf-norns/21154</t>
+          <t>https://llllllll.co/t/ufo/62539</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/speakerdamage/uhf</t>
+          <t>https://github.com/loudnumbers/ufo</t>
         </is>
       </c>
       <c r="H324" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/uhf</t>
+          <t>https://norns.community/ufo</t>
         </is>
       </c>
       <c r="I324" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J324" s="2" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
-        </is>
-      </c>
-      <c r="K324" s="2" t="inlineStr"/>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="K324" s="2" t="inlineStr">
+        <is>
+          <t>Discussion URL</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>vcr</t>
+          <t>uhf</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>justmat</t>
+          <t>speakerdamage</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>crow, grid</t>
+          <t>granulator</t>
         </is>
       </c>
       <c r="D325" s="2" t="inlineStr">
         <is>
-          <t>collect and recall voltages</t>
+          <t>your tapes transmitted thru late-night static and broken antenna frequencies</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/849959050</t>
+          <t>https://www.youtube.com/watch?v=XMHBb7v7qSg</t>
         </is>
       </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/vcr/63457</t>
+          <t>https://llllllll.co/t/uhf-norns/21154</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/justmat/vcr</t>
+          <t>https://github.com/speakerdamage/uhf</t>
         </is>
       </c>
       <c r="H325" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/vcr</t>
+          <t>https://norns.community/uhf</t>
         </is>
       </c>
       <c r="I325" s="2" t="inlineStr">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="J325" s="2" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="K325" s="2" t="inlineStr"/>
@@ -17426,42 +17426,42 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>vials</t>
+          <t>vcr</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>nattog</t>
+          <t>justmat</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>sequencer, sampler, grid</t>
+          <t>crow, grid</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t>4 track performance-oriented sample sequencer</t>
+          <t>collect and recall voltages</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/BydFuPwAhma/</t>
+          <t>https://vimeo.com/849959050</t>
         </is>
       </c>
       <c r="F326" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/vials/23109</t>
+          <t>https://llllllll.co/t/vcr/63457</t>
         </is>
       </c>
       <c r="G326" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/nattog/vials</t>
+          <t>https://github.com/justmat/vcr</t>
         </is>
       </c>
       <c r="H326" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/vials</t>
+          <t>https://norns.community/vcr</t>
         </is>
       </c>
       <c r="I326" s="2" t="inlineStr">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="J326" s="2" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="K326" s="2" t="inlineStr"/>
@@ -17479,48 +17479,52 @@
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>warmreload</t>
+          <t>vials</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>nattog</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>mod</t>
+          <t>sequencer, sampler, grid</t>
         </is>
       </c>
       <c r="D327" s="2" t="inlineStr">
         <is>
-          <t>a norns mod to automatically reload a script after saving</t>
-        </is>
-      </c>
-      <c r="E327" s="2" t="inlineStr"/>
+          <t>4 track performance-oriented sample sequencer</t>
+        </is>
+      </c>
+      <c r="E327" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/BydFuPwAhma/</t>
+        </is>
+      </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/warmreload/63623</t>
+          <t>https://llllllll.co/t/vials/23109</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/warmreload</t>
+          <t>https://github.com/nattog/vials</t>
         </is>
       </c>
       <c r="H327" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/warmreload</t>
+          <t>https://norns.community/vials</t>
         </is>
       </c>
       <c r="I327" s="2" t="inlineStr">
         <is>
-          <t>Missing Demo</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J327" s="2" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="K327" s="2" t="inlineStr"/>
@@ -17528,52 +17532,48 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>waver</t>
+          <t>warmreload</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>alanza</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>utility</t>
+          <t>mod</t>
         </is>
       </c>
       <c r="D328" s="2" t="inlineStr">
         <is>
-          <t>assemble a song from TAPE</t>
-        </is>
-      </c>
-      <c r="E328" s="3" t="inlineStr">
-        <is>
-          <t>https://vimeo.com/623981771</t>
-        </is>
-      </c>
+          <t>a norns mod to automatically reload a script after saving</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="inlineStr"/>
       <c r="F328" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/waver/49271</t>
+          <t>https://llllllll.co/t/warmreload/63623</t>
         </is>
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryleelyman/waver</t>
+          <t>https://github.com/schollz/warmreload</t>
         </is>
       </c>
       <c r="H328" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/waver</t>
+          <t>https://norns.community/warmreload</t>
         </is>
       </c>
       <c r="I328" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Missing Demo</t>
         </is>
       </c>
       <c r="J328" s="2" t="inlineStr">
         <is>
-          <t>2021-10-10</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="K328" s="2" t="inlineStr"/>
@@ -17581,52 +17581,52 @@
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>window-crowparator</t>
+          <t>waver</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>xmacex</t>
+          <t>alanza</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>crow</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="D329" s="2" t="inlineStr">
         <is>
-          <t>Window comparator for crow</t>
+          <t>assemble a song from TAPE</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/uploads/default/original/3X/6/a/6acc86862992482e2ea4c3b28feeae1a635e6663.mp3</t>
+          <t>https://vimeo.com/623981771</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/window-crowparator/71520</t>
+          <t>https://llllllll.co/t/waver/49271</t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/xmacex/window-crowparator</t>
+          <t>https://github.com/ryleelyman/waver</t>
         </is>
       </c>
       <c r="H329" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/window-crowparator</t>
+          <t>https://norns.community/waver</t>
         </is>
       </c>
       <c r="I329" s="2" t="inlineStr">
         <is>
-          <t>Manual Override</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J329" s="2" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2021-10-10</t>
         </is>
       </c>
       <c r="K329" s="2" t="inlineStr"/>
@@ -17634,52 +17634,52 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>wobblewobble</t>
+          <t>window-crowparator</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>infinitedigits</t>
+          <t>xmacex</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>utility, crow, midi</t>
+          <t>crow</t>
         </is>
       </c>
       <c r="D330" s="2" t="inlineStr">
         <is>
-          <t>slow oscillators for crow</t>
+          <t>Window comparator for crow</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/553165797</t>
+          <t>https://llllllll.co/uploads/default/original/3X/6/a/6acc86862992482e2ea4c3b28feeae1a635e6663.mp3</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/wobblewobble/45215</t>
+          <t>https://llllllll.co/t/window-crowparator/71520</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/schollz/wobblewobble</t>
+          <t>https://github.com/xmacex/window-crowparator</t>
         </is>
       </c>
       <c r="H330" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/wobblewobble</t>
+          <t>https://norns.community/window-crowparator</t>
         </is>
       </c>
       <c r="I330" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>Manual Override</t>
         </is>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="K330" s="2" t="inlineStr"/>
@@ -17687,52 +17687,52 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>wrms</t>
+          <t>wobblewobble</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>andrew</t>
+          <t>infinitedigits</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>delay, looper</t>
+          <t>utility, crow, midi</t>
         </is>
       </c>
       <c r="D331" s="2" t="inlineStr">
         <is>
-          <t>dual asyncronous time-wigglers / echo loopers</t>
+          <t>slow oscillators for crow</t>
         </is>
       </c>
       <c r="E331" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UTj8voI0-98</t>
+          <t>https://vimeo.com/553165797</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/wrms/28954</t>
+          <t>https://llllllll.co/t/wobblewobble/45215</t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/AndrewShike/wrms</t>
+          <t>https://github.com/schollz/wobblewobble</t>
         </is>
       </c>
       <c r="H331" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/wrms</t>
+          <t>https://norns.community/wobblewobble</t>
         </is>
       </c>
       <c r="I331" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2021-10-22</t>
         </is>
       </c>
       <c r="K331" s="2" t="inlineStr"/>
@@ -17740,52 +17740,52 @@
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>xD1</t>
+          <t>wrms</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>alanza</t>
+          <t>andrew</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>synth, midi</t>
+          <t>delay, looper</t>
         </is>
       </c>
       <c r="D332" s="2" t="inlineStr">
         <is>
-          <t>xD1 is an FM synth</t>
+          <t>dual asyncronous time-wigglers / echo loopers</t>
         </is>
       </c>
       <c r="E332" s="3" t="inlineStr">
         <is>
-          <t>https://vimeo.com/763197892</t>
+          <t>https://www.youtube.com/watch?v=UTj8voI0-98</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/xd1-is-an-fm-synth/59150</t>
+          <t>https://llllllll.co/t/wrms/28954</t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/ryleelyman/xD1</t>
+          <t>https://github.com/AndrewShike/wrms</t>
         </is>
       </c>
       <c r="H332" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/xD1</t>
+          <t>https://norns.community/wrms</t>
         </is>
       </c>
       <c r="I332" s="2" t="inlineStr">
         <is>
-          <t>Extract Preferred</t>
+          <t>No Conflict</t>
         </is>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="K332" s="2" t="inlineStr"/>
@@ -17793,99 +17793,95 @@
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>yggdrasil</t>
+          <t>xD1</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>argotechnica, infinitedigits, license, tyleretters</t>
+          <t>alanza</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>sequencer, tracker, midi, keyboard</t>
+          <t>synth, midi</t>
         </is>
       </c>
       <c r="D333" s="2" t="inlineStr">
         <is>
-          <t>a norns cyberdeck tracker</t>
+          <t>xD1 is an FM synth</t>
         </is>
       </c>
       <c r="E333" s="3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8ac2qw9gmaw</t>
+          <t>https://vimeo.com/763197892</t>
         </is>
       </c>
       <c r="F333" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/yggdrasil/38040</t>
+          <t>https://llllllll.co/t/xd1-is-an-fm-synth/59150</t>
         </is>
       </c>
       <c r="G333" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/northern-information/yggdrasil</t>
+          <t>https://github.com/ryleelyman/xD1</t>
         </is>
       </c>
       <c r="H333" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/yggdrasil</t>
+          <t>https://norns.community/xD1</t>
         </is>
       </c>
       <c r="I333" s="2" t="inlineStr">
         <is>
-          <t>No Conflict</t>
+          <t>Extract Preferred</t>
         </is>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="inlineStr">
-        <is>
-          <t>Discussion URL</t>
-        </is>
-      </c>
+          <t>2022-12-17</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>zellen</t>
+          <t>yggdrasil</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>sbaio</t>
+          <t>argotechnica, infinitedigits, license, tyleretters</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>sequencer, grid</t>
+          <t>sequencer, tracker, midi, keyboard</t>
         </is>
       </c>
       <c r="D334" s="2" t="inlineStr">
         <is>
-          <t>game of life based sequencer</t>
+          <t>a norns cyberdeck tracker</t>
         </is>
       </c>
       <c r="E334" s="3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/B0t-nJsBTV2/</t>
+          <t>https://www.youtube.com/watch?v=8ac2qw9gmaw</t>
         </is>
       </c>
       <c r="F334" s="3" t="inlineStr">
         <is>
-          <t>https://llllllll.co/t/zellen/21107</t>
+          <t>https://llllllll.co/t/yggdrasil/38040</t>
         </is>
       </c>
       <c r="G334" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/sarweiler/zellen</t>
+          <t>https://github.com/northern-information/yggdrasil</t>
         </is>
       </c>
       <c r="H334" s="3" t="inlineStr">
         <is>
-          <t>https://norns.community/zellen</t>
+          <t>https://norns.community/yggdrasil</t>
         </is>
       </c>
       <c r="I334" s="2" t="inlineStr">
@@ -17895,63 +17891,120 @@
       </c>
       <c r="J334" s="2" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
-        </is>
-      </c>
-      <c r="K334" s="2" t="inlineStr"/>
+          <t>2022-06-26</t>
+        </is>
+      </c>
+      <c r="K334" s="2" t="inlineStr">
+        <is>
+          <t>Discussion URL</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
+          <t>zellen</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="inlineStr">
+        <is>
+          <t>sbaio</t>
+        </is>
+      </c>
+      <c r="C335" s="2" t="inlineStr">
+        <is>
+          <t>sequencer, grid</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="inlineStr">
+        <is>
+          <t>game of life based sequencer</t>
+        </is>
+      </c>
+      <c r="E335" s="3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/B0t-nJsBTV2/</t>
+        </is>
+      </c>
+      <c r="F335" s="3" t="inlineStr">
+        <is>
+          <t>https://llllllll.co/t/zellen/21107</t>
+        </is>
+      </c>
+      <c r="G335" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/sarweiler/zellen</t>
+        </is>
+      </c>
+      <c r="H335" s="3" t="inlineStr">
+        <is>
+          <t>https://norns.community/zellen</t>
+        </is>
+      </c>
+      <c r="I335" s="2" t="inlineStr">
+        <is>
+          <t>No Conflict</t>
+        </is>
+      </c>
+      <c r="J335" s="2" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="K335" s="2" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="inlineStr">
+        <is>
           <t>zxcvbn</t>
         </is>
       </c>
-      <c r="B335" s="2" t="inlineStr">
+      <c r="B336" s="2" t="inlineStr">
         <is>
           <t>infinitedigits</t>
         </is>
       </c>
-      <c r="C335" s="2" t="inlineStr">
+      <c r="C336" s="2" t="inlineStr">
         <is>
           <t>sequencer, tracker, keyboard, midi, crow</t>
         </is>
       </c>
-      <c r="D335" s="2" t="inlineStr">
+      <c r="D336" s="2" t="inlineStr">
         <is>
           <t>a tracker</t>
         </is>
       </c>
-      <c r="E335" s="3" t="inlineStr">
+      <c r="E336" s="3" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=6W9oiyR2XD8</t>
         </is>
       </c>
-      <c r="F335" s="3" t="inlineStr">
+      <c r="F336" s="3" t="inlineStr">
         <is>
           <t>https://llllllll.co/t/zxcvbn/59289</t>
         </is>
       </c>
-      <c r="G335" s="3" t="inlineStr">
+      <c r="G336" s="3" t="inlineStr">
         <is>
           <t>https://github.com/schollz/zxcvbn</t>
         </is>
       </c>
-      <c r="H335" s="3" t="inlineStr">
+      <c r="H336" s="3" t="inlineStr">
         <is>
           <t>https://norns.community/zxcvbn</t>
         </is>
       </c>
-      <c r="I335" s="2" t="inlineStr">
+      <c r="I336" s="2" t="inlineStr">
         <is>
           <t>No Conflict</t>
         </is>
       </c>
-      <c r="J335" s="2" t="inlineStr">
+      <c r="J336" s="2" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
-      <c r="K335" s="2" t="inlineStr"/>
+      <c r="K336" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18867,10 +18920,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F244" r:id="rId910"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G244" r:id="rId911"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H244" r:id="rId912"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F245" r:id="rId913"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G245" r:id="rId914"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H245" r:id="rId915"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E246" r:id="rId916"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E245" r:id="rId913"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F245" r:id="rId914"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G245" r:id="rId915"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H245" r:id="rId916"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F246" r:id="rId917"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G246" r:id="rId918"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H246" r:id="rId919"/>
@@ -18882,16 +18935,16 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F248" r:id="rId925"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G248" r:id="rId926"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H248" r:id="rId927"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G249" r:id="rId928"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H249" r:id="rId929"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E250" r:id="rId930"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F250" r:id="rId931"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E249" r:id="rId928"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F249" r:id="rId929"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G249" r:id="rId930"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H249" r:id="rId931"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G250" r:id="rId932"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H250" r:id="rId933"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F251" r:id="rId934"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G251" r:id="rId935"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H251" r:id="rId936"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E252" r:id="rId937"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E251" r:id="rId934"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F251" r:id="rId935"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G251" r:id="rId936"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H251" r:id="rId937"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F252" r:id="rId938"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G252" r:id="rId939"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H252" r:id="rId940"/>
@@ -18911,10 +18964,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F256" r:id="rId954"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G256" r:id="rId955"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H256" r:id="rId956"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G257" r:id="rId957"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H257" r:id="rId958"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E258" r:id="rId959"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F258" r:id="rId960"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E257" r:id="rId957"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F257" r:id="rId958"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G257" r:id="rId959"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H257" r:id="rId960"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G258" r:id="rId961"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H258" r:id="rId962"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E259" r:id="rId963"/>
@@ -18933,10 +18986,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F262" r:id="rId976"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G262" r:id="rId977"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H262" r:id="rId978"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F263" r:id="rId979"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G263" r:id="rId980"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H263" r:id="rId981"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E264" r:id="rId982"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E263" r:id="rId979"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F263" r:id="rId980"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G263" r:id="rId981"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H263" r:id="rId982"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F264" r:id="rId983"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G264" r:id="rId984"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H264" r:id="rId985"/>
@@ -18960,15 +19013,15 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F269" r:id="rId1003"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G269" r:id="rId1004"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H269" r:id="rId1005"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F270" r:id="rId1006"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G270" r:id="rId1007"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H270" r:id="rId1008"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G271" r:id="rId1009"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H271" r:id="rId1010"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F272" r:id="rId1011"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G272" r:id="rId1012"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H272" r:id="rId1013"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E273" r:id="rId1014"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E270" r:id="rId1006"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F270" r:id="rId1007"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G270" r:id="rId1008"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H270" r:id="rId1009"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F271" r:id="rId1010"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G271" r:id="rId1011"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H271" r:id="rId1012"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G272" r:id="rId1013"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H272" r:id="rId1014"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F273" r:id="rId1015"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G273" r:id="rId1016"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H273" r:id="rId1017"/>
@@ -18984,10 +19037,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F276" r:id="rId1027"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G276" r:id="rId1028"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H276" r:id="rId1029"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F277" r:id="rId1030"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G277" r:id="rId1031"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H277" r:id="rId1032"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E278" r:id="rId1033"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E277" r:id="rId1030"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F277" r:id="rId1031"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G277" r:id="rId1032"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H277" r:id="rId1033"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F278" r:id="rId1034"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G278" r:id="rId1035"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H278" r:id="rId1036"/>
@@ -19011,10 +19064,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F283" r:id="rId1054"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G283" r:id="rId1055"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H283" r:id="rId1056"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F284" r:id="rId1057"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G284" r:id="rId1058"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H284" r:id="rId1059"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E285" r:id="rId1060"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E284" r:id="rId1057"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F284" r:id="rId1058"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G284" r:id="rId1059"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H284" r:id="rId1060"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F285" r:id="rId1061"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G285" r:id="rId1062"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H285" r:id="rId1063"/>
@@ -19022,10 +19075,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F286" r:id="rId1065"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G286" r:id="rId1066"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H286" r:id="rId1067"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F287" r:id="rId1068"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G287" r:id="rId1069"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H287" r:id="rId1070"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E288" r:id="rId1071"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E287" r:id="rId1068"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F287" r:id="rId1069"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G287" r:id="rId1070"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H287" r:id="rId1071"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F288" r:id="rId1072"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G288" r:id="rId1073"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H288" r:id="rId1074"/>
@@ -19041,10 +19094,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F291" r:id="rId1084"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G291" r:id="rId1085"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H291" r:id="rId1086"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F292" r:id="rId1087"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G292" r:id="rId1088"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H292" r:id="rId1089"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E293" r:id="rId1090"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E292" r:id="rId1087"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F292" r:id="rId1088"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G292" r:id="rId1089"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H292" r:id="rId1090"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F293" r:id="rId1091"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G293" r:id="rId1092"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H293" r:id="rId1093"/>
@@ -19056,10 +19109,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F295" r:id="rId1099"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G295" r:id="rId1100"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H295" r:id="rId1101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F296" r:id="rId1102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G296" r:id="rId1103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H296" r:id="rId1104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E297" r:id="rId1105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E296" r:id="rId1102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F296" r:id="rId1103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G296" r:id="rId1104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H296" r:id="rId1105"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F297" r:id="rId1106"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G297" r:id="rId1107"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H297" r:id="rId1108"/>
@@ -19091,24 +19144,24 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F304" r:id="rId1134"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G304" r:id="rId1135"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H304" r:id="rId1136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F305" r:id="rId1137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G305" r:id="rId1138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H305" r:id="rId1139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E306" r:id="rId1140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E305" r:id="rId1137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F305" r:id="rId1138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G305" r:id="rId1139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H305" r:id="rId1140"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F306" r:id="rId1141"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G306" r:id="rId1142"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H306" r:id="rId1143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F307" r:id="rId1144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G307" r:id="rId1145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H307" r:id="rId1146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E308" r:id="rId1147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E307" r:id="rId1144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F307" r:id="rId1145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G307" r:id="rId1146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H307" r:id="rId1147"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F308" r:id="rId1148"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G308" r:id="rId1149"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H308" r:id="rId1150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F309" r:id="rId1151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G309" r:id="rId1152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H309" r:id="rId1153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E310" r:id="rId1154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E309" r:id="rId1151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F309" r:id="rId1152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G309" r:id="rId1153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H309" r:id="rId1154"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F310" r:id="rId1155"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G310" r:id="rId1156"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H310" r:id="rId1157"/>
@@ -19132,10 +19185,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F315" r:id="rId1175"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G315" r:id="rId1176"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H315" r:id="rId1177"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F316" r:id="rId1178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G316" r:id="rId1179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H316" r:id="rId1180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E317" r:id="rId1181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E316" r:id="rId1178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F316" r:id="rId1179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G316" r:id="rId1180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H316" r:id="rId1181"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F317" r:id="rId1182"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G317" r:id="rId1183"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H317" r:id="rId1184"/>
@@ -19155,10 +19208,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F321" r:id="rId1198"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G321" r:id="rId1199"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H321" r:id="rId1200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F322" r:id="rId1201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G322" r:id="rId1202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H322" r:id="rId1203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E323" r:id="rId1204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E322" r:id="rId1201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F322" r:id="rId1202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G322" r:id="rId1203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H322" r:id="rId1204"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F323" r:id="rId1205"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G323" r:id="rId1206"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H323" r:id="rId1207"/>
@@ -19174,10 +19227,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F326" r:id="rId1217"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G326" r:id="rId1218"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H326" r:id="rId1219"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F327" r:id="rId1220"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G327" r:id="rId1221"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H327" r:id="rId1222"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E328" r:id="rId1223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E327" r:id="rId1220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F327" r:id="rId1221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G327" r:id="rId1222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H327" r:id="rId1223"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F328" r:id="rId1224"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G328" r:id="rId1225"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H328" r:id="rId1226"/>
@@ -19209,10 +19262,14 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F335" r:id="rId1252"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G335" r:id="rId1253"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H335" r:id="rId1254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E336" r:id="rId1255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F336" r:id="rId1256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G336" r:id="rId1257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H336" r:id="rId1258"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1255"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1259"/>
   </tableParts>
 </worksheet>
 </file>
--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -4845,7 +4845,7 @@
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="K322" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="K322" s="2" t="inlineStr"/>

--- a/norns_scripts.xlsx
+++ b/norns_scripts.xlsx
@@ -17259,7 +17259,7 @@
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="K322" s="2" t="inlineStr"/>
